--- a/locations.xlsx
+++ b/locations.xlsx
@@ -397,22 +397,4726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B589"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>label</v>
+      </c>
+      <c r="B1" t="str">
         <v>code</v>
       </c>
-      <c r="B1" t="str">
-        <v>label</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>12.111</v>
+      </c>
+      <c r="B2" t="str">
+        <v>3012.111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>12.112</v>
+      </c>
+      <c r="B3" t="str">
+        <v>3012.112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>12.113</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3012.113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>12.121</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3012.121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>12.122</v>
+      </c>
+      <c r="B6" t="str">
+        <v>3012.122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>12.123</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3012.123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>12.131</v>
+      </c>
+      <c r="B8" t="str">
+        <v>3012.131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>12.132</v>
+      </c>
+      <c r="B9" t="str">
+        <v>3012.132</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>12.133</v>
+      </c>
+      <c r="B10" t="str">
+        <v>3012.133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>12.141</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3012.141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>12.142</v>
+      </c>
+      <c r="B12" t="str">
+        <v>3012.142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12.143</v>
+      </c>
+      <c r="B13" t="str">
+        <v>3012.143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>12.151</v>
+      </c>
+      <c r="B14" t="str">
+        <v>3012.151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>12.152</v>
+      </c>
+      <c r="B15" t="str">
+        <v>3012.152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>12.153</v>
+      </c>
+      <c r="B16" t="str">
+        <v>3012.153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>12.161</v>
+      </c>
+      <c r="B17" t="str">
+        <v>3012.161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>12.162</v>
+      </c>
+      <c r="B18" t="str">
+        <v>3012.162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>12.163</v>
+      </c>
+      <c r="B19" t="str">
+        <v>3012.163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>12.171</v>
+      </c>
+      <c r="B20" t="str">
+        <v>3012.171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>12.172</v>
+      </c>
+      <c r="B21" t="str">
+        <v>3012.172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>12.173</v>
+      </c>
+      <c r="B22" t="str">
+        <v>3012.173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>12.211</v>
+      </c>
+      <c r="B23" t="str">
+        <v>3012.211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>12.212</v>
+      </c>
+      <c r="B24" t="str">
+        <v>3012.212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>12.213</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3012.213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>12.221</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3012.221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>12.222</v>
+      </c>
+      <c r="B27" t="str">
+        <v>3012.222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>12.223</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3012.223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>12.231</v>
+      </c>
+      <c r="B29" t="str">
+        <v>3012.231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>12.232</v>
+      </c>
+      <c r="B30" t="str">
+        <v>3012.232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>12.233</v>
+      </c>
+      <c r="B31" t="str">
+        <v>3012.233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>12.241</v>
+      </c>
+      <c r="B32" t="str">
+        <v>3012.241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>12.242</v>
+      </c>
+      <c r="B33" t="str">
+        <v>3012.242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>12.243</v>
+      </c>
+      <c r="B34" t="str">
+        <v>3012.243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>12.251</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3012.251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>12.252</v>
+      </c>
+      <c r="B36" t="str">
+        <v>3012.252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>12.253</v>
+      </c>
+      <c r="B37" t="str">
+        <v>3012.253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>12.261</v>
+      </c>
+      <c r="B38" t="str">
+        <v>3012.261</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>12.262</v>
+      </c>
+      <c r="B39" t="str">
+        <v>3012.262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>12.263</v>
+      </c>
+      <c r="B40" t="str">
+        <v>3012.263</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>12.271</v>
+      </c>
+      <c r="B41" t="str">
+        <v>3012.271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>12.272</v>
+      </c>
+      <c r="B42" t="str">
+        <v>3012.272</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>12.273</v>
+      </c>
+      <c r="B43" t="str">
+        <v>3012.273</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>12.311</v>
+      </c>
+      <c r="B44" t="str">
+        <v>3012.311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>12.312</v>
+      </c>
+      <c r="B45" t="str">
+        <v>3012.312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>12.313</v>
+      </c>
+      <c r="B46" t="str">
+        <v>3012.313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>12.321</v>
+      </c>
+      <c r="B47" t="str">
+        <v>3012.321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>12.322</v>
+      </c>
+      <c r="B48" t="str">
+        <v>3012.322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>12.323</v>
+      </c>
+      <c r="B49" t="str">
+        <v>3012.323</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>12.331</v>
+      </c>
+      <c r="B50" t="str">
+        <v>3012.331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>12.332</v>
+      </c>
+      <c r="B51" t="str">
+        <v>3012.332</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>12.333</v>
+      </c>
+      <c r="B52" t="str">
+        <v>3012.333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>12.341</v>
+      </c>
+      <c r="B53" t="str">
+        <v>3012.341</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>12.342</v>
+      </c>
+      <c r="B54" t="str">
+        <v>3012.342</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>12.343</v>
+      </c>
+      <c r="B55" t="str">
+        <v>3012.343</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>12.351</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3012.351</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>12.352</v>
+      </c>
+      <c r="B57" t="str">
+        <v>3012.352</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>12.353</v>
+      </c>
+      <c r="B58" t="str">
+        <v>3012.353</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>12.361</v>
+      </c>
+      <c r="B59" t="str">
+        <v>3012.361</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>12.362</v>
+      </c>
+      <c r="B60" t="str">
+        <v>3012.362</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>12.363</v>
+      </c>
+      <c r="B61" t="str">
+        <v>3012.363</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>12.371</v>
+      </c>
+      <c r="B62" t="str">
+        <v>3012.371</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>12.372</v>
+      </c>
+      <c r="B63" t="str">
+        <v>3012.372</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>12.373</v>
+      </c>
+      <c r="B64" t="str">
+        <v>3012.373</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>12.411</v>
+      </c>
+      <c r="B65" t="str">
+        <v>3012.411</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>12.412</v>
+      </c>
+      <c r="B66" t="str">
+        <v>3012.412</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>12.413</v>
+      </c>
+      <c r="B67" t="str">
+        <v>3012.413</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>12.421</v>
+      </c>
+      <c r="B68" t="str">
+        <v>3012.421</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>12.422</v>
+      </c>
+      <c r="B69" t="str">
+        <v>3012.422</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>12.423</v>
+      </c>
+      <c r="B70" t="str">
+        <v>3012.423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>12.431</v>
+      </c>
+      <c r="B71" t="str">
+        <v>3012.431</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>12.432</v>
+      </c>
+      <c r="B72" t="str">
+        <v>3012.432</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>12.433</v>
+      </c>
+      <c r="B73" t="str">
+        <v>3012.433</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>12.441</v>
+      </c>
+      <c r="B74" t="str">
+        <v>3012.441</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>12.442</v>
+      </c>
+      <c r="B75" t="str">
+        <v>3012.442</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>12.443</v>
+      </c>
+      <c r="B76" t="str">
+        <v>3012.443</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>12.451</v>
+      </c>
+      <c r="B77" t="str">
+        <v>3012.451</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>12.452</v>
+      </c>
+      <c r="B78" t="str">
+        <v>3012.452</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>12.453</v>
+      </c>
+      <c r="B79" t="str">
+        <v>3012.453</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>12.461</v>
+      </c>
+      <c r="B80" t="str">
+        <v>3012.461</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>12.462</v>
+      </c>
+      <c r="B81" t="str">
+        <v>3012.462</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>12.463</v>
+      </c>
+      <c r="B82" t="str">
+        <v>3012.463</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>12.471</v>
+      </c>
+      <c r="B83" t="str">
+        <v>3012.471</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>12.472</v>
+      </c>
+      <c r="B84" t="str">
+        <v>3012.472</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>12.473</v>
+      </c>
+      <c r="B85" t="str">
+        <v>3012.473</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>12.511</v>
+      </c>
+      <c r="B86" t="str">
+        <v>3012.511</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>12.512</v>
+      </c>
+      <c r="B87" t="str">
+        <v>3012.512</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>12.513</v>
+      </c>
+      <c r="B88" t="str">
+        <v>3012.513</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>12.521</v>
+      </c>
+      <c r="B89" t="str">
+        <v>3012.521</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>12.522</v>
+      </c>
+      <c r="B90" t="str">
+        <v>3012.522</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>12.523</v>
+      </c>
+      <c r="B91" t="str">
+        <v>3012.523</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>12.531</v>
+      </c>
+      <c r="B92" t="str">
+        <v>3012.531</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>12.532</v>
+      </c>
+      <c r="B93" t="str">
+        <v>3012.532</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>12.533</v>
+      </c>
+      <c r="B94" t="str">
+        <v>3012.533</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>12.541</v>
+      </c>
+      <c r="B95" t="str">
+        <v>3012.541</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>12.542</v>
+      </c>
+      <c r="B96" t="str">
+        <v>3012.542</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>12.543</v>
+      </c>
+      <c r="B97" t="str">
+        <v>3012.543</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>12.551</v>
+      </c>
+      <c r="B98" t="str">
+        <v>3012.551</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>12.552</v>
+      </c>
+      <c r="B99" t="str">
+        <v>3012.552</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>12.553</v>
+      </c>
+      <c r="B100" t="str">
+        <v>3012.553</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>12.561</v>
+      </c>
+      <c r="B101" t="str">
+        <v>3012.561</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>12.562</v>
+      </c>
+      <c r="B102" t="str">
+        <v>3012.562</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>12.563</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3012.563</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>12.571</v>
+      </c>
+      <c r="B104" t="str">
+        <v>3012.571</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>12.572</v>
+      </c>
+      <c r="B105" t="str">
+        <v>3012.572</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>12.573</v>
+      </c>
+      <c r="B106" t="str">
+        <v>3012.573</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>12.611</v>
+      </c>
+      <c r="B107" t="str">
+        <v>3012.611</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>12.612</v>
+      </c>
+      <c r="B108" t="str">
+        <v>3012.612</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>12.613</v>
+      </c>
+      <c r="B109" t="str">
+        <v>3012.613</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>12.621</v>
+      </c>
+      <c r="B110" t="str">
+        <v>3012.621</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>12.622</v>
+      </c>
+      <c r="B111" t="str">
+        <v>3012.622</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>12.623</v>
+      </c>
+      <c r="B112" t="str">
+        <v>3012.623</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>12.631</v>
+      </c>
+      <c r="B113" t="str">
+        <v>3012.631</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>12.632</v>
+      </c>
+      <c r="B114" t="str">
+        <v>3012.632</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>12.633</v>
+      </c>
+      <c r="B115" t="str">
+        <v>3012.633</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>12.641</v>
+      </c>
+      <c r="B116" t="str">
+        <v>3012.641</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>12.642</v>
+      </c>
+      <c r="B117" t="str">
+        <v>3012.642</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>12.643</v>
+      </c>
+      <c r="B118" t="str">
+        <v>3012.643</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>12.651</v>
+      </c>
+      <c r="B119" t="str">
+        <v>3012.651</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>12.652</v>
+      </c>
+      <c r="B120" t="str">
+        <v>3012.652</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>12.653</v>
+      </c>
+      <c r="B121" t="str">
+        <v>3012.653</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>12.661</v>
+      </c>
+      <c r="B122" t="str">
+        <v>3012.661</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>12.662</v>
+      </c>
+      <c r="B123" t="str">
+        <v>3012.662</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>12.663</v>
+      </c>
+      <c r="B124" t="str">
+        <v>3012.663</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>12.671</v>
+      </c>
+      <c r="B125" t="str">
+        <v>3012.671</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>12.672</v>
+      </c>
+      <c r="B126" t="str">
+        <v>3012.672</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>12.673</v>
+      </c>
+      <c r="B127" t="str">
+        <v>3012.673</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>12.711</v>
+      </c>
+      <c r="B128" t="str">
+        <v>3012.711</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>12.712</v>
+      </c>
+      <c r="B129" t="str">
+        <v>3012.712</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>12.713</v>
+      </c>
+      <c r="B130" t="str">
+        <v>3012.713</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>12.721</v>
+      </c>
+      <c r="B131" t="str">
+        <v>3012.721</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>12.722</v>
+      </c>
+      <c r="B132" t="str">
+        <v>3012.722</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>12.723</v>
+      </c>
+      <c r="B133" t="str">
+        <v>3012.723</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>12.731</v>
+      </c>
+      <c r="B134" t="str">
+        <v>3012.731</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>12.732</v>
+      </c>
+      <c r="B135" t="str">
+        <v>3012.732</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>12.733</v>
+      </c>
+      <c r="B136" t="str">
+        <v>3012.733</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>12.741</v>
+      </c>
+      <c r="B137" t="str">
+        <v>3012.741</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>12.742</v>
+      </c>
+      <c r="B138" t="str">
+        <v>3012.742</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>12.743</v>
+      </c>
+      <c r="B139" t="str">
+        <v>3012.743</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>12.751</v>
+      </c>
+      <c r="B140" t="str">
+        <v>3012.751</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>12.752</v>
+      </c>
+      <c r="B141" t="str">
+        <v>3012.752</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>12.753</v>
+      </c>
+      <c r="B142" t="str">
+        <v>3012.753</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>12.761</v>
+      </c>
+      <c r="B143" t="str">
+        <v>3012.761</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>12.762</v>
+      </c>
+      <c r="B144" t="str">
+        <v>3012.762</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>12.763</v>
+      </c>
+      <c r="B145" t="str">
+        <v>3012.763</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>12.771</v>
+      </c>
+      <c r="B146" t="str">
+        <v>3012.771</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>12.772</v>
+      </c>
+      <c r="B147" t="str">
+        <v>3012.772</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>12.773</v>
+      </c>
+      <c r="B148" t="str">
+        <v>3012.773</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>13.111</v>
+      </c>
+      <c r="B149" t="str">
+        <v>3013.111</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>13.112</v>
+      </c>
+      <c r="B150" t="str">
+        <v>3013.112</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>13.113</v>
+      </c>
+      <c r="B151" t="str">
+        <v>3013.113</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>13.121</v>
+      </c>
+      <c r="B152" t="str">
+        <v>3013.121</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>13.122</v>
+      </c>
+      <c r="B153" t="str">
+        <v>3013.122</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>13.123</v>
+      </c>
+      <c r="B154" t="str">
+        <v>3013.123</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>13.131</v>
+      </c>
+      <c r="B155" t="str">
+        <v>3013.131</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>13.132</v>
+      </c>
+      <c r="B156" t="str">
+        <v>3013.132</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>13.133</v>
+      </c>
+      <c r="B157" t="str">
+        <v>3013.133</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>13.141</v>
+      </c>
+      <c r="B158" t="str">
+        <v>3013.141</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>13.142</v>
+      </c>
+      <c r="B159" t="str">
+        <v>3013.142</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>13.143</v>
+      </c>
+      <c r="B160" t="str">
+        <v>3013.143</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>13.151</v>
+      </c>
+      <c r="B161" t="str">
+        <v>3013.151</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>13.152</v>
+      </c>
+      <c r="B162" t="str">
+        <v>3013.152</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>13.153</v>
+      </c>
+      <c r="B163" t="str">
+        <v>3013.153</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>13.161</v>
+      </c>
+      <c r="B164" t="str">
+        <v>3013.161</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>13.162</v>
+      </c>
+      <c r="B165" t="str">
+        <v>3013.162</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>13.163</v>
+      </c>
+      <c r="B166" t="str">
+        <v>3013.163</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>13.171</v>
+      </c>
+      <c r="B167" t="str">
+        <v>3013.171</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>13.172</v>
+      </c>
+      <c r="B168" t="str">
+        <v>3013.172</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>13.173</v>
+      </c>
+      <c r="B169" t="str">
+        <v>3013.173</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>13.211</v>
+      </c>
+      <c r="B170" t="str">
+        <v>3013.211</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>13.212</v>
+      </c>
+      <c r="B171" t="str">
+        <v>3013.212</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>13.213</v>
+      </c>
+      <c r="B172" t="str">
+        <v>3013.213</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>13.221</v>
+      </c>
+      <c r="B173" t="str">
+        <v>3013.221</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>13.222</v>
+      </c>
+      <c r="B174" t="str">
+        <v>3013.222</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>13.223</v>
+      </c>
+      <c r="B175" t="str">
+        <v>3013.223</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>13.231</v>
+      </c>
+      <c r="B176" t="str">
+        <v>3013.231</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>13.232</v>
+      </c>
+      <c r="B177" t="str">
+        <v>3013.232</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>13.233</v>
+      </c>
+      <c r="B178" t="str">
+        <v>3013.233</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>13.241</v>
+      </c>
+      <c r="B179" t="str">
+        <v>3013.241</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>13.242</v>
+      </c>
+      <c r="B180" t="str">
+        <v>3013.242</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>13.243</v>
+      </c>
+      <c r="B181" t="str">
+        <v>3013.243</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>13.251</v>
+      </c>
+      <c r="B182" t="str">
+        <v>3013.251</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>13.252</v>
+      </c>
+      <c r="B183" t="str">
+        <v>3013.252</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>13.253</v>
+      </c>
+      <c r="B184" t="str">
+        <v>3013.253</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>13.261</v>
+      </c>
+      <c r="B185" t="str">
+        <v>3013.261</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>13.262</v>
+      </c>
+      <c r="B186" t="str">
+        <v>3013.262</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>13.263</v>
+      </c>
+      <c r="B187" t="str">
+        <v>3013.263</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>13.271</v>
+      </c>
+      <c r="B188" t="str">
+        <v>3013.271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>13.272</v>
+      </c>
+      <c r="B189" t="str">
+        <v>3013.272</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>13.273</v>
+      </c>
+      <c r="B190" t="str">
+        <v>3013.273</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>13.311</v>
+      </c>
+      <c r="B191" t="str">
+        <v>3013.311</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>13.312</v>
+      </c>
+      <c r="B192" t="str">
+        <v>3013.312</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>13.313</v>
+      </c>
+      <c r="B193" t="str">
+        <v>3013.313</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>13.321</v>
+      </c>
+      <c r="B194" t="str">
+        <v>3013.321</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>13.322</v>
+      </c>
+      <c r="B195" t="str">
+        <v>3013.322</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>13.323</v>
+      </c>
+      <c r="B196" t="str">
+        <v>3013.323</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>13.331</v>
+      </c>
+      <c r="B197" t="str">
+        <v>3013.331</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>13.332</v>
+      </c>
+      <c r="B198" t="str">
+        <v>3013.332</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>13.333</v>
+      </c>
+      <c r="B199" t="str">
+        <v>3013.333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>13.341</v>
+      </c>
+      <c r="B200" t="str">
+        <v>3013.341</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>13.342</v>
+      </c>
+      <c r="B201" t="str">
+        <v>3013.342</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>13.343</v>
+      </c>
+      <c r="B202" t="str">
+        <v>3013.343</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>13.351</v>
+      </c>
+      <c r="B203" t="str">
+        <v>3013.351</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>13.352</v>
+      </c>
+      <c r="B204" t="str">
+        <v>3013.352</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>13.353</v>
+      </c>
+      <c r="B205" t="str">
+        <v>3013.353</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>13.361</v>
+      </c>
+      <c r="B206" t="str">
+        <v>3013.361</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>13.362</v>
+      </c>
+      <c r="B207" t="str">
+        <v>3013.362</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>13.363</v>
+      </c>
+      <c r="B208" t="str">
+        <v>3013.363</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>13.371</v>
+      </c>
+      <c r="B209" t="str">
+        <v>3013.371</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>13.372</v>
+      </c>
+      <c r="B210" t="str">
+        <v>3013.372</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>13.373</v>
+      </c>
+      <c r="B211" t="str">
+        <v>3013.373</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>13.411</v>
+      </c>
+      <c r="B212" t="str">
+        <v>3013.411</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>13.412</v>
+      </c>
+      <c r="B213" t="str">
+        <v>3013.412</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>13.413</v>
+      </c>
+      <c r="B214" t="str">
+        <v>3013.413</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>13.421</v>
+      </c>
+      <c r="B215" t="str">
+        <v>3013.421</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>13.422</v>
+      </c>
+      <c r="B216" t="str">
+        <v>3013.422</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>13.423</v>
+      </c>
+      <c r="B217" t="str">
+        <v>3013.423</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>13.431</v>
+      </c>
+      <c r="B218" t="str">
+        <v>3013.431</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>13.432</v>
+      </c>
+      <c r="B219" t="str">
+        <v>3013.432</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>13.433</v>
+      </c>
+      <c r="B220" t="str">
+        <v>3013.433</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>13.441</v>
+      </c>
+      <c r="B221" t="str">
+        <v>3013.441</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>13.442</v>
+      </c>
+      <c r="B222" t="str">
+        <v>3013.442</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>13.443</v>
+      </c>
+      <c r="B223" t="str">
+        <v>3013.443</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>13.451</v>
+      </c>
+      <c r="B224" t="str">
+        <v>3013.451</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>13.452</v>
+      </c>
+      <c r="B225" t="str">
+        <v>3013.452</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>13.453</v>
+      </c>
+      <c r="B226" t="str">
+        <v>3013.453</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>13.461</v>
+      </c>
+      <c r="B227" t="str">
+        <v>3013.461</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>13.462</v>
+      </c>
+      <c r="B228" t="str">
+        <v>3013.462</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>13.463</v>
+      </c>
+      <c r="B229" t="str">
+        <v>3013.463</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>13.471</v>
+      </c>
+      <c r="B230" t="str">
+        <v>3013.471</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>13.472</v>
+      </c>
+      <c r="B231" t="str">
+        <v>3013.472</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>13.473</v>
+      </c>
+      <c r="B232" t="str">
+        <v>3013.473</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>13.511</v>
+      </c>
+      <c r="B233" t="str">
+        <v>3013.511</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>13.512</v>
+      </c>
+      <c r="B234" t="str">
+        <v>3013.512</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>13.513</v>
+      </c>
+      <c r="B235" t="str">
+        <v>3013.513</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>13.521</v>
+      </c>
+      <c r="B236" t="str">
+        <v>3013.521</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>13.522</v>
+      </c>
+      <c r="B237" t="str">
+        <v>3013.522</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>13.523</v>
+      </c>
+      <c r="B238" t="str">
+        <v>3013.523</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>13.531</v>
+      </c>
+      <c r="B239" t="str">
+        <v>3013.531</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>13.532</v>
+      </c>
+      <c r="B240" t="str">
+        <v>3013.532</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>13.533</v>
+      </c>
+      <c r="B241" t="str">
+        <v>3013.533</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>13.541</v>
+      </c>
+      <c r="B242" t="str">
+        <v>3013.541</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>13.542</v>
+      </c>
+      <c r="B243" t="str">
+        <v>3013.542</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>13.543</v>
+      </c>
+      <c r="B244" t="str">
+        <v>3013.543</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>13.551</v>
+      </c>
+      <c r="B245" t="str">
+        <v>3013.551</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>13.552</v>
+      </c>
+      <c r="B246" t="str">
+        <v>3013.552</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>13.553</v>
+      </c>
+      <c r="B247" t="str">
+        <v>3013.553</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>13.561</v>
+      </c>
+      <c r="B248" t="str">
+        <v>3013.561</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>13.562</v>
+      </c>
+      <c r="B249" t="str">
+        <v>3013.562</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>13.563</v>
+      </c>
+      <c r="B250" t="str">
+        <v>3013.563</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>13.571</v>
+      </c>
+      <c r="B251" t="str">
+        <v>3013.571</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>13.572</v>
+      </c>
+      <c r="B252" t="str">
+        <v>3013.572</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>13.573</v>
+      </c>
+      <c r="B253" t="str">
+        <v>3013.573</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>13.611</v>
+      </c>
+      <c r="B254" t="str">
+        <v>3013.611</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>13.612</v>
+      </c>
+      <c r="B255" t="str">
+        <v>3013.612</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>13.613</v>
+      </c>
+      <c r="B256" t="str">
+        <v>3013.613</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>13.621</v>
+      </c>
+      <c r="B257" t="str">
+        <v>3013.621</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>13.622</v>
+      </c>
+      <c r="B258" t="str">
+        <v>3013.622</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>13.623</v>
+      </c>
+      <c r="B259" t="str">
+        <v>3013.623</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>13.631</v>
+      </c>
+      <c r="B260" t="str">
+        <v>3013.631</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>13.632</v>
+      </c>
+      <c r="B261" t="str">
+        <v>3013.632</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>13.633</v>
+      </c>
+      <c r="B262" t="str">
+        <v>3013.633</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>13.641</v>
+      </c>
+      <c r="B263" t="str">
+        <v>3013.641</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>13.642</v>
+      </c>
+      <c r="B264" t="str">
+        <v>3013.642</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>13.643</v>
+      </c>
+      <c r="B265" t="str">
+        <v>3013.643</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>13.651</v>
+      </c>
+      <c r="B266" t="str">
+        <v>3013.651</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>13.652</v>
+      </c>
+      <c r="B267" t="str">
+        <v>3013.652</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>13.653</v>
+      </c>
+      <c r="B268" t="str">
+        <v>3013.653</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>13.661</v>
+      </c>
+      <c r="B269" t="str">
+        <v>3013.661</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>13.662</v>
+      </c>
+      <c r="B270" t="str">
+        <v>3013.662</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>13.663</v>
+      </c>
+      <c r="B271" t="str">
+        <v>3013.663</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>13.671</v>
+      </c>
+      <c r="B272" t="str">
+        <v>3013.671</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>13.672</v>
+      </c>
+      <c r="B273" t="str">
+        <v>3013.672</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>13.673</v>
+      </c>
+      <c r="B274" t="str">
+        <v>3013.673</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>13.711</v>
+      </c>
+      <c r="B275" t="str">
+        <v>3013.711</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>13.712</v>
+      </c>
+      <c r="B276" t="str">
+        <v>3013.712</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>13.713</v>
+      </c>
+      <c r="B277" t="str">
+        <v>3013.713</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>13.721</v>
+      </c>
+      <c r="B278" t="str">
+        <v>3013.721</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>13.722</v>
+      </c>
+      <c r="B279" t="str">
+        <v>3013.722</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>13.723</v>
+      </c>
+      <c r="B280" t="str">
+        <v>3013.723</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>13.731</v>
+      </c>
+      <c r="B281" t="str">
+        <v>3013.731</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>13.732</v>
+      </c>
+      <c r="B282" t="str">
+        <v>3013.732</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>13.733</v>
+      </c>
+      <c r="B283" t="str">
+        <v>3013.733</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>13.741</v>
+      </c>
+      <c r="B284" t="str">
+        <v>3013.741</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>13.742</v>
+      </c>
+      <c r="B285" t="str">
+        <v>3013.742</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>13.743</v>
+      </c>
+      <c r="B286" t="str">
+        <v>3013.743</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>13.751</v>
+      </c>
+      <c r="B287" t="str">
+        <v>3013.751</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>13.752</v>
+      </c>
+      <c r="B288" t="str">
+        <v>3013.752</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>13.753</v>
+      </c>
+      <c r="B289" t="str">
+        <v>3013.753</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>13.761</v>
+      </c>
+      <c r="B290" t="str">
+        <v>3013.761</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>13.762</v>
+      </c>
+      <c r="B291" t="str">
+        <v>3013.762</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>13.763</v>
+      </c>
+      <c r="B292" t="str">
+        <v>3013.763</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>13.771</v>
+      </c>
+      <c r="B293" t="str">
+        <v>3013.771</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>13.772</v>
+      </c>
+      <c r="B294" t="str">
+        <v>3013.772</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>13.773</v>
+      </c>
+      <c r="B295" t="str">
+        <v>3013.773</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>14.111</v>
+      </c>
+      <c r="B296" t="str">
+        <v>3014.111</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>14.112</v>
+      </c>
+      <c r="B297" t="str">
+        <v>3014.112</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>14.113</v>
+      </c>
+      <c r="B298" t="str">
+        <v>3014.113</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>14.121</v>
+      </c>
+      <c r="B299" t="str">
+        <v>3014.121</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>14.122</v>
+      </c>
+      <c r="B300" t="str">
+        <v>3014.122</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>14.123</v>
+      </c>
+      <c r="B301" t="str">
+        <v>3014.123</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>14.131</v>
+      </c>
+      <c r="B302" t="str">
+        <v>3014.131</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>14.132</v>
+      </c>
+      <c r="B303" t="str">
+        <v>3014.132</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>14.133</v>
+      </c>
+      <c r="B304" t="str">
+        <v>3014.133</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>14.141</v>
+      </c>
+      <c r="B305" t="str">
+        <v>3014.141</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>14.142</v>
+      </c>
+      <c r="B306" t="str">
+        <v>3014.142</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>14.143</v>
+      </c>
+      <c r="B307" t="str">
+        <v>3014.143</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>14.151</v>
+      </c>
+      <c r="B308" t="str">
+        <v>3014.151</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>14.152</v>
+      </c>
+      <c r="B309" t="str">
+        <v>3014.152</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>14.153</v>
+      </c>
+      <c r="B310" t="str">
+        <v>3014.153</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>14.161</v>
+      </c>
+      <c r="B311" t="str">
+        <v>3014.161</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>14.162</v>
+      </c>
+      <c r="B312" t="str">
+        <v>3014.162</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>14.163</v>
+      </c>
+      <c r="B313" t="str">
+        <v>3014.163</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>14.171</v>
+      </c>
+      <c r="B314" t="str">
+        <v>3014.171</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>14.172</v>
+      </c>
+      <c r="B315" t="str">
+        <v>3014.172</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>14.173</v>
+      </c>
+      <c r="B316" t="str">
+        <v>3014.173</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>14.211</v>
+      </c>
+      <c r="B317" t="str">
+        <v>3014.211</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>14.212</v>
+      </c>
+      <c r="B318" t="str">
+        <v>3014.212</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>14.213</v>
+      </c>
+      <c r="B319" t="str">
+        <v>3014.213</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>14.221</v>
+      </c>
+      <c r="B320" t="str">
+        <v>3014.221</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>14.222</v>
+      </c>
+      <c r="B321" t="str">
+        <v>3014.222</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>14.223</v>
+      </c>
+      <c r="B322" t="str">
+        <v>3014.223</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>14.231</v>
+      </c>
+      <c r="B323" t="str">
+        <v>3014.231</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>14.232</v>
+      </c>
+      <c r="B324" t="str">
+        <v>3014.232</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>14.233</v>
+      </c>
+      <c r="B325" t="str">
+        <v>3014.233</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>14.241</v>
+      </c>
+      <c r="B326" t="str">
+        <v>3014.241</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>14.242</v>
+      </c>
+      <c r="B327" t="str">
+        <v>3014.242</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>14.243</v>
+      </c>
+      <c r="B328" t="str">
+        <v>3014.243</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>14.251</v>
+      </c>
+      <c r="B329" t="str">
+        <v>3014.251</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>14.252</v>
+      </c>
+      <c r="B330" t="str">
+        <v>3014.252</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>14.253</v>
+      </c>
+      <c r="B331" t="str">
+        <v>3014.253</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>14.261</v>
+      </c>
+      <c r="B332" t="str">
+        <v>3014.261</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>14.262</v>
+      </c>
+      <c r="B333" t="str">
+        <v>3014.262</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>14.263</v>
+      </c>
+      <c r="B334" t="str">
+        <v>3014.263</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>14.271</v>
+      </c>
+      <c r="B335" t="str">
+        <v>3014.271</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>14.272</v>
+      </c>
+      <c r="B336" t="str">
+        <v>3014.272</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>14.273</v>
+      </c>
+      <c r="B337" t="str">
+        <v>3014.273</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>14.311</v>
+      </c>
+      <c r="B338" t="str">
+        <v>3014.311</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>14.312</v>
+      </c>
+      <c r="B339" t="str">
+        <v>3014.312</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>14.313</v>
+      </c>
+      <c r="B340" t="str">
+        <v>3014.313</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>14.321</v>
+      </c>
+      <c r="B341" t="str">
+        <v>3014.321</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>14.322</v>
+      </c>
+      <c r="B342" t="str">
+        <v>3014.322</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>14.323</v>
+      </c>
+      <c r="B343" t="str">
+        <v>3014.323</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>14.331</v>
+      </c>
+      <c r="B344" t="str">
+        <v>3014.331</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>14.332</v>
+      </c>
+      <c r="B345" t="str">
+        <v>3014.332</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>14.333</v>
+      </c>
+      <c r="B346" t="str">
+        <v>3014.333</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>14.341</v>
+      </c>
+      <c r="B347" t="str">
+        <v>3014.341</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>14.342</v>
+      </c>
+      <c r="B348" t="str">
+        <v>3014.342</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>14.343</v>
+      </c>
+      <c r="B349" t="str">
+        <v>3014.343</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>14.351</v>
+      </c>
+      <c r="B350" t="str">
+        <v>3014.351</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>14.352</v>
+      </c>
+      <c r="B351" t="str">
+        <v>3014.352</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>14.353</v>
+      </c>
+      <c r="B352" t="str">
+        <v>3014.353</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>14.361</v>
+      </c>
+      <c r="B353" t="str">
+        <v>3014.361</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>14.362</v>
+      </c>
+      <c r="B354" t="str">
+        <v>3014.362</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>14.363</v>
+      </c>
+      <c r="B355" t="str">
+        <v>3014.363</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>14.371</v>
+      </c>
+      <c r="B356" t="str">
+        <v>3014.371</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>14.372</v>
+      </c>
+      <c r="B357" t="str">
+        <v>3014.372</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>14.373</v>
+      </c>
+      <c r="B358" t="str">
+        <v>3014.373</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>14.411</v>
+      </c>
+      <c r="B359" t="str">
+        <v>3014.411</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>14.412</v>
+      </c>
+      <c r="B360" t="str">
+        <v>3014.412</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>14.413</v>
+      </c>
+      <c r="B361" t="str">
+        <v>3014.413</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>14.421</v>
+      </c>
+      <c r="B362" t="str">
+        <v>3014.421</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>14.422</v>
+      </c>
+      <c r="B363" t="str">
+        <v>3014.422</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>14.423</v>
+      </c>
+      <c r="B364" t="str">
+        <v>3014.423</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>14.431</v>
+      </c>
+      <c r="B365" t="str">
+        <v>3014.431</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>14.432</v>
+      </c>
+      <c r="B366" t="str">
+        <v>3014.432</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>14.433</v>
+      </c>
+      <c r="B367" t="str">
+        <v>3014.433</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>14.441</v>
+      </c>
+      <c r="B368" t="str">
+        <v>3014.441</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>14.442</v>
+      </c>
+      <c r="B369" t="str">
+        <v>3014.442</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>14.443</v>
+      </c>
+      <c r="B370" t="str">
+        <v>3014.443</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>14.451</v>
+      </c>
+      <c r="B371" t="str">
+        <v>3014.451</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>14.452</v>
+      </c>
+      <c r="B372" t="str">
+        <v>3014.452</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>14.453</v>
+      </c>
+      <c r="B373" t="str">
+        <v>3014.453</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>14.461</v>
+      </c>
+      <c r="B374" t="str">
+        <v>3014.461</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>14.462</v>
+      </c>
+      <c r="B375" t="str">
+        <v>3014.462</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>14.463</v>
+      </c>
+      <c r="B376" t="str">
+        <v>3014.463</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>14.471</v>
+      </c>
+      <c r="B377" t="str">
+        <v>3014.471</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>14.472</v>
+      </c>
+      <c r="B378" t="str">
+        <v>3014.472</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>14.473</v>
+      </c>
+      <c r="B379" t="str">
+        <v>3014.473</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>14.511</v>
+      </c>
+      <c r="B380" t="str">
+        <v>3014.511</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>14.512</v>
+      </c>
+      <c r="B381" t="str">
+        <v>3014.512</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>14.513</v>
+      </c>
+      <c r="B382" t="str">
+        <v>3014.513</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>14.521</v>
+      </c>
+      <c r="B383" t="str">
+        <v>3014.521</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>14.522</v>
+      </c>
+      <c r="B384" t="str">
+        <v>3014.522</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>14.523</v>
+      </c>
+      <c r="B385" t="str">
+        <v>3014.523</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>14.531</v>
+      </c>
+      <c r="B386" t="str">
+        <v>3014.531</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>14.532</v>
+      </c>
+      <c r="B387" t="str">
+        <v>3014.532</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>14.533</v>
+      </c>
+      <c r="B388" t="str">
+        <v>3014.533</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>14.541</v>
+      </c>
+      <c r="B389" t="str">
+        <v>3014.541</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>14.542</v>
+      </c>
+      <c r="B390" t="str">
+        <v>3014.542</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>14.543</v>
+      </c>
+      <c r="B391" t="str">
+        <v>3014.543</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>14.551</v>
+      </c>
+      <c r="B392" t="str">
+        <v>3014.551</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>14.552</v>
+      </c>
+      <c r="B393" t="str">
+        <v>3014.552</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>14.553</v>
+      </c>
+      <c r="B394" t="str">
+        <v>3014.553</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>14.561</v>
+      </c>
+      <c r="B395" t="str">
+        <v>3014.561</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>14.562</v>
+      </c>
+      <c r="B396" t="str">
+        <v>3014.562</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>14.563</v>
+      </c>
+      <c r="B397" t="str">
+        <v>3014.563</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>14.571</v>
+      </c>
+      <c r="B398" t="str">
+        <v>3014.571</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>14.572</v>
+      </c>
+      <c r="B399" t="str">
+        <v>3014.572</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>14.573</v>
+      </c>
+      <c r="B400" t="str">
+        <v>3014.573</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>14.611</v>
+      </c>
+      <c r="B401" t="str">
+        <v>3014.611</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>14.612</v>
+      </c>
+      <c r="B402" t="str">
+        <v>3014.612</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>14.613</v>
+      </c>
+      <c r="B403" t="str">
+        <v>3014.613</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>14.621</v>
+      </c>
+      <c r="B404" t="str">
+        <v>3014.621</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>14.622</v>
+      </c>
+      <c r="B405" t="str">
+        <v>3014.622</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>14.623</v>
+      </c>
+      <c r="B406" t="str">
+        <v>3014.623</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>14.631</v>
+      </c>
+      <c r="B407" t="str">
+        <v>3014.631</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>14.632</v>
+      </c>
+      <c r="B408" t="str">
+        <v>3014.632</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>14.633</v>
+      </c>
+      <c r="B409" t="str">
+        <v>3014.633</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>14.641</v>
+      </c>
+      <c r="B410" t="str">
+        <v>3014.641</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>14.642</v>
+      </c>
+      <c r="B411" t="str">
+        <v>3014.642</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>14.643</v>
+      </c>
+      <c r="B412" t="str">
+        <v>3014.643</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>14.651</v>
+      </c>
+      <c r="B413" t="str">
+        <v>3014.651</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>14.652</v>
+      </c>
+      <c r="B414" t="str">
+        <v>3014.652</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>14.653</v>
+      </c>
+      <c r="B415" t="str">
+        <v>3014.653</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>14.661</v>
+      </c>
+      <c r="B416" t="str">
+        <v>3014.661</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>14.662</v>
+      </c>
+      <c r="B417" t="str">
+        <v>3014.662</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>14.663</v>
+      </c>
+      <c r="B418" t="str">
+        <v>3014.663</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>14.671</v>
+      </c>
+      <c r="B419" t="str">
+        <v>3014.671</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>14.672</v>
+      </c>
+      <c r="B420" t="str">
+        <v>3014.672</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>14.673</v>
+      </c>
+      <c r="B421" t="str">
+        <v>3014.673</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>14.711</v>
+      </c>
+      <c r="B422" t="str">
+        <v>3014.711</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>14.712</v>
+      </c>
+      <c r="B423" t="str">
+        <v>3014.712</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>14.713</v>
+      </c>
+      <c r="B424" t="str">
+        <v>3014.713</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>14.721</v>
+      </c>
+      <c r="B425" t="str">
+        <v>3014.721</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>14.722</v>
+      </c>
+      <c r="B426" t="str">
+        <v>3014.722</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>14.723</v>
+      </c>
+      <c r="B427" t="str">
+        <v>3014.723</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>14.731</v>
+      </c>
+      <c r="B428" t="str">
+        <v>3014.731</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>14.732</v>
+      </c>
+      <c r="B429" t="str">
+        <v>3014.732</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>14.733</v>
+      </c>
+      <c r="B430" t="str">
+        <v>3014.733</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>14.741</v>
+      </c>
+      <c r="B431" t="str">
+        <v>3014.741</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>14.742</v>
+      </c>
+      <c r="B432" t="str">
+        <v>3014.742</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>14.743</v>
+      </c>
+      <c r="B433" t="str">
+        <v>3014.743</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>14.751</v>
+      </c>
+      <c r="B434" t="str">
+        <v>3014.751</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>14.752</v>
+      </c>
+      <c r="B435" t="str">
+        <v>3014.752</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>14.753</v>
+      </c>
+      <c r="B436" t="str">
+        <v>3014.753</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>14.761</v>
+      </c>
+      <c r="B437" t="str">
+        <v>3014.761</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>14.762</v>
+      </c>
+      <c r="B438" t="str">
+        <v>3014.762</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>14.763</v>
+      </c>
+      <c r="B439" t="str">
+        <v>3014.763</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>14.771</v>
+      </c>
+      <c r="B440" t="str">
+        <v>3014.771</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>14.772</v>
+      </c>
+      <c r="B441" t="str">
+        <v>3014.772</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>14.773</v>
+      </c>
+      <c r="B442" t="str">
+        <v>3014.773</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>15.111</v>
+      </c>
+      <c r="B443" t="str">
+        <v>3015.111</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>15.112</v>
+      </c>
+      <c r="B444" t="str">
+        <v>3015.112</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>15.113</v>
+      </c>
+      <c r="B445" t="str">
+        <v>3015.113</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>15.121</v>
+      </c>
+      <c r="B446" t="str">
+        <v>3015.121</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>15.122</v>
+      </c>
+      <c r="B447" t="str">
+        <v>3015.122</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>15.123</v>
+      </c>
+      <c r="B448" t="str">
+        <v>3015.123</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>15.131</v>
+      </c>
+      <c r="B449" t="str">
+        <v>3015.131</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>15.132</v>
+      </c>
+      <c r="B450" t="str">
+        <v>3015.132</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>15.133</v>
+      </c>
+      <c r="B451" t="str">
+        <v>3015.133</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>15.141</v>
+      </c>
+      <c r="B452" t="str">
+        <v>3015.141</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>15.142</v>
+      </c>
+      <c r="B453" t="str">
+        <v>3015.142</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>15.143</v>
+      </c>
+      <c r="B454" t="str">
+        <v>3015.143</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>15.151</v>
+      </c>
+      <c r="B455" t="str">
+        <v>3015.151</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>15.152</v>
+      </c>
+      <c r="B456" t="str">
+        <v>3015.152</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>15.153</v>
+      </c>
+      <c r="B457" t="str">
+        <v>3015.153</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>15.161</v>
+      </c>
+      <c r="B458" t="str">
+        <v>3015.161</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>15.162</v>
+      </c>
+      <c r="B459" t="str">
+        <v>3015.162</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>15.163</v>
+      </c>
+      <c r="B460" t="str">
+        <v>3015.163</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>15.171</v>
+      </c>
+      <c r="B461" t="str">
+        <v>3015.171</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>15.172</v>
+      </c>
+      <c r="B462" t="str">
+        <v>3015.172</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>15.173</v>
+      </c>
+      <c r="B463" t="str">
+        <v>3015.173</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>15.211</v>
+      </c>
+      <c r="B464" t="str">
+        <v>3015.211</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>15.212</v>
+      </c>
+      <c r="B465" t="str">
+        <v>3015.212</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>15.213</v>
+      </c>
+      <c r="B466" t="str">
+        <v>3015.213</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>15.221</v>
+      </c>
+      <c r="B467" t="str">
+        <v>3015.221</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>15.222</v>
+      </c>
+      <c r="B468" t="str">
+        <v>3015.222</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>15.223</v>
+      </c>
+      <c r="B469" t="str">
+        <v>3015.223</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>15.231</v>
+      </c>
+      <c r="B470" t="str">
+        <v>3015.231</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>15.232</v>
+      </c>
+      <c r="B471" t="str">
+        <v>3015.232</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>15.233</v>
+      </c>
+      <c r="B472" t="str">
+        <v>3015.233</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>15.241</v>
+      </c>
+      <c r="B473" t="str">
+        <v>3015.241</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>15.242</v>
+      </c>
+      <c r="B474" t="str">
+        <v>3015.242</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>15.243</v>
+      </c>
+      <c r="B475" t="str">
+        <v>3015.243</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>15.251</v>
+      </c>
+      <c r="B476" t="str">
+        <v>3015.251</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>15.252</v>
+      </c>
+      <c r="B477" t="str">
+        <v>3015.252</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>15.253</v>
+      </c>
+      <c r="B478" t="str">
+        <v>3015.253</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>15.261</v>
+      </c>
+      <c r="B479" t="str">
+        <v>3015.261</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>15.262</v>
+      </c>
+      <c r="B480" t="str">
+        <v>3015.262</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>15.263</v>
+      </c>
+      <c r="B481" t="str">
+        <v>3015.263</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>15.271</v>
+      </c>
+      <c r="B482" t="str">
+        <v>3015.271</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>15.272</v>
+      </c>
+      <c r="B483" t="str">
+        <v>3015.272</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>15.273</v>
+      </c>
+      <c r="B484" t="str">
+        <v>3015.273</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>15.311</v>
+      </c>
+      <c r="B485" t="str">
+        <v>3015.311</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>15.312</v>
+      </c>
+      <c r="B486" t="str">
+        <v>3015.312</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>15.313</v>
+      </c>
+      <c r="B487" t="str">
+        <v>3015.313</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>15.321</v>
+      </c>
+      <c r="B488" t="str">
+        <v>3015.321</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>15.322</v>
+      </c>
+      <c r="B489" t="str">
+        <v>3015.322</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>15.323</v>
+      </c>
+      <c r="B490" t="str">
+        <v>3015.323</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>15.331</v>
+      </c>
+      <c r="B491" t="str">
+        <v>3015.331</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>15.332</v>
+      </c>
+      <c r="B492" t="str">
+        <v>3015.332</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>15.333</v>
+      </c>
+      <c r="B493" t="str">
+        <v>3015.333</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>15.341</v>
+      </c>
+      <c r="B494" t="str">
+        <v>3015.341</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>15.342</v>
+      </c>
+      <c r="B495" t="str">
+        <v>3015.342</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>15.343</v>
+      </c>
+      <c r="B496" t="str">
+        <v>3015.343</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>15.351</v>
+      </c>
+      <c r="B497" t="str">
+        <v>3015.351</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>15.352</v>
+      </c>
+      <c r="B498" t="str">
+        <v>3015.352</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>15.353</v>
+      </c>
+      <c r="B499" t="str">
+        <v>3015.353</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>15.361</v>
+      </c>
+      <c r="B500" t="str">
+        <v>3015.361</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>15.362</v>
+      </c>
+      <c r="B501" t="str">
+        <v>3015.362</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>15.363</v>
+      </c>
+      <c r="B502" t="str">
+        <v>3015.363</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>15.371</v>
+      </c>
+      <c r="B503" t="str">
+        <v>3015.371</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>15.372</v>
+      </c>
+      <c r="B504" t="str">
+        <v>3015.372</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>15.373</v>
+      </c>
+      <c r="B505" t="str">
+        <v>3015.373</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>15.411</v>
+      </c>
+      <c r="B506" t="str">
+        <v>3015.411</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>15.412</v>
+      </c>
+      <c r="B507" t="str">
+        <v>3015.412</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>15.413</v>
+      </c>
+      <c r="B508" t="str">
+        <v>3015.413</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>15.421</v>
+      </c>
+      <c r="B509" t="str">
+        <v>3015.421</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>15.422</v>
+      </c>
+      <c r="B510" t="str">
+        <v>3015.422</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>15.423</v>
+      </c>
+      <c r="B511" t="str">
+        <v>3015.423</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>15.431</v>
+      </c>
+      <c r="B512" t="str">
+        <v>3015.431</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>15.432</v>
+      </c>
+      <c r="B513" t="str">
+        <v>3015.432</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>15.433</v>
+      </c>
+      <c r="B514" t="str">
+        <v>3015.433</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>15.441</v>
+      </c>
+      <c r="B515" t="str">
+        <v>3015.441</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>15.442</v>
+      </c>
+      <c r="B516" t="str">
+        <v>3015.442</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>15.443</v>
+      </c>
+      <c r="B517" t="str">
+        <v>3015.443</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>15.451</v>
+      </c>
+      <c r="B518" t="str">
+        <v>3015.451</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>15.452</v>
+      </c>
+      <c r="B519" t="str">
+        <v>3015.452</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>15.453</v>
+      </c>
+      <c r="B520" t="str">
+        <v>3015.453</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>15.461</v>
+      </c>
+      <c r="B521" t="str">
+        <v>3015.461</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>15.462</v>
+      </c>
+      <c r="B522" t="str">
+        <v>3015.462</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>15.463</v>
+      </c>
+      <c r="B523" t="str">
+        <v>3015.463</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>15.471</v>
+      </c>
+      <c r="B524" t="str">
+        <v>3015.471</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>15.472</v>
+      </c>
+      <c r="B525" t="str">
+        <v>3015.472</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>15.473</v>
+      </c>
+      <c r="B526" t="str">
+        <v>3015.473</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>15.511</v>
+      </c>
+      <c r="B527" t="str">
+        <v>3015.511</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>15.512</v>
+      </c>
+      <c r="B528" t="str">
+        <v>3015.512</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>15.513</v>
+      </c>
+      <c r="B529" t="str">
+        <v>3015.513</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>15.521</v>
+      </c>
+      <c r="B530" t="str">
+        <v>3015.521</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>15.522</v>
+      </c>
+      <c r="B531" t="str">
+        <v>3015.522</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>15.523</v>
+      </c>
+      <c r="B532" t="str">
+        <v>3015.523</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>15.531</v>
+      </c>
+      <c r="B533" t="str">
+        <v>3015.531</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>15.532</v>
+      </c>
+      <c r="B534" t="str">
+        <v>3015.532</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>15.533</v>
+      </c>
+      <c r="B535" t="str">
+        <v>3015.533</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>15.541</v>
+      </c>
+      <c r="B536" t="str">
+        <v>3015.541</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>15.542</v>
+      </c>
+      <c r="B537" t="str">
+        <v>3015.542</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>15.543</v>
+      </c>
+      <c r="B538" t="str">
+        <v>3015.543</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>15.551</v>
+      </c>
+      <c r="B539" t="str">
+        <v>3015.551</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>15.552</v>
+      </c>
+      <c r="B540" t="str">
+        <v>3015.552</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>15.553</v>
+      </c>
+      <c r="B541" t="str">
+        <v>3015.553</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>15.561</v>
+      </c>
+      <c r="B542" t="str">
+        <v>3015.561</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>15.562</v>
+      </c>
+      <c r="B543" t="str">
+        <v>3015.562</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>15.563</v>
+      </c>
+      <c r="B544" t="str">
+        <v>3015.563</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>15.571</v>
+      </c>
+      <c r="B545" t="str">
+        <v>3015.571</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>15.572</v>
+      </c>
+      <c r="B546" t="str">
+        <v>3015.572</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>15.573</v>
+      </c>
+      <c r="B547" t="str">
+        <v>3015.573</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>15.611</v>
+      </c>
+      <c r="B548" t="str">
+        <v>3015.611</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>15.612</v>
+      </c>
+      <c r="B549" t="str">
+        <v>3015.612</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>15.613</v>
+      </c>
+      <c r="B550" t="str">
+        <v>3015.613</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>15.621</v>
+      </c>
+      <c r="B551" t="str">
+        <v>3015.621</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>15.622</v>
+      </c>
+      <c r="B552" t="str">
+        <v>3015.622</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>15.623</v>
+      </c>
+      <c r="B553" t="str">
+        <v>3015.623</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>15.631</v>
+      </c>
+      <c r="B554" t="str">
+        <v>3015.631</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>15.632</v>
+      </c>
+      <c r="B555" t="str">
+        <v>3015.632</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>15.633</v>
+      </c>
+      <c r="B556" t="str">
+        <v>3015.633</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>15.641</v>
+      </c>
+      <c r="B557" t="str">
+        <v>3015.641</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>15.642</v>
+      </c>
+      <c r="B558" t="str">
+        <v>3015.642</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>15.643</v>
+      </c>
+      <c r="B559" t="str">
+        <v>3015.643</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>15.651</v>
+      </c>
+      <c r="B560" t="str">
+        <v>3015.651</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>15.652</v>
+      </c>
+      <c r="B561" t="str">
+        <v>3015.652</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>15.653</v>
+      </c>
+      <c r="B562" t="str">
+        <v>3015.653</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>15.661</v>
+      </c>
+      <c r="B563" t="str">
+        <v>3015.661</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>15.662</v>
+      </c>
+      <c r="B564" t="str">
+        <v>3015.662</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>15.663</v>
+      </c>
+      <c r="B565" t="str">
+        <v>3015.663</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>15.671</v>
+      </c>
+      <c r="B566" t="str">
+        <v>3015.671</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>15.672</v>
+      </c>
+      <c r="B567" t="str">
+        <v>3015.672</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>15.673</v>
+      </c>
+      <c r="B568" t="str">
+        <v>3015.673</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>15.711</v>
+      </c>
+      <c r="B569" t="str">
+        <v>3015.711</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>15.712</v>
+      </c>
+      <c r="B570" t="str">
+        <v>3015.712</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>15.713</v>
+      </c>
+      <c r="B571" t="str">
+        <v>3015.713</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>15.721</v>
+      </c>
+      <c r="B572" t="str">
+        <v>3015.721</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>15.722</v>
+      </c>
+      <c r="B573" t="str">
+        <v>3015.722</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>15.723</v>
+      </c>
+      <c r="B574" t="str">
+        <v>3015.723</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>15.731</v>
+      </c>
+      <c r="B575" t="str">
+        <v>3015.731</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>15.732</v>
+      </c>
+      <c r="B576" t="str">
+        <v>3015.732</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>15.733</v>
+      </c>
+      <c r="B577" t="str">
+        <v>3015.733</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>15.741</v>
+      </c>
+      <c r="B578" t="str">
+        <v>3015.741</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>15.742</v>
+      </c>
+      <c r="B579" t="str">
+        <v>3015.742</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>15.743</v>
+      </c>
+      <c r="B580" t="str">
+        <v>3015.743</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>15.751</v>
+      </c>
+      <c r="B581" t="str">
+        <v>3015.751</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>15.752</v>
+      </c>
+      <c r="B582" t="str">
+        <v>3015.752</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>15.753</v>
+      </c>
+      <c r="B583" t="str">
+        <v>3015.753</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>15.761</v>
+      </c>
+      <c r="B584" t="str">
+        <v>3015.761</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>15.762</v>
+      </c>
+      <c r="B585" t="str">
+        <v>3015.762</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>15.763</v>
+      </c>
+      <c r="B586" t="str">
+        <v>3015.763</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>15.771</v>
+      </c>
+      <c r="B587" t="str">
+        <v>3015.771</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>15.772</v>
+      </c>
+      <c r="B588" t="str">
+        <v>3015.772</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>15.773</v>
+      </c>
+      <c r="B589" t="str">
+        <v>3015.773</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B589"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/locations.xlsx
+++ b/locations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1471"/>
+  <dimension ref="A1:B736"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6290,5889 +6290,9 @@
         <v>3005.773</v>
       </c>
     </row>
-    <row r="737">
-      <c r="A737" t="str">
-        <v>6.111</v>
-      </c>
-      <c r="B737" t="str">
-        <v>3006.111</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="str">
-        <v>6.112</v>
-      </c>
-      <c r="B738" t="str">
-        <v>3006.112</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="str">
-        <v>6.113</v>
-      </c>
-      <c r="B739" t="str">
-        <v>3006.113</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="str">
-        <v>6.121</v>
-      </c>
-      <c r="B740" t="str">
-        <v>3006.121</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="str">
-        <v>6.122</v>
-      </c>
-      <c r="B741" t="str">
-        <v>3006.122</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="str">
-        <v>6.123</v>
-      </c>
-      <c r="B742" t="str">
-        <v>3006.123</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="str">
-        <v>6.131</v>
-      </c>
-      <c r="B743" t="str">
-        <v>3006.131</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="str">
-        <v>6.132</v>
-      </c>
-      <c r="B744" t="str">
-        <v>3006.132</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="str">
-        <v>6.133</v>
-      </c>
-      <c r="B745" t="str">
-        <v>3006.133</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="str">
-        <v>6.141</v>
-      </c>
-      <c r="B746" t="str">
-        <v>3006.141</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="str">
-        <v>6.142</v>
-      </c>
-      <c r="B747" t="str">
-        <v>3006.142</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="str">
-        <v>6.143</v>
-      </c>
-      <c r="B748" t="str">
-        <v>3006.143</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="str">
-        <v>6.151</v>
-      </c>
-      <c r="B749" t="str">
-        <v>3006.151</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="str">
-        <v>6.152</v>
-      </c>
-      <c r="B750" t="str">
-        <v>3006.152</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="str">
-        <v>6.153</v>
-      </c>
-      <c r="B751" t="str">
-        <v>3006.153</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="str">
-        <v>6.161</v>
-      </c>
-      <c r="B752" t="str">
-        <v>3006.161</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="str">
-        <v>6.162</v>
-      </c>
-      <c r="B753" t="str">
-        <v>3006.162</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="str">
-        <v>6.163</v>
-      </c>
-      <c r="B754" t="str">
-        <v>3006.163</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="str">
-        <v>6.171</v>
-      </c>
-      <c r="B755" t="str">
-        <v>3006.171</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="str">
-        <v>6.172</v>
-      </c>
-      <c r="B756" t="str">
-        <v>3006.172</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="str">
-        <v>6.173</v>
-      </c>
-      <c r="B757" t="str">
-        <v>3006.173</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="str">
-        <v>6.211</v>
-      </c>
-      <c r="B758" t="str">
-        <v>3006.211</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="str">
-        <v>6.212</v>
-      </c>
-      <c r="B759" t="str">
-        <v>3006.212</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="str">
-        <v>6.213</v>
-      </c>
-      <c r="B760" t="str">
-        <v>3006.213</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="str">
-        <v>6.221</v>
-      </c>
-      <c r="B761" t="str">
-        <v>3006.221</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="str">
-        <v>6.222</v>
-      </c>
-      <c r="B762" t="str">
-        <v>3006.222</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="str">
-        <v>6.223</v>
-      </c>
-      <c r="B763" t="str">
-        <v>3006.223</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="str">
-        <v>6.231</v>
-      </c>
-      <c r="B764" t="str">
-        <v>3006.231</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="str">
-        <v>6.232</v>
-      </c>
-      <c r="B765" t="str">
-        <v>3006.232</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="str">
-        <v>6.233</v>
-      </c>
-      <c r="B766" t="str">
-        <v>3006.233</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="str">
-        <v>6.241</v>
-      </c>
-      <c r="B767" t="str">
-        <v>3006.241</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="str">
-        <v>6.242</v>
-      </c>
-      <c r="B768" t="str">
-        <v>3006.242</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="str">
-        <v>6.243</v>
-      </c>
-      <c r="B769" t="str">
-        <v>3006.243</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="str">
-        <v>6.251</v>
-      </c>
-      <c r="B770" t="str">
-        <v>3006.251</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="str">
-        <v>6.252</v>
-      </c>
-      <c r="B771" t="str">
-        <v>3006.252</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="str">
-        <v>6.253</v>
-      </c>
-      <c r="B772" t="str">
-        <v>3006.253</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="str">
-        <v>6.261</v>
-      </c>
-      <c r="B773" t="str">
-        <v>3006.261</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="str">
-        <v>6.262</v>
-      </c>
-      <c r="B774" t="str">
-        <v>3006.262</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="str">
-        <v>6.263</v>
-      </c>
-      <c r="B775" t="str">
-        <v>3006.263</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="str">
-        <v>6.271</v>
-      </c>
-      <c r="B776" t="str">
-        <v>3006.271</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="str">
-        <v>6.272</v>
-      </c>
-      <c r="B777" t="str">
-        <v>3006.272</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="str">
-        <v>6.273</v>
-      </c>
-      <c r="B778" t="str">
-        <v>3006.273</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="str">
-        <v>6.311</v>
-      </c>
-      <c r="B779" t="str">
-        <v>3006.311</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="str">
-        <v>6.312</v>
-      </c>
-      <c r="B780" t="str">
-        <v>3006.312</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="str">
-        <v>6.313</v>
-      </c>
-      <c r="B781" t="str">
-        <v>3006.313</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="str">
-        <v>6.321</v>
-      </c>
-      <c r="B782" t="str">
-        <v>3006.321</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="str">
-        <v>6.322</v>
-      </c>
-      <c r="B783" t="str">
-        <v>3006.322</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="str">
-        <v>6.323</v>
-      </c>
-      <c r="B784" t="str">
-        <v>3006.323</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="str">
-        <v>6.331</v>
-      </c>
-      <c r="B785" t="str">
-        <v>3006.331</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="str">
-        <v>6.332</v>
-      </c>
-      <c r="B786" t="str">
-        <v>3006.332</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="str">
-        <v>6.333</v>
-      </c>
-      <c r="B787" t="str">
-        <v>3006.333</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="str">
-        <v>6.341</v>
-      </c>
-      <c r="B788" t="str">
-        <v>3006.341</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="str">
-        <v>6.342</v>
-      </c>
-      <c r="B789" t="str">
-        <v>3006.342</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="str">
-        <v>6.343</v>
-      </c>
-      <c r="B790" t="str">
-        <v>3006.343</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="str">
-        <v>6.351</v>
-      </c>
-      <c r="B791" t="str">
-        <v>3006.351</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="str">
-        <v>6.352</v>
-      </c>
-      <c r="B792" t="str">
-        <v>3006.352</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="str">
-        <v>6.353</v>
-      </c>
-      <c r="B793" t="str">
-        <v>3006.353</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="str">
-        <v>6.361</v>
-      </c>
-      <c r="B794" t="str">
-        <v>3006.361</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="str">
-        <v>6.362</v>
-      </c>
-      <c r="B795" t="str">
-        <v>3006.362</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="str">
-        <v>6.363</v>
-      </c>
-      <c r="B796" t="str">
-        <v>3006.363</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="str">
-        <v>6.371</v>
-      </c>
-      <c r="B797" t="str">
-        <v>3006.371</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="str">
-        <v>6.372</v>
-      </c>
-      <c r="B798" t="str">
-        <v>3006.372</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="str">
-        <v>6.373</v>
-      </c>
-      <c r="B799" t="str">
-        <v>3006.373</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="str">
-        <v>6.411</v>
-      </c>
-      <c r="B800" t="str">
-        <v>3006.411</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="str">
-        <v>6.412</v>
-      </c>
-      <c r="B801" t="str">
-        <v>3006.412</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="str">
-        <v>6.413</v>
-      </c>
-      <c r="B802" t="str">
-        <v>3006.413</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="str">
-        <v>6.421</v>
-      </c>
-      <c r="B803" t="str">
-        <v>3006.421</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="str">
-        <v>6.422</v>
-      </c>
-      <c r="B804" t="str">
-        <v>3006.422</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="str">
-        <v>6.423</v>
-      </c>
-      <c r="B805" t="str">
-        <v>3006.423</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="str">
-        <v>6.431</v>
-      </c>
-      <c r="B806" t="str">
-        <v>3006.431</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="str">
-        <v>6.432</v>
-      </c>
-      <c r="B807" t="str">
-        <v>3006.432</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="str">
-        <v>6.433</v>
-      </c>
-      <c r="B808" t="str">
-        <v>3006.433</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="str">
-        <v>6.441</v>
-      </c>
-      <c r="B809" t="str">
-        <v>3006.441</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="str">
-        <v>6.442</v>
-      </c>
-      <c r="B810" t="str">
-        <v>3006.442</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="str">
-        <v>6.443</v>
-      </c>
-      <c r="B811" t="str">
-        <v>3006.443</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="str">
-        <v>6.451</v>
-      </c>
-      <c r="B812" t="str">
-        <v>3006.451</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="str">
-        <v>6.452</v>
-      </c>
-      <c r="B813" t="str">
-        <v>3006.452</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="str">
-        <v>6.453</v>
-      </c>
-      <c r="B814" t="str">
-        <v>3006.453</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="str">
-        <v>6.461</v>
-      </c>
-      <c r="B815" t="str">
-        <v>3006.461</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="str">
-        <v>6.462</v>
-      </c>
-      <c r="B816" t="str">
-        <v>3006.462</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="str">
-        <v>6.463</v>
-      </c>
-      <c r="B817" t="str">
-        <v>3006.463</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="str">
-        <v>6.471</v>
-      </c>
-      <c r="B818" t="str">
-        <v>3006.471</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="str">
-        <v>6.472</v>
-      </c>
-      <c r="B819" t="str">
-        <v>3006.472</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="str">
-        <v>6.473</v>
-      </c>
-      <c r="B820" t="str">
-        <v>3006.473</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="str">
-        <v>6.511</v>
-      </c>
-      <c r="B821" t="str">
-        <v>3006.511</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="str">
-        <v>6.512</v>
-      </c>
-      <c r="B822" t="str">
-        <v>3006.512</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="str">
-        <v>6.513</v>
-      </c>
-      <c r="B823" t="str">
-        <v>3006.513</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="str">
-        <v>6.521</v>
-      </c>
-      <c r="B824" t="str">
-        <v>3006.521</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="str">
-        <v>6.522</v>
-      </c>
-      <c r="B825" t="str">
-        <v>3006.522</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="str">
-        <v>6.523</v>
-      </c>
-      <c r="B826" t="str">
-        <v>3006.523</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="str">
-        <v>6.531</v>
-      </c>
-      <c r="B827" t="str">
-        <v>3006.531</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="str">
-        <v>6.532</v>
-      </c>
-      <c r="B828" t="str">
-        <v>3006.532</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="str">
-        <v>6.533</v>
-      </c>
-      <c r="B829" t="str">
-        <v>3006.533</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="str">
-        <v>6.541</v>
-      </c>
-      <c r="B830" t="str">
-        <v>3006.541</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="str">
-        <v>6.542</v>
-      </c>
-      <c r="B831" t="str">
-        <v>3006.542</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="str">
-        <v>6.543</v>
-      </c>
-      <c r="B832" t="str">
-        <v>3006.543</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="str">
-        <v>6.551</v>
-      </c>
-      <c r="B833" t="str">
-        <v>3006.551</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="str">
-        <v>6.552</v>
-      </c>
-      <c r="B834" t="str">
-        <v>3006.552</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="str">
-        <v>6.553</v>
-      </c>
-      <c r="B835" t="str">
-        <v>3006.553</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="str">
-        <v>6.561</v>
-      </c>
-      <c r="B836" t="str">
-        <v>3006.561</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="str">
-        <v>6.562</v>
-      </c>
-      <c r="B837" t="str">
-        <v>3006.562</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="str">
-        <v>6.563</v>
-      </c>
-      <c r="B838" t="str">
-        <v>3006.563</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="str">
-        <v>6.571</v>
-      </c>
-      <c r="B839" t="str">
-        <v>3006.571</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="str">
-        <v>6.572</v>
-      </c>
-      <c r="B840" t="str">
-        <v>3006.572</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="str">
-        <v>6.573</v>
-      </c>
-      <c r="B841" t="str">
-        <v>3006.573</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="str">
-        <v>6.611</v>
-      </c>
-      <c r="B842" t="str">
-        <v>3006.611</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="str">
-        <v>6.612</v>
-      </c>
-      <c r="B843" t="str">
-        <v>3006.612</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="str">
-        <v>6.613</v>
-      </c>
-      <c r="B844" t="str">
-        <v>3006.613</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="str">
-        <v>6.621</v>
-      </c>
-      <c r="B845" t="str">
-        <v>3006.621</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="str">
-        <v>6.622</v>
-      </c>
-      <c r="B846" t="str">
-        <v>3006.622</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="str">
-        <v>6.623</v>
-      </c>
-      <c r="B847" t="str">
-        <v>3006.623</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="str">
-        <v>6.631</v>
-      </c>
-      <c r="B848" t="str">
-        <v>3006.631</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="str">
-        <v>6.632</v>
-      </c>
-      <c r="B849" t="str">
-        <v>3006.632</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="str">
-        <v>6.633</v>
-      </c>
-      <c r="B850" t="str">
-        <v>3006.633</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="str">
-        <v>6.641</v>
-      </c>
-      <c r="B851" t="str">
-        <v>3006.641</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="str">
-        <v>6.642</v>
-      </c>
-      <c r="B852" t="str">
-        <v>3006.642</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="str">
-        <v>6.643</v>
-      </c>
-      <c r="B853" t="str">
-        <v>3006.643</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="str">
-        <v>6.651</v>
-      </c>
-      <c r="B854" t="str">
-        <v>3006.651</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="str">
-        <v>6.652</v>
-      </c>
-      <c r="B855" t="str">
-        <v>3006.652</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="str">
-        <v>6.653</v>
-      </c>
-      <c r="B856" t="str">
-        <v>3006.653</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="str">
-        <v>6.661</v>
-      </c>
-      <c r="B857" t="str">
-        <v>3006.661</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" t="str">
-        <v>6.662</v>
-      </c>
-      <c r="B858" t="str">
-        <v>3006.662</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" t="str">
-        <v>6.663</v>
-      </c>
-      <c r="B859" t="str">
-        <v>3006.663</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="str">
-        <v>6.671</v>
-      </c>
-      <c r="B860" t="str">
-        <v>3006.671</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="str">
-        <v>6.672</v>
-      </c>
-      <c r="B861" t="str">
-        <v>3006.672</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="str">
-        <v>6.673</v>
-      </c>
-      <c r="B862" t="str">
-        <v>3006.673</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="str">
-        <v>6.711</v>
-      </c>
-      <c r="B863" t="str">
-        <v>3006.711</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="str">
-        <v>6.712</v>
-      </c>
-      <c r="B864" t="str">
-        <v>3006.712</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="str">
-        <v>6.713</v>
-      </c>
-      <c r="B865" t="str">
-        <v>3006.713</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="str">
-        <v>6.721</v>
-      </c>
-      <c r="B866" t="str">
-        <v>3006.721</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="str">
-        <v>6.722</v>
-      </c>
-      <c r="B867" t="str">
-        <v>3006.722</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="str">
-        <v>6.723</v>
-      </c>
-      <c r="B868" t="str">
-        <v>3006.723</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="str">
-        <v>6.731</v>
-      </c>
-      <c r="B869" t="str">
-        <v>3006.731</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="str">
-        <v>6.732</v>
-      </c>
-      <c r="B870" t="str">
-        <v>3006.732</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="str">
-        <v>6.733</v>
-      </c>
-      <c r="B871" t="str">
-        <v>3006.733</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="str">
-        <v>6.741</v>
-      </c>
-      <c r="B872" t="str">
-        <v>3006.741</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" t="str">
-        <v>6.742</v>
-      </c>
-      <c r="B873" t="str">
-        <v>3006.742</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" t="str">
-        <v>6.743</v>
-      </c>
-      <c r="B874" t="str">
-        <v>3006.743</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="str">
-        <v>6.751</v>
-      </c>
-      <c r="B875" t="str">
-        <v>3006.751</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" t="str">
-        <v>6.752</v>
-      </c>
-      <c r="B876" t="str">
-        <v>3006.752</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" t="str">
-        <v>6.753</v>
-      </c>
-      <c r="B877" t="str">
-        <v>3006.753</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="str">
-        <v>6.761</v>
-      </c>
-      <c r="B878" t="str">
-        <v>3006.761</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="str">
-        <v>6.762</v>
-      </c>
-      <c r="B879" t="str">
-        <v>3006.762</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="str">
-        <v>6.763</v>
-      </c>
-      <c r="B880" t="str">
-        <v>3006.763</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="str">
-        <v>6.771</v>
-      </c>
-      <c r="B881" t="str">
-        <v>3006.771</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="str">
-        <v>6.772</v>
-      </c>
-      <c r="B882" t="str">
-        <v>3006.772</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="str">
-        <v>6.773</v>
-      </c>
-      <c r="B883" t="str">
-        <v>3006.773</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="str">
-        <v>7.111</v>
-      </c>
-      <c r="B884" t="str">
-        <v>3007.111</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="str">
-        <v>7.112</v>
-      </c>
-      <c r="B885" t="str">
-        <v>3007.112</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="str">
-        <v>7.113</v>
-      </c>
-      <c r="B886" t="str">
-        <v>3007.113</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="str">
-        <v>7.121</v>
-      </c>
-      <c r="B887" t="str">
-        <v>3007.121</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="str">
-        <v>7.122</v>
-      </c>
-      <c r="B888" t="str">
-        <v>3007.122</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="str">
-        <v>7.123</v>
-      </c>
-      <c r="B889" t="str">
-        <v>3007.123</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="str">
-        <v>7.131</v>
-      </c>
-      <c r="B890" t="str">
-        <v>3007.131</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="str">
-        <v>7.132</v>
-      </c>
-      <c r="B891" t="str">
-        <v>3007.132</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="str">
-        <v>7.133</v>
-      </c>
-      <c r="B892" t="str">
-        <v>3007.133</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="str">
-        <v>7.141</v>
-      </c>
-      <c r="B893" t="str">
-        <v>3007.141</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="str">
-        <v>7.142</v>
-      </c>
-      <c r="B894" t="str">
-        <v>3007.142</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="str">
-        <v>7.143</v>
-      </c>
-      <c r="B895" t="str">
-        <v>3007.143</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="str">
-        <v>7.151</v>
-      </c>
-      <c r="B896" t="str">
-        <v>3007.151</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="str">
-        <v>7.152</v>
-      </c>
-      <c r="B897" t="str">
-        <v>3007.152</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="str">
-        <v>7.153</v>
-      </c>
-      <c r="B898" t="str">
-        <v>3007.153</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="str">
-        <v>7.161</v>
-      </c>
-      <c r="B899" t="str">
-        <v>3007.161</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="str">
-        <v>7.162</v>
-      </c>
-      <c r="B900" t="str">
-        <v>3007.162</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="str">
-        <v>7.163</v>
-      </c>
-      <c r="B901" t="str">
-        <v>3007.163</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="str">
-        <v>7.171</v>
-      </c>
-      <c r="B902" t="str">
-        <v>3007.171</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="str">
-        <v>7.172</v>
-      </c>
-      <c r="B903" t="str">
-        <v>3007.172</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="str">
-        <v>7.173</v>
-      </c>
-      <c r="B904" t="str">
-        <v>3007.173</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="str">
-        <v>7.211</v>
-      </c>
-      <c r="B905" t="str">
-        <v>3007.211</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="str">
-        <v>7.212</v>
-      </c>
-      <c r="B906" t="str">
-        <v>3007.212</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="str">
-        <v>7.213</v>
-      </c>
-      <c r="B907" t="str">
-        <v>3007.213</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="str">
-        <v>7.221</v>
-      </c>
-      <c r="B908" t="str">
-        <v>3007.221</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="str">
-        <v>7.222</v>
-      </c>
-      <c r="B909" t="str">
-        <v>3007.222</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="str">
-        <v>7.223</v>
-      </c>
-      <c r="B910" t="str">
-        <v>3007.223</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="str">
-        <v>7.231</v>
-      </c>
-      <c r="B911" t="str">
-        <v>3007.231</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="str">
-        <v>7.232</v>
-      </c>
-      <c r="B912" t="str">
-        <v>3007.232</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="str">
-        <v>7.233</v>
-      </c>
-      <c r="B913" t="str">
-        <v>3007.233</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="str">
-        <v>7.241</v>
-      </c>
-      <c r="B914" t="str">
-        <v>3007.241</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="str">
-        <v>7.242</v>
-      </c>
-      <c r="B915" t="str">
-        <v>3007.242</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="str">
-        <v>7.243</v>
-      </c>
-      <c r="B916" t="str">
-        <v>3007.243</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="str">
-        <v>7.251</v>
-      </c>
-      <c r="B917" t="str">
-        <v>3007.251</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="str">
-        <v>7.252</v>
-      </c>
-      <c r="B918" t="str">
-        <v>3007.252</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="str">
-        <v>7.253</v>
-      </c>
-      <c r="B919" t="str">
-        <v>3007.253</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="str">
-        <v>7.261</v>
-      </c>
-      <c r="B920" t="str">
-        <v>3007.261</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="str">
-        <v>7.262</v>
-      </c>
-      <c r="B921" t="str">
-        <v>3007.262</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="str">
-        <v>7.263</v>
-      </c>
-      <c r="B922" t="str">
-        <v>3007.263</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="str">
-        <v>7.271</v>
-      </c>
-      <c r="B923" t="str">
-        <v>3007.271</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="str">
-        <v>7.272</v>
-      </c>
-      <c r="B924" t="str">
-        <v>3007.272</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="str">
-        <v>7.273</v>
-      </c>
-      <c r="B925" t="str">
-        <v>3007.273</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="str">
-        <v>7.311</v>
-      </c>
-      <c r="B926" t="str">
-        <v>3007.311</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="str">
-        <v>7.312</v>
-      </c>
-      <c r="B927" t="str">
-        <v>3007.312</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="str">
-        <v>7.313</v>
-      </c>
-      <c r="B928" t="str">
-        <v>3007.313</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="str">
-        <v>7.321</v>
-      </c>
-      <c r="B929" t="str">
-        <v>3007.321</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="str">
-        <v>7.322</v>
-      </c>
-      <c r="B930" t="str">
-        <v>3007.322</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="str">
-        <v>7.323</v>
-      </c>
-      <c r="B931" t="str">
-        <v>3007.323</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="str">
-        <v>7.331</v>
-      </c>
-      <c r="B932" t="str">
-        <v>3007.331</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="str">
-        <v>7.332</v>
-      </c>
-      <c r="B933" t="str">
-        <v>3007.332</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="str">
-        <v>7.333</v>
-      </c>
-      <c r="B934" t="str">
-        <v>3007.333</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="str">
-        <v>7.341</v>
-      </c>
-      <c r="B935" t="str">
-        <v>3007.341</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="str">
-        <v>7.342</v>
-      </c>
-      <c r="B936" t="str">
-        <v>3007.342</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="str">
-        <v>7.343</v>
-      </c>
-      <c r="B937" t="str">
-        <v>3007.343</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="str">
-        <v>7.351</v>
-      </c>
-      <c r="B938" t="str">
-        <v>3007.351</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="str">
-        <v>7.352</v>
-      </c>
-      <c r="B939" t="str">
-        <v>3007.352</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="str">
-        <v>7.353</v>
-      </c>
-      <c r="B940" t="str">
-        <v>3007.353</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="str">
-        <v>7.361</v>
-      </c>
-      <c r="B941" t="str">
-        <v>3007.361</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="str">
-        <v>7.362</v>
-      </c>
-      <c r="B942" t="str">
-        <v>3007.362</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="str">
-        <v>7.363</v>
-      </c>
-      <c r="B943" t="str">
-        <v>3007.363</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="str">
-        <v>7.371</v>
-      </c>
-      <c r="B944" t="str">
-        <v>3007.371</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="str">
-        <v>7.372</v>
-      </c>
-      <c r="B945" t="str">
-        <v>3007.372</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="str">
-        <v>7.373</v>
-      </c>
-      <c r="B946" t="str">
-        <v>3007.373</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="str">
-        <v>7.411</v>
-      </c>
-      <c r="B947" t="str">
-        <v>3007.411</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="str">
-        <v>7.412</v>
-      </c>
-      <c r="B948" t="str">
-        <v>3007.412</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="str">
-        <v>7.413</v>
-      </c>
-      <c r="B949" t="str">
-        <v>3007.413</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="str">
-        <v>7.421</v>
-      </c>
-      <c r="B950" t="str">
-        <v>3007.421</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="str">
-        <v>7.422</v>
-      </c>
-      <c r="B951" t="str">
-        <v>3007.422</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="str">
-        <v>7.423</v>
-      </c>
-      <c r="B952" t="str">
-        <v>3007.423</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="str">
-        <v>7.431</v>
-      </c>
-      <c r="B953" t="str">
-        <v>3007.431</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="str">
-        <v>7.432</v>
-      </c>
-      <c r="B954" t="str">
-        <v>3007.432</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="str">
-        <v>7.433</v>
-      </c>
-      <c r="B955" t="str">
-        <v>3007.433</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="str">
-        <v>7.441</v>
-      </c>
-      <c r="B956" t="str">
-        <v>3007.441</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="str">
-        <v>7.442</v>
-      </c>
-      <c r="B957" t="str">
-        <v>3007.442</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="str">
-        <v>7.443</v>
-      </c>
-      <c r="B958" t="str">
-        <v>3007.443</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="str">
-        <v>7.451</v>
-      </c>
-      <c r="B959" t="str">
-        <v>3007.451</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="str">
-        <v>7.452</v>
-      </c>
-      <c r="B960" t="str">
-        <v>3007.452</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="str">
-        <v>7.453</v>
-      </c>
-      <c r="B961" t="str">
-        <v>3007.453</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="str">
-        <v>7.461</v>
-      </c>
-      <c r="B962" t="str">
-        <v>3007.461</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="str">
-        <v>7.462</v>
-      </c>
-      <c r="B963" t="str">
-        <v>3007.462</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="str">
-        <v>7.463</v>
-      </c>
-      <c r="B964" t="str">
-        <v>3007.463</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="str">
-        <v>7.471</v>
-      </c>
-      <c r="B965" t="str">
-        <v>3007.471</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="str">
-        <v>7.472</v>
-      </c>
-      <c r="B966" t="str">
-        <v>3007.472</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="str">
-        <v>7.473</v>
-      </c>
-      <c r="B967" t="str">
-        <v>3007.473</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="str">
-        <v>7.511</v>
-      </c>
-      <c r="B968" t="str">
-        <v>3007.511</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="str">
-        <v>7.512</v>
-      </c>
-      <c r="B969" t="str">
-        <v>3007.512</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="str">
-        <v>7.513</v>
-      </c>
-      <c r="B970" t="str">
-        <v>3007.513</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="str">
-        <v>7.521</v>
-      </c>
-      <c r="B971" t="str">
-        <v>3007.521</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="str">
-        <v>7.522</v>
-      </c>
-      <c r="B972" t="str">
-        <v>3007.522</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="str">
-        <v>7.523</v>
-      </c>
-      <c r="B973" t="str">
-        <v>3007.523</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="str">
-        <v>7.531</v>
-      </c>
-      <c r="B974" t="str">
-        <v>3007.531</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="str">
-        <v>7.532</v>
-      </c>
-      <c r="B975" t="str">
-        <v>3007.532</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="str">
-        <v>7.533</v>
-      </c>
-      <c r="B976" t="str">
-        <v>3007.533</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="str">
-        <v>7.541</v>
-      </c>
-      <c r="B977" t="str">
-        <v>3007.541</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="str">
-        <v>7.542</v>
-      </c>
-      <c r="B978" t="str">
-        <v>3007.542</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="str">
-        <v>7.543</v>
-      </c>
-      <c r="B979" t="str">
-        <v>3007.543</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="str">
-        <v>7.551</v>
-      </c>
-      <c r="B980" t="str">
-        <v>3007.551</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="str">
-        <v>7.552</v>
-      </c>
-      <c r="B981" t="str">
-        <v>3007.552</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="str">
-        <v>7.553</v>
-      </c>
-      <c r="B982" t="str">
-        <v>3007.553</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="str">
-        <v>7.561</v>
-      </c>
-      <c r="B983" t="str">
-        <v>3007.561</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="str">
-        <v>7.562</v>
-      </c>
-      <c r="B984" t="str">
-        <v>3007.562</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="str">
-        <v>7.563</v>
-      </c>
-      <c r="B985" t="str">
-        <v>3007.563</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="str">
-        <v>7.571</v>
-      </c>
-      <c r="B986" t="str">
-        <v>3007.571</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="str">
-        <v>7.572</v>
-      </c>
-      <c r="B987" t="str">
-        <v>3007.572</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="str">
-        <v>7.573</v>
-      </c>
-      <c r="B988" t="str">
-        <v>3007.573</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="str">
-        <v>7.611</v>
-      </c>
-      <c r="B989" t="str">
-        <v>3007.611</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="str">
-        <v>7.612</v>
-      </c>
-      <c r="B990" t="str">
-        <v>3007.612</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="str">
-        <v>7.613</v>
-      </c>
-      <c r="B991" t="str">
-        <v>3007.613</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="str">
-        <v>7.621</v>
-      </c>
-      <c r="B992" t="str">
-        <v>3007.621</v>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="str">
-        <v>7.622</v>
-      </c>
-      <c r="B993" t="str">
-        <v>3007.622</v>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="str">
-        <v>7.623</v>
-      </c>
-      <c r="B994" t="str">
-        <v>3007.623</v>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="str">
-        <v>7.631</v>
-      </c>
-      <c r="B995" t="str">
-        <v>3007.631</v>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="str">
-        <v>7.632</v>
-      </c>
-      <c r="B996" t="str">
-        <v>3007.632</v>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="str">
-        <v>7.633</v>
-      </c>
-      <c r="B997" t="str">
-        <v>3007.633</v>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="str">
-        <v>7.641</v>
-      </c>
-      <c r="B998" t="str">
-        <v>3007.641</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="str">
-        <v>7.642</v>
-      </c>
-      <c r="B999" t="str">
-        <v>3007.642</v>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="str">
-        <v>7.643</v>
-      </c>
-      <c r="B1000" t="str">
-        <v>3007.643</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="str">
-        <v>7.651</v>
-      </c>
-      <c r="B1001" t="str">
-        <v>3007.651</v>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="str">
-        <v>7.652</v>
-      </c>
-      <c r="B1002" t="str">
-        <v>3007.652</v>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="str">
-        <v>7.653</v>
-      </c>
-      <c r="B1003" t="str">
-        <v>3007.653</v>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="str">
-        <v>7.661</v>
-      </c>
-      <c r="B1004" t="str">
-        <v>3007.661</v>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="str">
-        <v>7.662</v>
-      </c>
-      <c r="B1005" t="str">
-        <v>3007.662</v>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="str">
-        <v>7.663</v>
-      </c>
-      <c r="B1006" t="str">
-        <v>3007.663</v>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="str">
-        <v>7.671</v>
-      </c>
-      <c r="B1007" t="str">
-        <v>3007.671</v>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="str">
-        <v>7.672</v>
-      </c>
-      <c r="B1008" t="str">
-        <v>3007.672</v>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="str">
-        <v>7.673</v>
-      </c>
-      <c r="B1009" t="str">
-        <v>3007.673</v>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="str">
-        <v>7.711</v>
-      </c>
-      <c r="B1010" t="str">
-        <v>3007.711</v>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="str">
-        <v>7.712</v>
-      </c>
-      <c r="B1011" t="str">
-        <v>3007.712</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="str">
-        <v>7.713</v>
-      </c>
-      <c r="B1012" t="str">
-        <v>3007.713</v>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="str">
-        <v>7.721</v>
-      </c>
-      <c r="B1013" t="str">
-        <v>3007.721</v>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="str">
-        <v>7.722</v>
-      </c>
-      <c r="B1014" t="str">
-        <v>3007.722</v>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="str">
-        <v>7.723</v>
-      </c>
-      <c r="B1015" t="str">
-        <v>3007.723</v>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="str">
-        <v>7.731</v>
-      </c>
-      <c r="B1016" t="str">
-        <v>3007.731</v>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="str">
-        <v>7.732</v>
-      </c>
-      <c r="B1017" t="str">
-        <v>3007.732</v>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="str">
-        <v>7.733</v>
-      </c>
-      <c r="B1018" t="str">
-        <v>3007.733</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="str">
-        <v>7.741</v>
-      </c>
-      <c r="B1019" t="str">
-        <v>3007.741</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="str">
-        <v>7.742</v>
-      </c>
-      <c r="B1020" t="str">
-        <v>3007.742</v>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="str">
-        <v>7.743</v>
-      </c>
-      <c r="B1021" t="str">
-        <v>3007.743</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="str">
-        <v>7.751</v>
-      </c>
-      <c r="B1022" t="str">
-        <v>3007.751</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="str">
-        <v>7.752</v>
-      </c>
-      <c r="B1023" t="str">
-        <v>3007.752</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="str">
-        <v>7.753</v>
-      </c>
-      <c r="B1024" t="str">
-        <v>3007.753</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="str">
-        <v>7.761</v>
-      </c>
-      <c r="B1025" t="str">
-        <v>3007.761</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="str">
-        <v>7.762</v>
-      </c>
-      <c r="B1026" t="str">
-        <v>3007.762</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="str">
-        <v>7.763</v>
-      </c>
-      <c r="B1027" t="str">
-        <v>3007.763</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="str">
-        <v>7.771</v>
-      </c>
-      <c r="B1028" t="str">
-        <v>3007.771</v>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="str">
-        <v>7.772</v>
-      </c>
-      <c r="B1029" t="str">
-        <v>3007.772</v>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="str">
-        <v>7.773</v>
-      </c>
-      <c r="B1030" t="str">
-        <v>3007.773</v>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="str">
-        <v>8.111</v>
-      </c>
-      <c r="B1031" t="str">
-        <v>3008.111</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="str">
-        <v>8.112</v>
-      </c>
-      <c r="B1032" t="str">
-        <v>3008.112</v>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="str">
-        <v>8.113</v>
-      </c>
-      <c r="B1033" t="str">
-        <v>3008.113</v>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="str">
-        <v>8.121</v>
-      </c>
-      <c r="B1034" t="str">
-        <v>3008.121</v>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="str">
-        <v>8.122</v>
-      </c>
-      <c r="B1035" t="str">
-        <v>3008.122</v>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="str">
-        <v>8.123</v>
-      </c>
-      <c r="B1036" t="str">
-        <v>3008.123</v>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="str">
-        <v>8.131</v>
-      </c>
-      <c r="B1037" t="str">
-        <v>3008.131</v>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="str">
-        <v>8.132</v>
-      </c>
-      <c r="B1038" t="str">
-        <v>3008.132</v>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="str">
-        <v>8.133</v>
-      </c>
-      <c r="B1039" t="str">
-        <v>3008.133</v>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="str">
-        <v>8.141</v>
-      </c>
-      <c r="B1040" t="str">
-        <v>3008.141</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="str">
-        <v>8.142</v>
-      </c>
-      <c r="B1041" t="str">
-        <v>3008.142</v>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="str">
-        <v>8.143</v>
-      </c>
-      <c r="B1042" t="str">
-        <v>3008.143</v>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="str">
-        <v>8.151</v>
-      </c>
-      <c r="B1043" t="str">
-        <v>3008.151</v>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="str">
-        <v>8.152</v>
-      </c>
-      <c r="B1044" t="str">
-        <v>3008.152</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="str">
-        <v>8.153</v>
-      </c>
-      <c r="B1045" t="str">
-        <v>3008.153</v>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="str">
-        <v>8.161</v>
-      </c>
-      <c r="B1046" t="str">
-        <v>3008.161</v>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="str">
-        <v>8.162</v>
-      </c>
-      <c r="B1047" t="str">
-        <v>3008.162</v>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="str">
-        <v>8.163</v>
-      </c>
-      <c r="B1048" t="str">
-        <v>3008.163</v>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="str">
-        <v>8.171</v>
-      </c>
-      <c r="B1049" t="str">
-        <v>3008.171</v>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="str">
-        <v>8.172</v>
-      </c>
-      <c r="B1050" t="str">
-        <v>3008.172</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="str">
-        <v>8.173</v>
-      </c>
-      <c r="B1051" t="str">
-        <v>3008.173</v>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="str">
-        <v>8.211</v>
-      </c>
-      <c r="B1052" t="str">
-        <v>3008.211</v>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="str">
-        <v>8.212</v>
-      </c>
-      <c r="B1053" t="str">
-        <v>3008.212</v>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="str">
-        <v>8.213</v>
-      </c>
-      <c r="B1054" t="str">
-        <v>3008.213</v>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="str">
-        <v>8.221</v>
-      </c>
-      <c r="B1055" t="str">
-        <v>3008.221</v>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="str">
-        <v>8.222</v>
-      </c>
-      <c r="B1056" t="str">
-        <v>3008.222</v>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="str">
-        <v>8.223</v>
-      </c>
-      <c r="B1057" t="str">
-        <v>3008.223</v>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="str">
-        <v>8.231</v>
-      </c>
-      <c r="B1058" t="str">
-        <v>3008.231</v>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="str">
-        <v>8.232</v>
-      </c>
-      <c r="B1059" t="str">
-        <v>3008.232</v>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="str">
-        <v>8.233</v>
-      </c>
-      <c r="B1060" t="str">
-        <v>3008.233</v>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="str">
-        <v>8.241</v>
-      </c>
-      <c r="B1061" t="str">
-        <v>3008.241</v>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="str">
-        <v>8.242</v>
-      </c>
-      <c r="B1062" t="str">
-        <v>3008.242</v>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="str">
-        <v>8.243</v>
-      </c>
-      <c r="B1063" t="str">
-        <v>3008.243</v>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="str">
-        <v>8.251</v>
-      </c>
-      <c r="B1064" t="str">
-        <v>3008.251</v>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="str">
-        <v>8.252</v>
-      </c>
-      <c r="B1065" t="str">
-        <v>3008.252</v>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="str">
-        <v>8.253</v>
-      </c>
-      <c r="B1066" t="str">
-        <v>3008.253</v>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="str">
-        <v>8.261</v>
-      </c>
-      <c r="B1067" t="str">
-        <v>3008.261</v>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="str">
-        <v>8.262</v>
-      </c>
-      <c r="B1068" t="str">
-        <v>3008.262</v>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="str">
-        <v>8.263</v>
-      </c>
-      <c r="B1069" t="str">
-        <v>3008.263</v>
-      </c>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="str">
-        <v>8.271</v>
-      </c>
-      <c r="B1070" t="str">
-        <v>3008.271</v>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="str">
-        <v>8.272</v>
-      </c>
-      <c r="B1071" t="str">
-        <v>3008.272</v>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="str">
-        <v>8.273</v>
-      </c>
-      <c r="B1072" t="str">
-        <v>3008.273</v>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="str">
-        <v>8.311</v>
-      </c>
-      <c r="B1073" t="str">
-        <v>3008.311</v>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="str">
-        <v>8.312</v>
-      </c>
-      <c r="B1074" t="str">
-        <v>3008.312</v>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="str">
-        <v>8.313</v>
-      </c>
-      <c r="B1075" t="str">
-        <v>3008.313</v>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="str">
-        <v>8.321</v>
-      </c>
-      <c r="B1076" t="str">
-        <v>3008.321</v>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="str">
-        <v>8.322</v>
-      </c>
-      <c r="B1077" t="str">
-        <v>3008.322</v>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="str">
-        <v>8.323</v>
-      </c>
-      <c r="B1078" t="str">
-        <v>3008.323</v>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="str">
-        <v>8.331</v>
-      </c>
-      <c r="B1079" t="str">
-        <v>3008.331</v>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="str">
-        <v>8.332</v>
-      </c>
-      <c r="B1080" t="str">
-        <v>3008.332</v>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="str">
-        <v>8.333</v>
-      </c>
-      <c r="B1081" t="str">
-        <v>3008.333</v>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="str">
-        <v>8.341</v>
-      </c>
-      <c r="B1082" t="str">
-        <v>3008.341</v>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="str">
-        <v>8.342</v>
-      </c>
-      <c r="B1083" t="str">
-        <v>3008.342</v>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="str">
-        <v>8.343</v>
-      </c>
-      <c r="B1084" t="str">
-        <v>3008.343</v>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="str">
-        <v>8.351</v>
-      </c>
-      <c r="B1085" t="str">
-        <v>3008.351</v>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="str">
-        <v>8.352</v>
-      </c>
-      <c r="B1086" t="str">
-        <v>3008.352</v>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="str">
-        <v>8.353</v>
-      </c>
-      <c r="B1087" t="str">
-        <v>3008.353</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="str">
-        <v>8.361</v>
-      </c>
-      <c r="B1088" t="str">
-        <v>3008.361</v>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="str">
-        <v>8.362</v>
-      </c>
-      <c r="B1089" t="str">
-        <v>3008.362</v>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="str">
-        <v>8.363</v>
-      </c>
-      <c r="B1090" t="str">
-        <v>3008.363</v>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="str">
-        <v>8.371</v>
-      </c>
-      <c r="B1091" t="str">
-        <v>3008.371</v>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="str">
-        <v>8.372</v>
-      </c>
-      <c r="B1092" t="str">
-        <v>3008.372</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="str">
-        <v>8.373</v>
-      </c>
-      <c r="B1093" t="str">
-        <v>3008.373</v>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="str">
-        <v>8.411</v>
-      </c>
-      <c r="B1094" t="str">
-        <v>3008.411</v>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="str">
-        <v>8.412</v>
-      </c>
-      <c r="B1095" t="str">
-        <v>3008.412</v>
-      </c>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="str">
-        <v>8.413</v>
-      </c>
-      <c r="B1096" t="str">
-        <v>3008.413</v>
-      </c>
-    </row>
-    <row r="1097">
-      <c r="A1097" t="str">
-        <v>8.421</v>
-      </c>
-      <c r="B1097" t="str">
-        <v>3008.421</v>
-      </c>
-    </row>
-    <row r="1098">
-      <c r="A1098" t="str">
-        <v>8.422</v>
-      </c>
-      <c r="B1098" t="str">
-        <v>3008.422</v>
-      </c>
-    </row>
-    <row r="1099">
-      <c r="A1099" t="str">
-        <v>8.423</v>
-      </c>
-      <c r="B1099" t="str">
-        <v>3008.423</v>
-      </c>
-    </row>
-    <row r="1100">
-      <c r="A1100" t="str">
-        <v>8.431</v>
-      </c>
-      <c r="B1100" t="str">
-        <v>3008.431</v>
-      </c>
-    </row>
-    <row r="1101">
-      <c r="A1101" t="str">
-        <v>8.432</v>
-      </c>
-      <c r="B1101" t="str">
-        <v>3008.432</v>
-      </c>
-    </row>
-    <row r="1102">
-      <c r="A1102" t="str">
-        <v>8.433</v>
-      </c>
-      <c r="B1102" t="str">
-        <v>3008.433</v>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="str">
-        <v>8.441</v>
-      </c>
-      <c r="B1103" t="str">
-        <v>3008.441</v>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="str">
-        <v>8.442</v>
-      </c>
-      <c r="B1104" t="str">
-        <v>3008.442</v>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="str">
-        <v>8.443</v>
-      </c>
-      <c r="B1105" t="str">
-        <v>3008.443</v>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="str">
-        <v>8.451</v>
-      </c>
-      <c r="B1106" t="str">
-        <v>3008.451</v>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="str">
-        <v>8.452</v>
-      </c>
-      <c r="B1107" t="str">
-        <v>3008.452</v>
-      </c>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="str">
-        <v>8.453</v>
-      </c>
-      <c r="B1108" t="str">
-        <v>3008.453</v>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="str">
-        <v>8.461</v>
-      </c>
-      <c r="B1109" t="str">
-        <v>3008.461</v>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="str">
-        <v>8.462</v>
-      </c>
-      <c r="B1110" t="str">
-        <v>3008.462</v>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="str">
-        <v>8.463</v>
-      </c>
-      <c r="B1111" t="str">
-        <v>3008.463</v>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="str">
-        <v>8.471</v>
-      </c>
-      <c r="B1112" t="str">
-        <v>3008.471</v>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="str">
-        <v>8.472</v>
-      </c>
-      <c r="B1113" t="str">
-        <v>3008.472</v>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="str">
-        <v>8.473</v>
-      </c>
-      <c r="B1114" t="str">
-        <v>3008.473</v>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="str">
-        <v>8.511</v>
-      </c>
-      <c r="B1115" t="str">
-        <v>3008.511</v>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="str">
-        <v>8.512</v>
-      </c>
-      <c r="B1116" t="str">
-        <v>3008.512</v>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="str">
-        <v>8.513</v>
-      </c>
-      <c r="B1117" t="str">
-        <v>3008.513</v>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="str">
-        <v>8.521</v>
-      </c>
-      <c r="B1118" t="str">
-        <v>3008.521</v>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="str">
-        <v>8.522</v>
-      </c>
-      <c r="B1119" t="str">
-        <v>3008.522</v>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="str">
-        <v>8.523</v>
-      </c>
-      <c r="B1120" t="str">
-        <v>3008.523</v>
-      </c>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="str">
-        <v>8.531</v>
-      </c>
-      <c r="B1121" t="str">
-        <v>3008.531</v>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="str">
-        <v>8.532</v>
-      </c>
-      <c r="B1122" t="str">
-        <v>3008.532</v>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="str">
-        <v>8.533</v>
-      </c>
-      <c r="B1123" t="str">
-        <v>3008.533</v>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="str">
-        <v>8.541</v>
-      </c>
-      <c r="B1124" t="str">
-        <v>3008.541</v>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="str">
-        <v>8.542</v>
-      </c>
-      <c r="B1125" t="str">
-        <v>3008.542</v>
-      </c>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="str">
-        <v>8.543</v>
-      </c>
-      <c r="B1126" t="str">
-        <v>3008.543</v>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="str">
-        <v>8.551</v>
-      </c>
-      <c r="B1127" t="str">
-        <v>3008.551</v>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="str">
-        <v>8.552</v>
-      </c>
-      <c r="B1128" t="str">
-        <v>3008.552</v>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="str">
-        <v>8.553</v>
-      </c>
-      <c r="B1129" t="str">
-        <v>3008.553</v>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="str">
-        <v>8.561</v>
-      </c>
-      <c r="B1130" t="str">
-        <v>3008.561</v>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="str">
-        <v>8.562</v>
-      </c>
-      <c r="B1131" t="str">
-        <v>3008.562</v>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="str">
-        <v>8.563</v>
-      </c>
-      <c r="B1132" t="str">
-        <v>3008.563</v>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="str">
-        <v>8.571</v>
-      </c>
-      <c r="B1133" t="str">
-        <v>3008.571</v>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="str">
-        <v>8.572</v>
-      </c>
-      <c r="B1134" t="str">
-        <v>3008.572</v>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="str">
-        <v>8.573</v>
-      </c>
-      <c r="B1135" t="str">
-        <v>3008.573</v>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="str">
-        <v>8.611</v>
-      </c>
-      <c r="B1136" t="str">
-        <v>3008.611</v>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="str">
-        <v>8.612</v>
-      </c>
-      <c r="B1137" t="str">
-        <v>3008.612</v>
-      </c>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="str">
-        <v>8.613</v>
-      </c>
-      <c r="B1138" t="str">
-        <v>3008.613</v>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="str">
-        <v>8.621</v>
-      </c>
-      <c r="B1139" t="str">
-        <v>3008.621</v>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="str">
-        <v>8.622</v>
-      </c>
-      <c r="B1140" t="str">
-        <v>3008.622</v>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="str">
-        <v>8.623</v>
-      </c>
-      <c r="B1141" t="str">
-        <v>3008.623</v>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="str">
-        <v>8.631</v>
-      </c>
-      <c r="B1142" t="str">
-        <v>3008.631</v>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="str">
-        <v>8.632</v>
-      </c>
-      <c r="B1143" t="str">
-        <v>3008.632</v>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="str">
-        <v>8.633</v>
-      </c>
-      <c r="B1144" t="str">
-        <v>3008.633</v>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="str">
-        <v>8.641</v>
-      </c>
-      <c r="B1145" t="str">
-        <v>3008.641</v>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="str">
-        <v>8.642</v>
-      </c>
-      <c r="B1146" t="str">
-        <v>3008.642</v>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="str">
-        <v>8.643</v>
-      </c>
-      <c r="B1147" t="str">
-        <v>3008.643</v>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="str">
-        <v>8.651</v>
-      </c>
-      <c r="B1148" t="str">
-        <v>3008.651</v>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="str">
-        <v>8.652</v>
-      </c>
-      <c r="B1149" t="str">
-        <v>3008.652</v>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="str">
-        <v>8.653</v>
-      </c>
-      <c r="B1150" t="str">
-        <v>3008.653</v>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="str">
-        <v>8.661</v>
-      </c>
-      <c r="B1151" t="str">
-        <v>3008.661</v>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="str">
-        <v>8.662</v>
-      </c>
-      <c r="B1152" t="str">
-        <v>3008.662</v>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="str">
-        <v>8.663</v>
-      </c>
-      <c r="B1153" t="str">
-        <v>3008.663</v>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="str">
-        <v>8.671</v>
-      </c>
-      <c r="B1154" t="str">
-        <v>3008.671</v>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="str">
-        <v>8.672</v>
-      </c>
-      <c r="B1155" t="str">
-        <v>3008.672</v>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="str">
-        <v>8.673</v>
-      </c>
-      <c r="B1156" t="str">
-        <v>3008.673</v>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="str">
-        <v>8.711</v>
-      </c>
-      <c r="B1157" t="str">
-        <v>3008.711</v>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="str">
-        <v>8.712</v>
-      </c>
-      <c r="B1158" t="str">
-        <v>3008.712</v>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="str">
-        <v>8.713</v>
-      </c>
-      <c r="B1159" t="str">
-        <v>3008.713</v>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="str">
-        <v>8.721</v>
-      </c>
-      <c r="B1160" t="str">
-        <v>3008.721</v>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="str">
-        <v>8.722</v>
-      </c>
-      <c r="B1161" t="str">
-        <v>3008.722</v>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="str">
-        <v>8.723</v>
-      </c>
-      <c r="B1162" t="str">
-        <v>3008.723</v>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="str">
-        <v>8.731</v>
-      </c>
-      <c r="B1163" t="str">
-        <v>3008.731</v>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="str">
-        <v>8.732</v>
-      </c>
-      <c r="B1164" t="str">
-        <v>3008.732</v>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="str">
-        <v>8.733</v>
-      </c>
-      <c r="B1165" t="str">
-        <v>3008.733</v>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="str">
-        <v>8.741</v>
-      </c>
-      <c r="B1166" t="str">
-        <v>3008.741</v>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="str">
-        <v>8.742</v>
-      </c>
-      <c r="B1167" t="str">
-        <v>3008.742</v>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="str">
-        <v>8.743</v>
-      </c>
-      <c r="B1168" t="str">
-        <v>3008.743</v>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="str">
-        <v>8.751</v>
-      </c>
-      <c r="B1169" t="str">
-        <v>3008.751</v>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="str">
-        <v>8.752</v>
-      </c>
-      <c r="B1170" t="str">
-        <v>3008.752</v>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="str">
-        <v>8.753</v>
-      </c>
-      <c r="B1171" t="str">
-        <v>3008.753</v>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="str">
-        <v>8.761</v>
-      </c>
-      <c r="B1172" t="str">
-        <v>3008.761</v>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="str">
-        <v>8.762</v>
-      </c>
-      <c r="B1173" t="str">
-        <v>3008.762</v>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="str">
-        <v>8.763</v>
-      </c>
-      <c r="B1174" t="str">
-        <v>3008.763</v>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="str">
-        <v>8.771</v>
-      </c>
-      <c r="B1175" t="str">
-        <v>3008.771</v>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="str">
-        <v>8.772</v>
-      </c>
-      <c r="B1176" t="str">
-        <v>3008.772</v>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="str">
-        <v>8.773</v>
-      </c>
-      <c r="B1177" t="str">
-        <v>3008.773</v>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="str">
-        <v>9.111</v>
-      </c>
-      <c r="B1178" t="str">
-        <v>3009.111</v>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="str">
-        <v>9.112</v>
-      </c>
-      <c r="B1179" t="str">
-        <v>3009.112</v>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="str">
-        <v>9.113</v>
-      </c>
-      <c r="B1180" t="str">
-        <v>3009.113</v>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="str">
-        <v>9.121</v>
-      </c>
-      <c r="B1181" t="str">
-        <v>3009.121</v>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="str">
-        <v>9.122</v>
-      </c>
-      <c r="B1182" t="str">
-        <v>3009.122</v>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="str">
-        <v>9.123</v>
-      </c>
-      <c r="B1183" t="str">
-        <v>3009.123</v>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="str">
-        <v>9.131</v>
-      </c>
-      <c r="B1184" t="str">
-        <v>3009.131</v>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="str">
-        <v>9.132</v>
-      </c>
-      <c r="B1185" t="str">
-        <v>3009.132</v>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="str">
-        <v>9.133</v>
-      </c>
-      <c r="B1186" t="str">
-        <v>3009.133</v>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="str">
-        <v>9.141</v>
-      </c>
-      <c r="B1187" t="str">
-        <v>3009.141</v>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="str">
-        <v>9.142</v>
-      </c>
-      <c r="B1188" t="str">
-        <v>3009.142</v>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="str">
-        <v>9.143</v>
-      </c>
-      <c r="B1189" t="str">
-        <v>3009.143</v>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="str">
-        <v>9.151</v>
-      </c>
-      <c r="B1190" t="str">
-        <v>3009.151</v>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="str">
-        <v>9.152</v>
-      </c>
-      <c r="B1191" t="str">
-        <v>3009.152</v>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="str">
-        <v>9.153</v>
-      </c>
-      <c r="B1192" t="str">
-        <v>3009.153</v>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="str">
-        <v>9.161</v>
-      </c>
-      <c r="B1193" t="str">
-        <v>3009.161</v>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="str">
-        <v>9.162</v>
-      </c>
-      <c r="B1194" t="str">
-        <v>3009.162</v>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="str">
-        <v>9.163</v>
-      </c>
-      <c r="B1195" t="str">
-        <v>3009.163</v>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="str">
-        <v>9.171</v>
-      </c>
-      <c r="B1196" t="str">
-        <v>3009.171</v>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="str">
-        <v>9.172</v>
-      </c>
-      <c r="B1197" t="str">
-        <v>3009.172</v>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="str">
-        <v>9.173</v>
-      </c>
-      <c r="B1198" t="str">
-        <v>3009.173</v>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="str">
-        <v>9.211</v>
-      </c>
-      <c r="B1199" t="str">
-        <v>3009.211</v>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="str">
-        <v>9.212</v>
-      </c>
-      <c r="B1200" t="str">
-        <v>3009.212</v>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="str">
-        <v>9.213</v>
-      </c>
-      <c r="B1201" t="str">
-        <v>3009.213</v>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="str">
-        <v>9.221</v>
-      </c>
-      <c r="B1202" t="str">
-        <v>3009.221</v>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="str">
-        <v>9.222</v>
-      </c>
-      <c r="B1203" t="str">
-        <v>3009.222</v>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="str">
-        <v>9.223</v>
-      </c>
-      <c r="B1204" t="str">
-        <v>3009.223</v>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="str">
-        <v>9.231</v>
-      </c>
-      <c r="B1205" t="str">
-        <v>3009.231</v>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="str">
-        <v>9.232</v>
-      </c>
-      <c r="B1206" t="str">
-        <v>3009.232</v>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="str">
-        <v>9.233</v>
-      </c>
-      <c r="B1207" t="str">
-        <v>3009.233</v>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="str">
-        <v>9.241</v>
-      </c>
-      <c r="B1208" t="str">
-        <v>3009.241</v>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="str">
-        <v>9.242</v>
-      </c>
-      <c r="B1209" t="str">
-        <v>3009.242</v>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="str">
-        <v>9.243</v>
-      </c>
-      <c r="B1210" t="str">
-        <v>3009.243</v>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="str">
-        <v>9.251</v>
-      </c>
-      <c r="B1211" t="str">
-        <v>3009.251</v>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="str">
-        <v>9.252</v>
-      </c>
-      <c r="B1212" t="str">
-        <v>3009.252</v>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="str">
-        <v>9.253</v>
-      </c>
-      <c r="B1213" t="str">
-        <v>3009.253</v>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="str">
-        <v>9.261</v>
-      </c>
-      <c r="B1214" t="str">
-        <v>3009.261</v>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="str">
-        <v>9.262</v>
-      </c>
-      <c r="B1215" t="str">
-        <v>3009.262</v>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="str">
-        <v>9.263</v>
-      </c>
-      <c r="B1216" t="str">
-        <v>3009.263</v>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="str">
-        <v>9.271</v>
-      </c>
-      <c r="B1217" t="str">
-        <v>3009.271</v>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="str">
-        <v>9.272</v>
-      </c>
-      <c r="B1218" t="str">
-        <v>3009.272</v>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="str">
-        <v>9.273</v>
-      </c>
-      <c r="B1219" t="str">
-        <v>3009.273</v>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="str">
-        <v>9.311</v>
-      </c>
-      <c r="B1220" t="str">
-        <v>3009.311</v>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="str">
-        <v>9.312</v>
-      </c>
-      <c r="B1221" t="str">
-        <v>3009.312</v>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="str">
-        <v>9.313</v>
-      </c>
-      <c r="B1222" t="str">
-        <v>3009.313</v>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="str">
-        <v>9.321</v>
-      </c>
-      <c r="B1223" t="str">
-        <v>3009.321</v>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="str">
-        <v>9.322</v>
-      </c>
-      <c r="B1224" t="str">
-        <v>3009.322</v>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="str">
-        <v>9.323</v>
-      </c>
-      <c r="B1225" t="str">
-        <v>3009.323</v>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="str">
-        <v>9.331</v>
-      </c>
-      <c r="B1226" t="str">
-        <v>3009.331</v>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="str">
-        <v>9.332</v>
-      </c>
-      <c r="B1227" t="str">
-        <v>3009.332</v>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="str">
-        <v>9.333</v>
-      </c>
-      <c r="B1228" t="str">
-        <v>3009.333</v>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="str">
-        <v>9.341</v>
-      </c>
-      <c r="B1229" t="str">
-        <v>3009.341</v>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="str">
-        <v>9.342</v>
-      </c>
-      <c r="B1230" t="str">
-        <v>3009.342</v>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="str">
-        <v>9.343</v>
-      </c>
-      <c r="B1231" t="str">
-        <v>3009.343</v>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="str">
-        <v>9.351</v>
-      </c>
-      <c r="B1232" t="str">
-        <v>3009.351</v>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="str">
-        <v>9.352</v>
-      </c>
-      <c r="B1233" t="str">
-        <v>3009.352</v>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="str">
-        <v>9.353</v>
-      </c>
-      <c r="B1234" t="str">
-        <v>3009.353</v>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="str">
-        <v>9.361</v>
-      </c>
-      <c r="B1235" t="str">
-        <v>3009.361</v>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="str">
-        <v>9.362</v>
-      </c>
-      <c r="B1236" t="str">
-        <v>3009.362</v>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="str">
-        <v>9.363</v>
-      </c>
-      <c r="B1237" t="str">
-        <v>3009.363</v>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="str">
-        <v>9.371</v>
-      </c>
-      <c r="B1238" t="str">
-        <v>3009.371</v>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="str">
-        <v>9.372</v>
-      </c>
-      <c r="B1239" t="str">
-        <v>3009.372</v>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="str">
-        <v>9.373</v>
-      </c>
-      <c r="B1240" t="str">
-        <v>3009.373</v>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="str">
-        <v>9.411</v>
-      </c>
-      <c r="B1241" t="str">
-        <v>3009.411</v>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="str">
-        <v>9.412</v>
-      </c>
-      <c r="B1242" t="str">
-        <v>3009.412</v>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="str">
-        <v>9.413</v>
-      </c>
-      <c r="B1243" t="str">
-        <v>3009.413</v>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="str">
-        <v>9.421</v>
-      </c>
-      <c r="B1244" t="str">
-        <v>3009.421</v>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="str">
-        <v>9.422</v>
-      </c>
-      <c r="B1245" t="str">
-        <v>3009.422</v>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="str">
-        <v>9.423</v>
-      </c>
-      <c r="B1246" t="str">
-        <v>3009.423</v>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="str">
-        <v>9.431</v>
-      </c>
-      <c r="B1247" t="str">
-        <v>3009.431</v>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="str">
-        <v>9.432</v>
-      </c>
-      <c r="B1248" t="str">
-        <v>3009.432</v>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="str">
-        <v>9.433</v>
-      </c>
-      <c r="B1249" t="str">
-        <v>3009.433</v>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="str">
-        <v>9.441</v>
-      </c>
-      <c r="B1250" t="str">
-        <v>3009.441</v>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="str">
-        <v>9.442</v>
-      </c>
-      <c r="B1251" t="str">
-        <v>3009.442</v>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="str">
-        <v>9.443</v>
-      </c>
-      <c r="B1252" t="str">
-        <v>3009.443</v>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="str">
-        <v>9.451</v>
-      </c>
-      <c r="B1253" t="str">
-        <v>3009.451</v>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="str">
-        <v>9.452</v>
-      </c>
-      <c r="B1254" t="str">
-        <v>3009.452</v>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="str">
-        <v>9.453</v>
-      </c>
-      <c r="B1255" t="str">
-        <v>3009.453</v>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="str">
-        <v>9.461</v>
-      </c>
-      <c r="B1256" t="str">
-        <v>3009.461</v>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="str">
-        <v>9.462</v>
-      </c>
-      <c r="B1257" t="str">
-        <v>3009.462</v>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="str">
-        <v>9.463</v>
-      </c>
-      <c r="B1258" t="str">
-        <v>3009.463</v>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="str">
-        <v>9.471</v>
-      </c>
-      <c r="B1259" t="str">
-        <v>3009.471</v>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="str">
-        <v>9.472</v>
-      </c>
-      <c r="B1260" t="str">
-        <v>3009.472</v>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="str">
-        <v>9.473</v>
-      </c>
-      <c r="B1261" t="str">
-        <v>3009.473</v>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="str">
-        <v>9.511</v>
-      </c>
-      <c r="B1262" t="str">
-        <v>3009.511</v>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="str">
-        <v>9.512</v>
-      </c>
-      <c r="B1263" t="str">
-        <v>3009.512</v>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="str">
-        <v>9.513</v>
-      </c>
-      <c r="B1264" t="str">
-        <v>3009.513</v>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="str">
-        <v>9.521</v>
-      </c>
-      <c r="B1265" t="str">
-        <v>3009.521</v>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="str">
-        <v>9.522</v>
-      </c>
-      <c r="B1266" t="str">
-        <v>3009.522</v>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="str">
-        <v>9.523</v>
-      </c>
-      <c r="B1267" t="str">
-        <v>3009.523</v>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="str">
-        <v>9.531</v>
-      </c>
-      <c r="B1268" t="str">
-        <v>3009.531</v>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="str">
-        <v>9.532</v>
-      </c>
-      <c r="B1269" t="str">
-        <v>3009.532</v>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="str">
-        <v>9.533</v>
-      </c>
-      <c r="B1270" t="str">
-        <v>3009.533</v>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="str">
-        <v>9.541</v>
-      </c>
-      <c r="B1271" t="str">
-        <v>3009.541</v>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="str">
-        <v>9.542</v>
-      </c>
-      <c r="B1272" t="str">
-        <v>3009.542</v>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="str">
-        <v>9.543</v>
-      </c>
-      <c r="B1273" t="str">
-        <v>3009.543</v>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="str">
-        <v>9.551</v>
-      </c>
-      <c r="B1274" t="str">
-        <v>3009.551</v>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="str">
-        <v>9.552</v>
-      </c>
-      <c r="B1275" t="str">
-        <v>3009.552</v>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="str">
-        <v>9.553</v>
-      </c>
-      <c r="B1276" t="str">
-        <v>3009.553</v>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="str">
-        <v>9.561</v>
-      </c>
-      <c r="B1277" t="str">
-        <v>3009.561</v>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="str">
-        <v>9.562</v>
-      </c>
-      <c r="B1278" t="str">
-        <v>3009.562</v>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="str">
-        <v>9.563</v>
-      </c>
-      <c r="B1279" t="str">
-        <v>3009.563</v>
-      </c>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="str">
-        <v>9.571</v>
-      </c>
-      <c r="B1280" t="str">
-        <v>3009.571</v>
-      </c>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="str">
-        <v>9.572</v>
-      </c>
-      <c r="B1281" t="str">
-        <v>3009.572</v>
-      </c>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="str">
-        <v>9.573</v>
-      </c>
-      <c r="B1282" t="str">
-        <v>3009.573</v>
-      </c>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="str">
-        <v>9.611</v>
-      </c>
-      <c r="B1283" t="str">
-        <v>3009.611</v>
-      </c>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="str">
-        <v>9.612</v>
-      </c>
-      <c r="B1284" t="str">
-        <v>3009.612</v>
-      </c>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="str">
-        <v>9.613</v>
-      </c>
-      <c r="B1285" t="str">
-        <v>3009.613</v>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="str">
-        <v>9.621</v>
-      </c>
-      <c r="B1286" t="str">
-        <v>3009.621</v>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="str">
-        <v>9.622</v>
-      </c>
-      <c r="B1287" t="str">
-        <v>3009.622</v>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="str">
-        <v>9.623</v>
-      </c>
-      <c r="B1288" t="str">
-        <v>3009.623</v>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="str">
-        <v>9.631</v>
-      </c>
-      <c r="B1289" t="str">
-        <v>3009.631</v>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="str">
-        <v>9.632</v>
-      </c>
-      <c r="B1290" t="str">
-        <v>3009.632</v>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="str">
-        <v>9.633</v>
-      </c>
-      <c r="B1291" t="str">
-        <v>3009.633</v>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="str">
-        <v>9.641</v>
-      </c>
-      <c r="B1292" t="str">
-        <v>3009.641</v>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="str">
-        <v>9.642</v>
-      </c>
-      <c r="B1293" t="str">
-        <v>3009.642</v>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="str">
-        <v>9.643</v>
-      </c>
-      <c r="B1294" t="str">
-        <v>3009.643</v>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="str">
-        <v>9.651</v>
-      </c>
-      <c r="B1295" t="str">
-        <v>3009.651</v>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="str">
-        <v>9.652</v>
-      </c>
-      <c r="B1296" t="str">
-        <v>3009.652</v>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="str">
-        <v>9.653</v>
-      </c>
-      <c r="B1297" t="str">
-        <v>3009.653</v>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="str">
-        <v>9.661</v>
-      </c>
-      <c r="B1298" t="str">
-        <v>3009.661</v>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="str">
-        <v>9.662</v>
-      </c>
-      <c r="B1299" t="str">
-        <v>3009.662</v>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="str">
-        <v>9.663</v>
-      </c>
-      <c r="B1300" t="str">
-        <v>3009.663</v>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="str">
-        <v>9.671</v>
-      </c>
-      <c r="B1301" t="str">
-        <v>3009.671</v>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="str">
-        <v>9.672</v>
-      </c>
-      <c r="B1302" t="str">
-        <v>3009.672</v>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="str">
-        <v>9.673</v>
-      </c>
-      <c r="B1303" t="str">
-        <v>3009.673</v>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="str">
-        <v>9.711</v>
-      </c>
-      <c r="B1304" t="str">
-        <v>3009.711</v>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="str">
-        <v>9.712</v>
-      </c>
-      <c r="B1305" t="str">
-        <v>3009.712</v>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="str">
-        <v>9.713</v>
-      </c>
-      <c r="B1306" t="str">
-        <v>3009.713</v>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="str">
-        <v>9.721</v>
-      </c>
-      <c r="B1307" t="str">
-        <v>3009.721</v>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="str">
-        <v>9.722</v>
-      </c>
-      <c r="B1308" t="str">
-        <v>3009.722</v>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="str">
-        <v>9.723</v>
-      </c>
-      <c r="B1309" t="str">
-        <v>3009.723</v>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="str">
-        <v>9.731</v>
-      </c>
-      <c r="B1310" t="str">
-        <v>3009.731</v>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="str">
-        <v>9.732</v>
-      </c>
-      <c r="B1311" t="str">
-        <v>3009.732</v>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="str">
-        <v>9.733</v>
-      </c>
-      <c r="B1312" t="str">
-        <v>3009.733</v>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="str">
-        <v>9.741</v>
-      </c>
-      <c r="B1313" t="str">
-        <v>3009.741</v>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="str">
-        <v>9.742</v>
-      </c>
-      <c r="B1314" t="str">
-        <v>3009.742</v>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="str">
-        <v>9.743</v>
-      </c>
-      <c r="B1315" t="str">
-        <v>3009.743</v>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="str">
-        <v>9.751</v>
-      </c>
-      <c r="B1316" t="str">
-        <v>3009.751</v>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="str">
-        <v>9.752</v>
-      </c>
-      <c r="B1317" t="str">
-        <v>3009.752</v>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="str">
-        <v>9.753</v>
-      </c>
-      <c r="B1318" t="str">
-        <v>3009.753</v>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="str">
-        <v>9.761</v>
-      </c>
-      <c r="B1319" t="str">
-        <v>3009.761</v>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="str">
-        <v>9.762</v>
-      </c>
-      <c r="B1320" t="str">
-        <v>3009.762</v>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="str">
-        <v>9.763</v>
-      </c>
-      <c r="B1321" t="str">
-        <v>3009.763</v>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="str">
-        <v>9.771</v>
-      </c>
-      <c r="B1322" t="str">
-        <v>3009.771</v>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="str">
-        <v>9.772</v>
-      </c>
-      <c r="B1323" t="str">
-        <v>3009.772</v>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="str">
-        <v>9.773</v>
-      </c>
-      <c r="B1324" t="str">
-        <v>3009.773</v>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="str">
-        <v>10.111</v>
-      </c>
-      <c r="B1325" t="str">
-        <v>3010.111</v>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="str">
-        <v>10.112</v>
-      </c>
-      <c r="B1326" t="str">
-        <v>3010.112</v>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="str">
-        <v>10.113</v>
-      </c>
-      <c r="B1327" t="str">
-        <v>3010.113</v>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="str">
-        <v>10.121</v>
-      </c>
-      <c r="B1328" t="str">
-        <v>3010.121</v>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="str">
-        <v>10.122</v>
-      </c>
-      <c r="B1329" t="str">
-        <v>3010.122</v>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="str">
-        <v>10.123</v>
-      </c>
-      <c r="B1330" t="str">
-        <v>3010.123</v>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="str">
-        <v>10.131</v>
-      </c>
-      <c r="B1331" t="str">
-        <v>3010.131</v>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="str">
-        <v>10.132</v>
-      </c>
-      <c r="B1332" t="str">
-        <v>3010.132</v>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="str">
-        <v>10.133</v>
-      </c>
-      <c r="B1333" t="str">
-        <v>3010.133</v>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="str">
-        <v>10.141</v>
-      </c>
-      <c r="B1334" t="str">
-        <v>3010.141</v>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="str">
-        <v>10.142</v>
-      </c>
-      <c r="B1335" t="str">
-        <v>3010.142</v>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="str">
-        <v>10.143</v>
-      </c>
-      <c r="B1336" t="str">
-        <v>3010.143</v>
-      </c>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="str">
-        <v>10.151</v>
-      </c>
-      <c r="B1337" t="str">
-        <v>3010.151</v>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="str">
-        <v>10.152</v>
-      </c>
-      <c r="B1338" t="str">
-        <v>3010.152</v>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="str">
-        <v>10.153</v>
-      </c>
-      <c r="B1339" t="str">
-        <v>3010.153</v>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="str">
-        <v>10.161</v>
-      </c>
-      <c r="B1340" t="str">
-        <v>3010.161</v>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="str">
-        <v>10.162</v>
-      </c>
-      <c r="B1341" t="str">
-        <v>3010.162</v>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="str">
-        <v>10.163</v>
-      </c>
-      <c r="B1342" t="str">
-        <v>3010.163</v>
-      </c>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="str">
-        <v>10.171</v>
-      </c>
-      <c r="B1343" t="str">
-        <v>3010.171</v>
-      </c>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="str">
-        <v>10.172</v>
-      </c>
-      <c r="B1344" t="str">
-        <v>3010.172</v>
-      </c>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="str">
-        <v>10.173</v>
-      </c>
-      <c r="B1345" t="str">
-        <v>3010.173</v>
-      </c>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="str">
-        <v>10.211</v>
-      </c>
-      <c r="B1346" t="str">
-        <v>3010.211</v>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="str">
-        <v>10.212</v>
-      </c>
-      <c r="B1347" t="str">
-        <v>3010.212</v>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="str">
-        <v>10.213</v>
-      </c>
-      <c r="B1348" t="str">
-        <v>3010.213</v>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="str">
-        <v>10.221</v>
-      </c>
-      <c r="B1349" t="str">
-        <v>3010.221</v>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="str">
-        <v>10.222</v>
-      </c>
-      <c r="B1350" t="str">
-        <v>3010.222</v>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="str">
-        <v>10.223</v>
-      </c>
-      <c r="B1351" t="str">
-        <v>3010.223</v>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="str">
-        <v>10.231</v>
-      </c>
-      <c r="B1352" t="str">
-        <v>3010.231</v>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="str">
-        <v>10.232</v>
-      </c>
-      <c r="B1353" t="str">
-        <v>3010.232</v>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="str">
-        <v>10.233</v>
-      </c>
-      <c r="B1354" t="str">
-        <v>3010.233</v>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="str">
-        <v>10.241</v>
-      </c>
-      <c r="B1355" t="str">
-        <v>3010.241</v>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="str">
-        <v>10.242</v>
-      </c>
-      <c r="B1356" t="str">
-        <v>3010.242</v>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="str">
-        <v>10.243</v>
-      </c>
-      <c r="B1357" t="str">
-        <v>3010.243</v>
-      </c>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="str">
-        <v>10.251</v>
-      </c>
-      <c r="B1358" t="str">
-        <v>3010.251</v>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="str">
-        <v>10.252</v>
-      </c>
-      <c r="B1359" t="str">
-        <v>3010.252</v>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="str">
-        <v>10.253</v>
-      </c>
-      <c r="B1360" t="str">
-        <v>3010.253</v>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="str">
-        <v>10.261</v>
-      </c>
-      <c r="B1361" t="str">
-        <v>3010.261</v>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="str">
-        <v>10.262</v>
-      </c>
-      <c r="B1362" t="str">
-        <v>3010.262</v>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="str">
-        <v>10.263</v>
-      </c>
-      <c r="B1363" t="str">
-        <v>3010.263</v>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="str">
-        <v>10.271</v>
-      </c>
-      <c r="B1364" t="str">
-        <v>3010.271</v>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="str">
-        <v>10.272</v>
-      </c>
-      <c r="B1365" t="str">
-        <v>3010.272</v>
-      </c>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="str">
-        <v>10.273</v>
-      </c>
-      <c r="B1366" t="str">
-        <v>3010.273</v>
-      </c>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="str">
-        <v>10.311</v>
-      </c>
-      <c r="B1367" t="str">
-        <v>3010.311</v>
-      </c>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="str">
-        <v>10.312</v>
-      </c>
-      <c r="B1368" t="str">
-        <v>3010.312</v>
-      </c>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="str">
-        <v>10.313</v>
-      </c>
-      <c r="B1369" t="str">
-        <v>3010.313</v>
-      </c>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="str">
-        <v>10.321</v>
-      </c>
-      <c r="B1370" t="str">
-        <v>3010.321</v>
-      </c>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="str">
-        <v>10.322</v>
-      </c>
-      <c r="B1371" t="str">
-        <v>3010.322</v>
-      </c>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="str">
-        <v>10.323</v>
-      </c>
-      <c r="B1372" t="str">
-        <v>3010.323</v>
-      </c>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="str">
-        <v>10.331</v>
-      </c>
-      <c r="B1373" t="str">
-        <v>3010.331</v>
-      </c>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="str">
-        <v>10.332</v>
-      </c>
-      <c r="B1374" t="str">
-        <v>3010.332</v>
-      </c>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="str">
-        <v>10.333</v>
-      </c>
-      <c r="B1375" t="str">
-        <v>3010.333</v>
-      </c>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="str">
-        <v>10.341</v>
-      </c>
-      <c r="B1376" t="str">
-        <v>3010.341</v>
-      </c>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="str">
-        <v>10.342</v>
-      </c>
-      <c r="B1377" t="str">
-        <v>3010.342</v>
-      </c>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="str">
-        <v>10.343</v>
-      </c>
-      <c r="B1378" t="str">
-        <v>3010.343</v>
-      </c>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="str">
-        <v>10.351</v>
-      </c>
-      <c r="B1379" t="str">
-        <v>3010.351</v>
-      </c>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="str">
-        <v>10.352</v>
-      </c>
-      <c r="B1380" t="str">
-        <v>3010.352</v>
-      </c>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="str">
-        <v>10.353</v>
-      </c>
-      <c r="B1381" t="str">
-        <v>3010.353</v>
-      </c>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="str">
-        <v>10.361</v>
-      </c>
-      <c r="B1382" t="str">
-        <v>3010.361</v>
-      </c>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="str">
-        <v>10.362</v>
-      </c>
-      <c r="B1383" t="str">
-        <v>3010.362</v>
-      </c>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="str">
-        <v>10.363</v>
-      </c>
-      <c r="B1384" t="str">
-        <v>3010.363</v>
-      </c>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="str">
-        <v>10.371</v>
-      </c>
-      <c r="B1385" t="str">
-        <v>3010.371</v>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="str">
-        <v>10.372</v>
-      </c>
-      <c r="B1386" t="str">
-        <v>3010.372</v>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="str">
-        <v>10.373</v>
-      </c>
-      <c r="B1387" t="str">
-        <v>3010.373</v>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="str">
-        <v>10.411</v>
-      </c>
-      <c r="B1388" t="str">
-        <v>3010.411</v>
-      </c>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="str">
-        <v>10.412</v>
-      </c>
-      <c r="B1389" t="str">
-        <v>3010.412</v>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="str">
-        <v>10.413</v>
-      </c>
-      <c r="B1390" t="str">
-        <v>3010.413</v>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="str">
-        <v>10.421</v>
-      </c>
-      <c r="B1391" t="str">
-        <v>3010.421</v>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="str">
-        <v>10.422</v>
-      </c>
-      <c r="B1392" t="str">
-        <v>3010.422</v>
-      </c>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="str">
-        <v>10.423</v>
-      </c>
-      <c r="B1393" t="str">
-        <v>3010.423</v>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="str">
-        <v>10.431</v>
-      </c>
-      <c r="B1394" t="str">
-        <v>3010.431</v>
-      </c>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="str">
-        <v>10.432</v>
-      </c>
-      <c r="B1395" t="str">
-        <v>3010.432</v>
-      </c>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="str">
-        <v>10.433</v>
-      </c>
-      <c r="B1396" t="str">
-        <v>3010.433</v>
-      </c>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="str">
-        <v>10.441</v>
-      </c>
-      <c r="B1397" t="str">
-        <v>3010.441</v>
-      </c>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="str">
-        <v>10.442</v>
-      </c>
-      <c r="B1398" t="str">
-        <v>3010.442</v>
-      </c>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="str">
-        <v>10.443</v>
-      </c>
-      <c r="B1399" t="str">
-        <v>3010.443</v>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="str">
-        <v>10.451</v>
-      </c>
-      <c r="B1400" t="str">
-        <v>3010.451</v>
-      </c>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="str">
-        <v>10.452</v>
-      </c>
-      <c r="B1401" t="str">
-        <v>3010.452</v>
-      </c>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="str">
-        <v>10.453</v>
-      </c>
-      <c r="B1402" t="str">
-        <v>3010.453</v>
-      </c>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="str">
-        <v>10.461</v>
-      </c>
-      <c r="B1403" t="str">
-        <v>3010.461</v>
-      </c>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="str">
-        <v>10.462</v>
-      </c>
-      <c r="B1404" t="str">
-        <v>3010.462</v>
-      </c>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="str">
-        <v>10.463</v>
-      </c>
-      <c r="B1405" t="str">
-        <v>3010.463</v>
-      </c>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="str">
-        <v>10.471</v>
-      </c>
-      <c r="B1406" t="str">
-        <v>3010.471</v>
-      </c>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="str">
-        <v>10.472</v>
-      </c>
-      <c r="B1407" t="str">
-        <v>3010.472</v>
-      </c>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="str">
-        <v>10.473</v>
-      </c>
-      <c r="B1408" t="str">
-        <v>3010.473</v>
-      </c>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="str">
-        <v>10.511</v>
-      </c>
-      <c r="B1409" t="str">
-        <v>3010.511</v>
-      </c>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="str">
-        <v>10.512</v>
-      </c>
-      <c r="B1410" t="str">
-        <v>3010.512</v>
-      </c>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="str">
-        <v>10.513</v>
-      </c>
-      <c r="B1411" t="str">
-        <v>3010.513</v>
-      </c>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="str">
-        <v>10.521</v>
-      </c>
-      <c r="B1412" t="str">
-        <v>3010.521</v>
-      </c>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="str">
-        <v>10.522</v>
-      </c>
-      <c r="B1413" t="str">
-        <v>3010.522</v>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="str">
-        <v>10.523</v>
-      </c>
-      <c r="B1414" t="str">
-        <v>3010.523</v>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="str">
-        <v>10.531</v>
-      </c>
-      <c r="B1415" t="str">
-        <v>3010.531</v>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="str">
-        <v>10.532</v>
-      </c>
-      <c r="B1416" t="str">
-        <v>3010.532</v>
-      </c>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="str">
-        <v>10.533</v>
-      </c>
-      <c r="B1417" t="str">
-        <v>3010.533</v>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="str">
-        <v>10.541</v>
-      </c>
-      <c r="B1418" t="str">
-        <v>3010.541</v>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="str">
-        <v>10.542</v>
-      </c>
-      <c r="B1419" t="str">
-        <v>3010.542</v>
-      </c>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="str">
-        <v>10.543</v>
-      </c>
-      <c r="B1420" t="str">
-        <v>3010.543</v>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="str">
-        <v>10.551</v>
-      </c>
-      <c r="B1421" t="str">
-        <v>3010.551</v>
-      </c>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="str">
-        <v>10.552</v>
-      </c>
-      <c r="B1422" t="str">
-        <v>3010.552</v>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="str">
-        <v>10.553</v>
-      </c>
-      <c r="B1423" t="str">
-        <v>3010.553</v>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="str">
-        <v>10.561</v>
-      </c>
-      <c r="B1424" t="str">
-        <v>3010.561</v>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="str">
-        <v>10.562</v>
-      </c>
-      <c r="B1425" t="str">
-        <v>3010.562</v>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="str">
-        <v>10.563</v>
-      </c>
-      <c r="B1426" t="str">
-        <v>3010.563</v>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="str">
-        <v>10.571</v>
-      </c>
-      <c r="B1427" t="str">
-        <v>3010.571</v>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="str">
-        <v>10.572</v>
-      </c>
-      <c r="B1428" t="str">
-        <v>3010.572</v>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="str">
-        <v>10.573</v>
-      </c>
-      <c r="B1429" t="str">
-        <v>3010.573</v>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="str">
-        <v>10.611</v>
-      </c>
-      <c r="B1430" t="str">
-        <v>3010.611</v>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="str">
-        <v>10.612</v>
-      </c>
-      <c r="B1431" t="str">
-        <v>3010.612</v>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="str">
-        <v>10.613</v>
-      </c>
-      <c r="B1432" t="str">
-        <v>3010.613</v>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="str">
-        <v>10.621</v>
-      </c>
-      <c r="B1433" t="str">
-        <v>3010.621</v>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="str">
-        <v>10.622</v>
-      </c>
-      <c r="B1434" t="str">
-        <v>3010.622</v>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="str">
-        <v>10.623</v>
-      </c>
-      <c r="B1435" t="str">
-        <v>3010.623</v>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="str">
-        <v>10.631</v>
-      </c>
-      <c r="B1436" t="str">
-        <v>3010.631</v>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="str">
-        <v>10.632</v>
-      </c>
-      <c r="B1437" t="str">
-        <v>3010.632</v>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="str">
-        <v>10.633</v>
-      </c>
-      <c r="B1438" t="str">
-        <v>3010.633</v>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="str">
-        <v>10.641</v>
-      </c>
-      <c r="B1439" t="str">
-        <v>3010.641</v>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="str">
-        <v>10.642</v>
-      </c>
-      <c r="B1440" t="str">
-        <v>3010.642</v>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="str">
-        <v>10.643</v>
-      </c>
-      <c r="B1441" t="str">
-        <v>3010.643</v>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="str">
-        <v>10.651</v>
-      </c>
-      <c r="B1442" t="str">
-        <v>3010.651</v>
-      </c>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="str">
-        <v>10.652</v>
-      </c>
-      <c r="B1443" t="str">
-        <v>3010.652</v>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="str">
-        <v>10.653</v>
-      </c>
-      <c r="B1444" t="str">
-        <v>3010.653</v>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="str">
-        <v>10.661</v>
-      </c>
-      <c r="B1445" t="str">
-        <v>3010.661</v>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="str">
-        <v>10.662</v>
-      </c>
-      <c r="B1446" t="str">
-        <v>3010.662</v>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="str">
-        <v>10.663</v>
-      </c>
-      <c r="B1447" t="str">
-        <v>3010.663</v>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="str">
-        <v>10.671</v>
-      </c>
-      <c r="B1448" t="str">
-        <v>3010.671</v>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="str">
-        <v>10.672</v>
-      </c>
-      <c r="B1449" t="str">
-        <v>3010.672</v>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="str">
-        <v>10.673</v>
-      </c>
-      <c r="B1450" t="str">
-        <v>3010.673</v>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="str">
-        <v>10.711</v>
-      </c>
-      <c r="B1451" t="str">
-        <v>3010.711</v>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="str">
-        <v>10.712</v>
-      </c>
-      <c r="B1452" t="str">
-        <v>3010.712</v>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="str">
-        <v>10.713</v>
-      </c>
-      <c r="B1453" t="str">
-        <v>3010.713</v>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="str">
-        <v>10.721</v>
-      </c>
-      <c r="B1454" t="str">
-        <v>3010.721</v>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="str">
-        <v>10.722</v>
-      </c>
-      <c r="B1455" t="str">
-        <v>3010.722</v>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="str">
-        <v>10.723</v>
-      </c>
-      <c r="B1456" t="str">
-        <v>3010.723</v>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="str">
-        <v>10.731</v>
-      </c>
-      <c r="B1457" t="str">
-        <v>3010.731</v>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="str">
-        <v>10.732</v>
-      </c>
-      <c r="B1458" t="str">
-        <v>3010.732</v>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="str">
-        <v>10.733</v>
-      </c>
-      <c r="B1459" t="str">
-        <v>3010.733</v>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="str">
-        <v>10.741</v>
-      </c>
-      <c r="B1460" t="str">
-        <v>3010.741</v>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="str">
-        <v>10.742</v>
-      </c>
-      <c r="B1461" t="str">
-        <v>3010.742</v>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="str">
-        <v>10.743</v>
-      </c>
-      <c r="B1462" t="str">
-        <v>3010.743</v>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="str">
-        <v>10.751</v>
-      </c>
-      <c r="B1463" t="str">
-        <v>3010.751</v>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="str">
-        <v>10.752</v>
-      </c>
-      <c r="B1464" t="str">
-        <v>3010.752</v>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="str">
-        <v>10.753</v>
-      </c>
-      <c r="B1465" t="str">
-        <v>3010.753</v>
-      </c>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="str">
-        <v>10.761</v>
-      </c>
-      <c r="B1466" t="str">
-        <v>3010.761</v>
-      </c>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="str">
-        <v>10.762</v>
-      </c>
-      <c r="B1467" t="str">
-        <v>3010.762</v>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="str">
-        <v>10.763</v>
-      </c>
-      <c r="B1468" t="str">
-        <v>3010.763</v>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="str">
-        <v>10.771</v>
-      </c>
-      <c r="B1469" t="str">
-        <v>3010.771</v>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="str">
-        <v>10.772</v>
-      </c>
-      <c r="B1470" t="str">
-        <v>3010.772</v>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="str">
-        <v>10.773</v>
-      </c>
-      <c r="B1471" t="str">
-        <v>3010.773</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B1471"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B736"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/locations.xlsx
+++ b/locations.xlsx
@@ -397,102 +397,7081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C883"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>label</v>
+        <v>Title</v>
       </c>
       <c r="B1" t="str">
-        <v>code</v>
+        <v>Description</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Code</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1.111</v>
-      </c>
-      <c r="B2" t="str">
-        <v>3001.111</v>
+        <v>5.111</v>
+      </c>
+      <c r="C2" t="str">
+        <v>3005.111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2.111</v>
-      </c>
-      <c r="B3" t="str">
-        <v>3002.111</v>
+        <v>5.112</v>
+      </c>
+      <c r="C3" t="str">
+        <v>3005.112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3.111</v>
-      </c>
-      <c r="B4" t="str">
-        <v>3003.111</v>
+        <v>5.113</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3005.113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4.111</v>
-      </c>
-      <c r="B5" t="str">
-        <v>3004.111</v>
+        <v>5.121</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3005.121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5.111</v>
-      </c>
-      <c r="B6" t="str">
-        <v>3005.111</v>
+        <v>5.122</v>
+      </c>
+      <c r="C6" t="str">
+        <v>3005.122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6.111</v>
-      </c>
-      <c r="B7" t="str">
-        <v>3006.111</v>
+        <v>5.123</v>
+      </c>
+      <c r="C7" t="str">
+        <v>3005.123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>7.111</v>
-      </c>
-      <c r="B8" t="str">
-        <v>3007.111</v>
+        <v>5.131</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3005.131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>8.111</v>
-      </c>
-      <c r="B9" t="str">
-        <v>3008.111</v>
+        <v>5.132</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3005.132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>9.111</v>
-      </c>
-      <c r="B10" t="str">
-        <v>3009.111</v>
+        <v>5.133</v>
+      </c>
+      <c r="C10" t="str">
+        <v>3005.133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>5.141</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3005.141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>5.142</v>
+      </c>
+      <c r="C12" t="str">
+        <v>3005.142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>5.143</v>
+      </c>
+      <c r="C13" t="str">
+        <v>3005.143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>5.151</v>
+      </c>
+      <c r="C14" t="str">
+        <v>3005.151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>5.152</v>
+      </c>
+      <c r="C15" t="str">
+        <v>3005.152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>5.153</v>
+      </c>
+      <c r="C16" t="str">
+        <v>3005.153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>5.161</v>
+      </c>
+      <c r="C17" t="str">
+        <v>3005.161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5.162</v>
+      </c>
+      <c r="C18" t="str">
+        <v>3005.162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>5.163</v>
+      </c>
+      <c r="C19" t="str">
+        <v>3005.163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5.171</v>
+      </c>
+      <c r="C20" t="str">
+        <v>3005.171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>5.172</v>
+      </c>
+      <c r="C21" t="str">
+        <v>3005.172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5.173</v>
+      </c>
+      <c r="C22" t="str">
+        <v>3005.173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>5.211</v>
+      </c>
+      <c r="C23" t="str">
+        <v>3005.211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>5.212</v>
+      </c>
+      <c r="C24" t="str">
+        <v>3005.212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>5.213</v>
+      </c>
+      <c r="C25" t="str">
+        <v>3005.213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>5.221</v>
+      </c>
+      <c r="C26" t="str">
+        <v>3005.221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>5.222</v>
+      </c>
+      <c r="C27" t="str">
+        <v>3005.222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>5.223</v>
+      </c>
+      <c r="C28" t="str">
+        <v>3005.223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5.231</v>
+      </c>
+      <c r="C29" t="str">
+        <v>3005.231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>5.232</v>
+      </c>
+      <c r="C30" t="str">
+        <v>3005.232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>5.233</v>
+      </c>
+      <c r="C31" t="str">
+        <v>3005.233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>5.241</v>
+      </c>
+      <c r="C32" t="str">
+        <v>3005.241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5.242</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3005.242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5.243</v>
+      </c>
+      <c r="C34" t="str">
+        <v>3005.243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>5.251</v>
+      </c>
+      <c r="C35" t="str">
+        <v>3005.251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>5.252</v>
+      </c>
+      <c r="C36" t="str">
+        <v>3005.252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>5.253</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3005.253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>5.261</v>
+      </c>
+      <c r="C38" t="str">
+        <v>3005.261</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>5.262</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3005.262</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>5.263</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3005.263</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5.271</v>
+      </c>
+      <c r="C41" t="str">
+        <v>3005.271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>5.272</v>
+      </c>
+      <c r="C42" t="str">
+        <v>3005.272</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>5.273</v>
+      </c>
+      <c r="C43" t="str">
+        <v>3005.273</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>5.311</v>
+      </c>
+      <c r="C44" t="str">
+        <v>3005.311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>5.312</v>
+      </c>
+      <c r="C45" t="str">
+        <v>3005.312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>5.313</v>
+      </c>
+      <c r="C46" t="str">
+        <v>3005.313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>5.321</v>
+      </c>
+      <c r="C47" t="str">
+        <v>3005.321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>5.322</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3005.322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>5.323</v>
+      </c>
+      <c r="C49" t="str">
+        <v>3005.323</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>5.331</v>
+      </c>
+      <c r="C50" t="str">
+        <v>3005.331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>5.332</v>
+      </c>
+      <c r="C51" t="str">
+        <v>3005.332</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>5.333</v>
+      </c>
+      <c r="C52" t="str">
+        <v>3005.333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>5.341</v>
+      </c>
+      <c r="C53" t="str">
+        <v>3005.341</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>5.342</v>
+      </c>
+      <c r="C54" t="str">
+        <v>3005.342</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>5.343</v>
+      </c>
+      <c r="C55" t="str">
+        <v>3005.343</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>5.351</v>
+      </c>
+      <c r="C56" t="str">
+        <v>3005.351</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>5.352</v>
+      </c>
+      <c r="C57" t="str">
+        <v>3005.352</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>5.353</v>
+      </c>
+      <c r="C58" t="str">
+        <v>3005.353</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>5.361</v>
+      </c>
+      <c r="C59" t="str">
+        <v>3005.361</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>5.362</v>
+      </c>
+      <c r="C60" t="str">
+        <v>3005.362</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>5.363</v>
+      </c>
+      <c r="C61" t="str">
+        <v>3005.363</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>5.371</v>
+      </c>
+      <c r="C62" t="str">
+        <v>3005.371</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>5.372</v>
+      </c>
+      <c r="C63" t="str">
+        <v>3005.372</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>5.373</v>
+      </c>
+      <c r="C64" t="str">
+        <v>3005.373</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>5.411</v>
+      </c>
+      <c r="C65" t="str">
+        <v>3005.411</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>5.412</v>
+      </c>
+      <c r="C66" t="str">
+        <v>3005.412</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>5.413</v>
+      </c>
+      <c r="C67" t="str">
+        <v>3005.413</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>5.421</v>
+      </c>
+      <c r="C68" t="str">
+        <v>3005.421</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>5.422</v>
+      </c>
+      <c r="C69" t="str">
+        <v>3005.422</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>5.423</v>
+      </c>
+      <c r="C70" t="str">
+        <v>3005.423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>5.431</v>
+      </c>
+      <c r="C71" t="str">
+        <v>3005.431</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>5.432</v>
+      </c>
+      <c r="C72" t="str">
+        <v>3005.432</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>5.433</v>
+      </c>
+      <c r="C73" t="str">
+        <v>3005.433</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>5.441</v>
+      </c>
+      <c r="C74" t="str">
+        <v>3005.441</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>5.442</v>
+      </c>
+      <c r="C75" t="str">
+        <v>3005.442</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>5.443</v>
+      </c>
+      <c r="C76" t="str">
+        <v>3005.443</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>5.451</v>
+      </c>
+      <c r="C77" t="str">
+        <v>3005.451</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>5.452</v>
+      </c>
+      <c r="C78" t="str">
+        <v>3005.452</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>5.453</v>
+      </c>
+      <c r="C79" t="str">
+        <v>3005.453</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>5.461</v>
+      </c>
+      <c r="C80" t="str">
+        <v>3005.461</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>5.462</v>
+      </c>
+      <c r="C81" t="str">
+        <v>3005.462</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>5.463</v>
+      </c>
+      <c r="C82" t="str">
+        <v>3005.463</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>5.471</v>
+      </c>
+      <c r="C83" t="str">
+        <v>3005.471</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>5.472</v>
+      </c>
+      <c r="C84" t="str">
+        <v>3005.472</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>5.473</v>
+      </c>
+      <c r="C85" t="str">
+        <v>3005.473</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>5.511</v>
+      </c>
+      <c r="C86" t="str">
+        <v>3005.511</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>5.512</v>
+      </c>
+      <c r="C87" t="str">
+        <v>3005.512</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>5.513</v>
+      </c>
+      <c r="C88" t="str">
+        <v>3005.513</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>5.521</v>
+      </c>
+      <c r="C89" t="str">
+        <v>3005.521</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>5.522</v>
+      </c>
+      <c r="C90" t="str">
+        <v>3005.522</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>5.523</v>
+      </c>
+      <c r="C91" t="str">
+        <v>3005.523</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>5.531</v>
+      </c>
+      <c r="C92" t="str">
+        <v>3005.531</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>5.532</v>
+      </c>
+      <c r="C93" t="str">
+        <v>3005.532</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>5.533</v>
+      </c>
+      <c r="C94" t="str">
+        <v>3005.533</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>5.541</v>
+      </c>
+      <c r="C95" t="str">
+        <v>3005.541</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>5.542</v>
+      </c>
+      <c r="C96" t="str">
+        <v>3005.542</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>5.543</v>
+      </c>
+      <c r="C97" t="str">
+        <v>3005.543</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>5.551</v>
+      </c>
+      <c r="C98" t="str">
+        <v>3005.551</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>5.552</v>
+      </c>
+      <c r="C99" t="str">
+        <v>3005.552</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>5.553</v>
+      </c>
+      <c r="C100" t="str">
+        <v>3005.553</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>5.561</v>
+      </c>
+      <c r="C101" t="str">
+        <v>3005.561</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>5.562</v>
+      </c>
+      <c r="C102" t="str">
+        <v>3005.562</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>5.563</v>
+      </c>
+      <c r="C103" t="str">
+        <v>3005.563</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>5.571</v>
+      </c>
+      <c r="C104" t="str">
+        <v>3005.571</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>5.572</v>
+      </c>
+      <c r="C105" t="str">
+        <v>3005.572</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>5.573</v>
+      </c>
+      <c r="C106" t="str">
+        <v>3005.573</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>5.611</v>
+      </c>
+      <c r="C107" t="str">
+        <v>3005.611</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>5.612</v>
+      </c>
+      <c r="C108" t="str">
+        <v>3005.612</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>5.613</v>
+      </c>
+      <c r="C109" t="str">
+        <v>3005.613</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>5.621</v>
+      </c>
+      <c r="C110" t="str">
+        <v>3005.621</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>5.622</v>
+      </c>
+      <c r="C111" t="str">
+        <v>3005.622</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>5.623</v>
+      </c>
+      <c r="C112" t="str">
+        <v>3005.623</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>5.631</v>
+      </c>
+      <c r="C113" t="str">
+        <v>3005.631</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>5.632</v>
+      </c>
+      <c r="C114" t="str">
+        <v>3005.632</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>5.633</v>
+      </c>
+      <c r="C115" t="str">
+        <v>3005.633</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>5.641</v>
+      </c>
+      <c r="C116" t="str">
+        <v>3005.641</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>5.642</v>
+      </c>
+      <c r="C117" t="str">
+        <v>3005.642</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>5.643</v>
+      </c>
+      <c r="C118" t="str">
+        <v>3005.643</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>5.651</v>
+      </c>
+      <c r="C119" t="str">
+        <v>3005.651</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>5.652</v>
+      </c>
+      <c r="C120" t="str">
+        <v>3005.652</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>5.653</v>
+      </c>
+      <c r="C121" t="str">
+        <v>3005.653</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>5.661</v>
+      </c>
+      <c r="C122" t="str">
+        <v>3005.661</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>5.662</v>
+      </c>
+      <c r="C123" t="str">
+        <v>3005.662</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>5.663</v>
+      </c>
+      <c r="C124" t="str">
+        <v>3005.663</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>5.671</v>
+      </c>
+      <c r="C125" t="str">
+        <v>3005.671</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>5.672</v>
+      </c>
+      <c r="C126" t="str">
+        <v>3005.672</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>5.673</v>
+      </c>
+      <c r="C127" t="str">
+        <v>3005.673</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>5.711</v>
+      </c>
+      <c r="C128" t="str">
+        <v>3005.711</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>5.712</v>
+      </c>
+      <c r="C129" t="str">
+        <v>3005.712</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>5.713</v>
+      </c>
+      <c r="C130" t="str">
+        <v>3005.713</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>5.721</v>
+      </c>
+      <c r="C131" t="str">
+        <v>3005.721</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>5.722</v>
+      </c>
+      <c r="C132" t="str">
+        <v>3005.722</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>5.723</v>
+      </c>
+      <c r="C133" t="str">
+        <v>3005.723</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>5.731</v>
+      </c>
+      <c r="C134" t="str">
+        <v>3005.731</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>5.732</v>
+      </c>
+      <c r="C135" t="str">
+        <v>3005.732</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>5.733</v>
+      </c>
+      <c r="C136" t="str">
+        <v>3005.733</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>5.741</v>
+      </c>
+      <c r="C137" t="str">
+        <v>3005.741</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>5.742</v>
+      </c>
+      <c r="C138" t="str">
+        <v>3005.742</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>5.743</v>
+      </c>
+      <c r="C139" t="str">
+        <v>3005.743</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>5.751</v>
+      </c>
+      <c r="C140" t="str">
+        <v>3005.751</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>5.752</v>
+      </c>
+      <c r="C141" t="str">
+        <v>3005.752</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>5.753</v>
+      </c>
+      <c r="C142" t="str">
+        <v>3005.753</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>5.761</v>
+      </c>
+      <c r="C143" t="str">
+        <v>3005.761</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>5.762</v>
+      </c>
+      <c r="C144" t="str">
+        <v>3005.762</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>5.763</v>
+      </c>
+      <c r="C145" t="str">
+        <v>3005.763</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>5.771</v>
+      </c>
+      <c r="C146" t="str">
+        <v>3005.771</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>5.772</v>
+      </c>
+      <c r="C147" t="str">
+        <v>3005.772</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>5.773</v>
+      </c>
+      <c r="C148" t="str">
+        <v>3005.773</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>6.111</v>
+      </c>
+      <c r="C149" t="str">
+        <v>3006.111</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>6.112</v>
+      </c>
+      <c r="C150" t="str">
+        <v>3006.112</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>6.113</v>
+      </c>
+      <c r="C151" t="str">
+        <v>3006.113</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>6.121</v>
+      </c>
+      <c r="C152" t="str">
+        <v>3006.121</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>6.122</v>
+      </c>
+      <c r="C153" t="str">
+        <v>3006.122</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>6.123</v>
+      </c>
+      <c r="C154" t="str">
+        <v>3006.123</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>6.131</v>
+      </c>
+      <c r="C155" t="str">
+        <v>3006.131</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>6.132</v>
+      </c>
+      <c r="C156" t="str">
+        <v>3006.132</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>6.133</v>
+      </c>
+      <c r="C157" t="str">
+        <v>3006.133</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>6.141</v>
+      </c>
+      <c r="C158" t="str">
+        <v>3006.141</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>6.142</v>
+      </c>
+      <c r="C159" t="str">
+        <v>3006.142</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>6.143</v>
+      </c>
+      <c r="C160" t="str">
+        <v>3006.143</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>6.151</v>
+      </c>
+      <c r="C161" t="str">
+        <v>3006.151</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>6.152</v>
+      </c>
+      <c r="C162" t="str">
+        <v>3006.152</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>6.153</v>
+      </c>
+      <c r="C163" t="str">
+        <v>3006.153</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>6.161</v>
+      </c>
+      <c r="C164" t="str">
+        <v>3006.161</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>6.162</v>
+      </c>
+      <c r="C165" t="str">
+        <v>3006.162</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>6.163</v>
+      </c>
+      <c r="C166" t="str">
+        <v>3006.163</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>6.171</v>
+      </c>
+      <c r="C167" t="str">
+        <v>3006.171</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>6.172</v>
+      </c>
+      <c r="C168" t="str">
+        <v>3006.172</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>6.173</v>
+      </c>
+      <c r="C169" t="str">
+        <v>3006.173</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>6.211</v>
+      </c>
+      <c r="C170" t="str">
+        <v>3006.211</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>6.212</v>
+      </c>
+      <c r="C171" t="str">
+        <v>3006.212</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>6.213</v>
+      </c>
+      <c r="C172" t="str">
+        <v>3006.213</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>6.221</v>
+      </c>
+      <c r="C173" t="str">
+        <v>3006.221</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>6.222</v>
+      </c>
+      <c r="C174" t="str">
+        <v>3006.222</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>6.223</v>
+      </c>
+      <c r="C175" t="str">
+        <v>3006.223</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>6.231</v>
+      </c>
+      <c r="C176" t="str">
+        <v>3006.231</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>6.232</v>
+      </c>
+      <c r="C177" t="str">
+        <v>3006.232</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>6.233</v>
+      </c>
+      <c r="C178" t="str">
+        <v>3006.233</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>6.241</v>
+      </c>
+      <c r="C179" t="str">
+        <v>3006.241</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>6.242</v>
+      </c>
+      <c r="C180" t="str">
+        <v>3006.242</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>6.243</v>
+      </c>
+      <c r="C181" t="str">
+        <v>3006.243</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>6.251</v>
+      </c>
+      <c r="C182" t="str">
+        <v>3006.251</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>6.252</v>
+      </c>
+      <c r="C183" t="str">
+        <v>3006.252</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>6.253</v>
+      </c>
+      <c r="C184" t="str">
+        <v>3006.253</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>6.261</v>
+      </c>
+      <c r="C185" t="str">
+        <v>3006.261</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>6.262</v>
+      </c>
+      <c r="C186" t="str">
+        <v>3006.262</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>6.263</v>
+      </c>
+      <c r="C187" t="str">
+        <v>3006.263</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>6.271</v>
+      </c>
+      <c r="C188" t="str">
+        <v>3006.271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>6.272</v>
+      </c>
+      <c r="C189" t="str">
+        <v>3006.272</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>6.273</v>
+      </c>
+      <c r="C190" t="str">
+        <v>3006.273</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>6.311</v>
+      </c>
+      <c r="C191" t="str">
+        <v>3006.311</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>6.312</v>
+      </c>
+      <c r="C192" t="str">
+        <v>3006.312</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>6.313</v>
+      </c>
+      <c r="C193" t="str">
+        <v>3006.313</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>6.321</v>
+      </c>
+      <c r="C194" t="str">
+        <v>3006.321</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>6.322</v>
+      </c>
+      <c r="C195" t="str">
+        <v>3006.322</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>6.323</v>
+      </c>
+      <c r="C196" t="str">
+        <v>3006.323</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>6.331</v>
+      </c>
+      <c r="C197" t="str">
+        <v>3006.331</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>6.332</v>
+      </c>
+      <c r="C198" t="str">
+        <v>3006.332</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>6.333</v>
+      </c>
+      <c r="C199" t="str">
+        <v>3006.333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>6.341</v>
+      </c>
+      <c r="C200" t="str">
+        <v>3006.341</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>6.342</v>
+      </c>
+      <c r="C201" t="str">
+        <v>3006.342</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>6.343</v>
+      </c>
+      <c r="C202" t="str">
+        <v>3006.343</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>6.351</v>
+      </c>
+      <c r="C203" t="str">
+        <v>3006.351</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>6.352</v>
+      </c>
+      <c r="C204" t="str">
+        <v>3006.352</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>6.353</v>
+      </c>
+      <c r="C205" t="str">
+        <v>3006.353</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>6.361</v>
+      </c>
+      <c r="C206" t="str">
+        <v>3006.361</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>6.362</v>
+      </c>
+      <c r="C207" t="str">
+        <v>3006.362</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>6.363</v>
+      </c>
+      <c r="C208" t="str">
+        <v>3006.363</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>6.371</v>
+      </c>
+      <c r="C209" t="str">
+        <v>3006.371</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>6.372</v>
+      </c>
+      <c r="C210" t="str">
+        <v>3006.372</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>6.373</v>
+      </c>
+      <c r="C211" t="str">
+        <v>3006.373</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>6.411</v>
+      </c>
+      <c r="C212" t="str">
+        <v>3006.411</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>6.412</v>
+      </c>
+      <c r="C213" t="str">
+        <v>3006.412</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>6.413</v>
+      </c>
+      <c r="C214" t="str">
+        <v>3006.413</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>6.421</v>
+      </c>
+      <c r="C215" t="str">
+        <v>3006.421</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>6.422</v>
+      </c>
+      <c r="C216" t="str">
+        <v>3006.422</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>6.423</v>
+      </c>
+      <c r="C217" t="str">
+        <v>3006.423</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>6.431</v>
+      </c>
+      <c r="C218" t="str">
+        <v>3006.431</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>6.432</v>
+      </c>
+      <c r="C219" t="str">
+        <v>3006.432</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>6.433</v>
+      </c>
+      <c r="C220" t="str">
+        <v>3006.433</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>6.441</v>
+      </c>
+      <c r="C221" t="str">
+        <v>3006.441</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>6.442</v>
+      </c>
+      <c r="C222" t="str">
+        <v>3006.442</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>6.443</v>
+      </c>
+      <c r="C223" t="str">
+        <v>3006.443</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>6.451</v>
+      </c>
+      <c r="C224" t="str">
+        <v>3006.451</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>6.452</v>
+      </c>
+      <c r="C225" t="str">
+        <v>3006.452</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>6.453</v>
+      </c>
+      <c r="C226" t="str">
+        <v>3006.453</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>6.461</v>
+      </c>
+      <c r="C227" t="str">
+        <v>3006.461</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>6.462</v>
+      </c>
+      <c r="C228" t="str">
+        <v>3006.462</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>6.463</v>
+      </c>
+      <c r="C229" t="str">
+        <v>3006.463</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>6.471</v>
+      </c>
+      <c r="C230" t="str">
+        <v>3006.471</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>6.472</v>
+      </c>
+      <c r="C231" t="str">
+        <v>3006.472</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>6.473</v>
+      </c>
+      <c r="C232" t="str">
+        <v>3006.473</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>6.511</v>
+      </c>
+      <c r="C233" t="str">
+        <v>3006.511</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>6.512</v>
+      </c>
+      <c r="C234" t="str">
+        <v>3006.512</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>6.513</v>
+      </c>
+      <c r="C235" t="str">
+        <v>3006.513</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>6.521</v>
+      </c>
+      <c r="C236" t="str">
+        <v>3006.521</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>6.522</v>
+      </c>
+      <c r="C237" t="str">
+        <v>3006.522</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>6.523</v>
+      </c>
+      <c r="C238" t="str">
+        <v>3006.523</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>6.531</v>
+      </c>
+      <c r="C239" t="str">
+        <v>3006.531</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>6.532</v>
+      </c>
+      <c r="C240" t="str">
+        <v>3006.532</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>6.533</v>
+      </c>
+      <c r="C241" t="str">
+        <v>3006.533</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>6.541</v>
+      </c>
+      <c r="C242" t="str">
+        <v>3006.541</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>6.542</v>
+      </c>
+      <c r="C243" t="str">
+        <v>3006.542</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>6.543</v>
+      </c>
+      <c r="C244" t="str">
+        <v>3006.543</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>6.551</v>
+      </c>
+      <c r="C245" t="str">
+        <v>3006.551</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>6.552</v>
+      </c>
+      <c r="C246" t="str">
+        <v>3006.552</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>6.553</v>
+      </c>
+      <c r="C247" t="str">
+        <v>3006.553</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>6.561</v>
+      </c>
+      <c r="C248" t="str">
+        <v>3006.561</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>6.562</v>
+      </c>
+      <c r="C249" t="str">
+        <v>3006.562</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>6.563</v>
+      </c>
+      <c r="C250" t="str">
+        <v>3006.563</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>6.571</v>
+      </c>
+      <c r="C251" t="str">
+        <v>3006.571</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>6.572</v>
+      </c>
+      <c r="C252" t="str">
+        <v>3006.572</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>6.573</v>
+      </c>
+      <c r="C253" t="str">
+        <v>3006.573</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>6.611</v>
+      </c>
+      <c r="C254" t="str">
+        <v>3006.611</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>6.612</v>
+      </c>
+      <c r="C255" t="str">
+        <v>3006.612</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>6.613</v>
+      </c>
+      <c r="C256" t="str">
+        <v>3006.613</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>6.621</v>
+      </c>
+      <c r="C257" t="str">
+        <v>3006.621</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>6.622</v>
+      </c>
+      <c r="C258" t="str">
+        <v>3006.622</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>6.623</v>
+      </c>
+      <c r="C259" t="str">
+        <v>3006.623</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>6.631</v>
+      </c>
+      <c r="C260" t="str">
+        <v>3006.631</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>6.632</v>
+      </c>
+      <c r="C261" t="str">
+        <v>3006.632</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>6.633</v>
+      </c>
+      <c r="C262" t="str">
+        <v>3006.633</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>6.641</v>
+      </c>
+      <c r="C263" t="str">
+        <v>3006.641</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>6.642</v>
+      </c>
+      <c r="C264" t="str">
+        <v>3006.642</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>6.643</v>
+      </c>
+      <c r="C265" t="str">
+        <v>3006.643</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>6.651</v>
+      </c>
+      <c r="C266" t="str">
+        <v>3006.651</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>6.652</v>
+      </c>
+      <c r="C267" t="str">
+        <v>3006.652</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>6.653</v>
+      </c>
+      <c r="C268" t="str">
+        <v>3006.653</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>6.661</v>
+      </c>
+      <c r="C269" t="str">
+        <v>3006.661</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>6.662</v>
+      </c>
+      <c r="C270" t="str">
+        <v>3006.662</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>6.663</v>
+      </c>
+      <c r="C271" t="str">
+        <v>3006.663</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>6.671</v>
+      </c>
+      <c r="C272" t="str">
+        <v>3006.671</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>6.672</v>
+      </c>
+      <c r="C273" t="str">
+        <v>3006.672</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>6.673</v>
+      </c>
+      <c r="C274" t="str">
+        <v>3006.673</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>6.711</v>
+      </c>
+      <c r="C275" t="str">
+        <v>3006.711</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>6.712</v>
+      </c>
+      <c r="C276" t="str">
+        <v>3006.712</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>6.713</v>
+      </c>
+      <c r="C277" t="str">
+        <v>3006.713</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>6.721</v>
+      </c>
+      <c r="C278" t="str">
+        <v>3006.721</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>6.722</v>
+      </c>
+      <c r="C279" t="str">
+        <v>3006.722</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>6.723</v>
+      </c>
+      <c r="C280" t="str">
+        <v>3006.723</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>6.731</v>
+      </c>
+      <c r="C281" t="str">
+        <v>3006.731</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>6.732</v>
+      </c>
+      <c r="C282" t="str">
+        <v>3006.732</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>6.733</v>
+      </c>
+      <c r="C283" t="str">
+        <v>3006.733</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>6.741</v>
+      </c>
+      <c r="C284" t="str">
+        <v>3006.741</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>6.742</v>
+      </c>
+      <c r="C285" t="str">
+        <v>3006.742</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>6.743</v>
+      </c>
+      <c r="C286" t="str">
+        <v>3006.743</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>6.751</v>
+      </c>
+      <c r="C287" t="str">
+        <v>3006.751</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>6.752</v>
+      </c>
+      <c r="C288" t="str">
+        <v>3006.752</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>6.753</v>
+      </c>
+      <c r="C289" t="str">
+        <v>3006.753</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>6.761</v>
+      </c>
+      <c r="C290" t="str">
+        <v>3006.761</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>6.762</v>
+      </c>
+      <c r="C291" t="str">
+        <v>3006.762</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>6.763</v>
+      </c>
+      <c r="C292" t="str">
+        <v>3006.763</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>6.771</v>
+      </c>
+      <c r="C293" t="str">
+        <v>3006.771</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>6.772</v>
+      </c>
+      <c r="C294" t="str">
+        <v>3006.772</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>6.773</v>
+      </c>
+      <c r="C295" t="str">
+        <v>3006.773</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>7.111</v>
+      </c>
+      <c r="C296" t="str">
+        <v>3007.111</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>7.112</v>
+      </c>
+      <c r="C297" t="str">
+        <v>3007.112</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>7.113</v>
+      </c>
+      <c r="C298" t="str">
+        <v>3007.113</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>7.121</v>
+      </c>
+      <c r="C299" t="str">
+        <v>3007.121</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>7.122</v>
+      </c>
+      <c r="C300" t="str">
+        <v>3007.122</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>7.123</v>
+      </c>
+      <c r="C301" t="str">
+        <v>3007.123</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>7.131</v>
+      </c>
+      <c r="C302" t="str">
+        <v>3007.131</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>7.132</v>
+      </c>
+      <c r="C303" t="str">
+        <v>3007.132</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>7.133</v>
+      </c>
+      <c r="C304" t="str">
+        <v>3007.133</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>7.141</v>
+      </c>
+      <c r="C305" t="str">
+        <v>3007.141</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>7.142</v>
+      </c>
+      <c r="C306" t="str">
+        <v>3007.142</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>7.143</v>
+      </c>
+      <c r="C307" t="str">
+        <v>3007.143</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>7.151</v>
+      </c>
+      <c r="C308" t="str">
+        <v>3007.151</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>7.152</v>
+      </c>
+      <c r="C309" t="str">
+        <v>3007.152</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>7.153</v>
+      </c>
+      <c r="C310" t="str">
+        <v>3007.153</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>7.161</v>
+      </c>
+      <c r="C311" t="str">
+        <v>3007.161</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>7.162</v>
+      </c>
+      <c r="C312" t="str">
+        <v>3007.162</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>7.163</v>
+      </c>
+      <c r="C313" t="str">
+        <v>3007.163</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>7.171</v>
+      </c>
+      <c r="C314" t="str">
+        <v>3007.171</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>7.172</v>
+      </c>
+      <c r="C315" t="str">
+        <v>3007.172</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>7.173</v>
+      </c>
+      <c r="C316" t="str">
+        <v>3007.173</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>7.211</v>
+      </c>
+      <c r="C317" t="str">
+        <v>3007.211</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>7.212</v>
+      </c>
+      <c r="C318" t="str">
+        <v>3007.212</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>7.213</v>
+      </c>
+      <c r="C319" t="str">
+        <v>3007.213</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>7.221</v>
+      </c>
+      <c r="C320" t="str">
+        <v>3007.221</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>7.222</v>
+      </c>
+      <c r="C321" t="str">
+        <v>3007.222</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>7.223</v>
+      </c>
+      <c r="C322" t="str">
+        <v>3007.223</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>7.231</v>
+      </c>
+      <c r="C323" t="str">
+        <v>3007.231</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>7.232</v>
+      </c>
+      <c r="C324" t="str">
+        <v>3007.232</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>7.233</v>
+      </c>
+      <c r="C325" t="str">
+        <v>3007.233</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>7.241</v>
+      </c>
+      <c r="C326" t="str">
+        <v>3007.241</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>7.242</v>
+      </c>
+      <c r="C327" t="str">
+        <v>3007.242</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>7.243</v>
+      </c>
+      <c r="C328" t="str">
+        <v>3007.243</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>7.251</v>
+      </c>
+      <c r="C329" t="str">
+        <v>3007.251</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>7.252</v>
+      </c>
+      <c r="C330" t="str">
+        <v>3007.252</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>7.253</v>
+      </c>
+      <c r="C331" t="str">
+        <v>3007.253</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>7.261</v>
+      </c>
+      <c r="C332" t="str">
+        <v>3007.261</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>7.262</v>
+      </c>
+      <c r="C333" t="str">
+        <v>3007.262</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>7.263</v>
+      </c>
+      <c r="C334" t="str">
+        <v>3007.263</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>7.271</v>
+      </c>
+      <c r="C335" t="str">
+        <v>3007.271</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>7.272</v>
+      </c>
+      <c r="C336" t="str">
+        <v>3007.272</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>7.273</v>
+      </c>
+      <c r="C337" t="str">
+        <v>3007.273</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>7.311</v>
+      </c>
+      <c r="C338" t="str">
+        <v>3007.311</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>7.312</v>
+      </c>
+      <c r="C339" t="str">
+        <v>3007.312</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>7.313</v>
+      </c>
+      <c r="C340" t="str">
+        <v>3007.313</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>7.321</v>
+      </c>
+      <c r="C341" t="str">
+        <v>3007.321</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>7.322</v>
+      </c>
+      <c r="C342" t="str">
+        <v>3007.322</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>7.323</v>
+      </c>
+      <c r="C343" t="str">
+        <v>3007.323</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>7.331</v>
+      </c>
+      <c r="C344" t="str">
+        <v>3007.331</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>7.332</v>
+      </c>
+      <c r="C345" t="str">
+        <v>3007.332</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>7.333</v>
+      </c>
+      <c r="C346" t="str">
+        <v>3007.333</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>7.341</v>
+      </c>
+      <c r="C347" t="str">
+        <v>3007.341</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>7.342</v>
+      </c>
+      <c r="C348" t="str">
+        <v>3007.342</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>7.343</v>
+      </c>
+      <c r="C349" t="str">
+        <v>3007.343</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>7.351</v>
+      </c>
+      <c r="C350" t="str">
+        <v>3007.351</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>7.352</v>
+      </c>
+      <c r="C351" t="str">
+        <v>3007.352</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>7.353</v>
+      </c>
+      <c r="C352" t="str">
+        <v>3007.353</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>7.361</v>
+      </c>
+      <c r="C353" t="str">
+        <v>3007.361</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>7.362</v>
+      </c>
+      <c r="C354" t="str">
+        <v>3007.362</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>7.363</v>
+      </c>
+      <c r="C355" t="str">
+        <v>3007.363</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>7.371</v>
+      </c>
+      <c r="C356" t="str">
+        <v>3007.371</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>7.372</v>
+      </c>
+      <c r="C357" t="str">
+        <v>3007.372</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>7.373</v>
+      </c>
+      <c r="C358" t="str">
+        <v>3007.373</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>7.411</v>
+      </c>
+      <c r="C359" t="str">
+        <v>3007.411</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>7.412</v>
+      </c>
+      <c r="C360" t="str">
+        <v>3007.412</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>7.413</v>
+      </c>
+      <c r="C361" t="str">
+        <v>3007.413</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>7.421</v>
+      </c>
+      <c r="C362" t="str">
+        <v>3007.421</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>7.422</v>
+      </c>
+      <c r="C363" t="str">
+        <v>3007.422</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>7.423</v>
+      </c>
+      <c r="C364" t="str">
+        <v>3007.423</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>7.431</v>
+      </c>
+      <c r="C365" t="str">
+        <v>3007.431</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>7.432</v>
+      </c>
+      <c r="C366" t="str">
+        <v>3007.432</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>7.433</v>
+      </c>
+      <c r="C367" t="str">
+        <v>3007.433</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>7.441</v>
+      </c>
+      <c r="C368" t="str">
+        <v>3007.441</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>7.442</v>
+      </c>
+      <c r="C369" t="str">
+        <v>3007.442</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>7.443</v>
+      </c>
+      <c r="C370" t="str">
+        <v>3007.443</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>7.451</v>
+      </c>
+      <c r="C371" t="str">
+        <v>3007.451</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>7.452</v>
+      </c>
+      <c r="C372" t="str">
+        <v>3007.452</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>7.453</v>
+      </c>
+      <c r="C373" t="str">
+        <v>3007.453</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>7.461</v>
+      </c>
+      <c r="C374" t="str">
+        <v>3007.461</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>7.462</v>
+      </c>
+      <c r="C375" t="str">
+        <v>3007.462</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>7.463</v>
+      </c>
+      <c r="C376" t="str">
+        <v>3007.463</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>7.471</v>
+      </c>
+      <c r="C377" t="str">
+        <v>3007.471</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>7.472</v>
+      </c>
+      <c r="C378" t="str">
+        <v>3007.472</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>7.473</v>
+      </c>
+      <c r="C379" t="str">
+        <v>3007.473</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>7.511</v>
+      </c>
+      <c r="C380" t="str">
+        <v>3007.511</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>7.512</v>
+      </c>
+      <c r="C381" t="str">
+        <v>3007.512</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>7.513</v>
+      </c>
+      <c r="C382" t="str">
+        <v>3007.513</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>7.521</v>
+      </c>
+      <c r="C383" t="str">
+        <v>3007.521</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>7.522</v>
+      </c>
+      <c r="C384" t="str">
+        <v>3007.522</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>7.523</v>
+      </c>
+      <c r="C385" t="str">
+        <v>3007.523</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>7.531</v>
+      </c>
+      <c r="C386" t="str">
+        <v>3007.531</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>7.532</v>
+      </c>
+      <c r="C387" t="str">
+        <v>3007.532</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>7.533</v>
+      </c>
+      <c r="C388" t="str">
+        <v>3007.533</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>7.541</v>
+      </c>
+      <c r="C389" t="str">
+        <v>3007.541</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>7.542</v>
+      </c>
+      <c r="C390" t="str">
+        <v>3007.542</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>7.543</v>
+      </c>
+      <c r="C391" t="str">
+        <v>3007.543</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>7.551</v>
+      </c>
+      <c r="C392" t="str">
+        <v>3007.551</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>7.552</v>
+      </c>
+      <c r="C393" t="str">
+        <v>3007.552</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>7.553</v>
+      </c>
+      <c r="C394" t="str">
+        <v>3007.553</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>7.561</v>
+      </c>
+      <c r="C395" t="str">
+        <v>3007.561</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>7.562</v>
+      </c>
+      <c r="C396" t="str">
+        <v>3007.562</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>7.563</v>
+      </c>
+      <c r="C397" t="str">
+        <v>3007.563</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>7.571</v>
+      </c>
+      <c r="C398" t="str">
+        <v>3007.571</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>7.572</v>
+      </c>
+      <c r="C399" t="str">
+        <v>3007.572</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>7.573</v>
+      </c>
+      <c r="C400" t="str">
+        <v>3007.573</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>7.611</v>
+      </c>
+      <c r="C401" t="str">
+        <v>3007.611</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>7.612</v>
+      </c>
+      <c r="C402" t="str">
+        <v>3007.612</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>7.613</v>
+      </c>
+      <c r="C403" t="str">
+        <v>3007.613</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>7.621</v>
+      </c>
+      <c r="C404" t="str">
+        <v>3007.621</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>7.622</v>
+      </c>
+      <c r="C405" t="str">
+        <v>3007.622</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>7.623</v>
+      </c>
+      <c r="C406" t="str">
+        <v>3007.623</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>7.631</v>
+      </c>
+      <c r="C407" t="str">
+        <v>3007.631</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>7.632</v>
+      </c>
+      <c r="C408" t="str">
+        <v>3007.632</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>7.633</v>
+      </c>
+      <c r="C409" t="str">
+        <v>3007.633</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>7.641</v>
+      </c>
+      <c r="C410" t="str">
+        <v>3007.641</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>7.642</v>
+      </c>
+      <c r="C411" t="str">
+        <v>3007.642</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>7.643</v>
+      </c>
+      <c r="C412" t="str">
+        <v>3007.643</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>7.651</v>
+      </c>
+      <c r="C413" t="str">
+        <v>3007.651</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>7.652</v>
+      </c>
+      <c r="C414" t="str">
+        <v>3007.652</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>7.653</v>
+      </c>
+      <c r="C415" t="str">
+        <v>3007.653</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>7.661</v>
+      </c>
+      <c r="C416" t="str">
+        <v>3007.661</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>7.662</v>
+      </c>
+      <c r="C417" t="str">
+        <v>3007.662</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>7.663</v>
+      </c>
+      <c r="C418" t="str">
+        <v>3007.663</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>7.671</v>
+      </c>
+      <c r="C419" t="str">
+        <v>3007.671</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>7.672</v>
+      </c>
+      <c r="C420" t="str">
+        <v>3007.672</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>7.673</v>
+      </c>
+      <c r="C421" t="str">
+        <v>3007.673</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>7.711</v>
+      </c>
+      <c r="C422" t="str">
+        <v>3007.711</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>7.712</v>
+      </c>
+      <c r="C423" t="str">
+        <v>3007.712</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>7.713</v>
+      </c>
+      <c r="C424" t="str">
+        <v>3007.713</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>7.721</v>
+      </c>
+      <c r="C425" t="str">
+        <v>3007.721</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>7.722</v>
+      </c>
+      <c r="C426" t="str">
+        <v>3007.722</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>7.723</v>
+      </c>
+      <c r="C427" t="str">
+        <v>3007.723</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>7.731</v>
+      </c>
+      <c r="C428" t="str">
+        <v>3007.731</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>7.732</v>
+      </c>
+      <c r="C429" t="str">
+        <v>3007.732</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>7.733</v>
+      </c>
+      <c r="C430" t="str">
+        <v>3007.733</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>7.741</v>
+      </c>
+      <c r="C431" t="str">
+        <v>3007.741</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>7.742</v>
+      </c>
+      <c r="C432" t="str">
+        <v>3007.742</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>7.743</v>
+      </c>
+      <c r="C433" t="str">
+        <v>3007.743</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>7.751</v>
+      </c>
+      <c r="C434" t="str">
+        <v>3007.751</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>7.752</v>
+      </c>
+      <c r="C435" t="str">
+        <v>3007.752</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>7.753</v>
+      </c>
+      <c r="C436" t="str">
+        <v>3007.753</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>7.761</v>
+      </c>
+      <c r="C437" t="str">
+        <v>3007.761</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>7.762</v>
+      </c>
+      <c r="C438" t="str">
+        <v>3007.762</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>7.763</v>
+      </c>
+      <c r="C439" t="str">
+        <v>3007.763</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>7.771</v>
+      </c>
+      <c r="C440" t="str">
+        <v>3007.771</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>7.772</v>
+      </c>
+      <c r="C441" t="str">
+        <v>3007.772</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>7.773</v>
+      </c>
+      <c r="C442" t="str">
+        <v>3007.773</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>8.111</v>
+      </c>
+      <c r="C443" t="str">
+        <v>3008.111</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>8.112</v>
+      </c>
+      <c r="C444" t="str">
+        <v>3008.112</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>8.113</v>
+      </c>
+      <c r="C445" t="str">
+        <v>3008.113</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>8.121</v>
+      </c>
+      <c r="C446" t="str">
+        <v>3008.121</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>8.122</v>
+      </c>
+      <c r="C447" t="str">
+        <v>3008.122</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>8.123</v>
+      </c>
+      <c r="C448" t="str">
+        <v>3008.123</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>8.131</v>
+      </c>
+      <c r="C449" t="str">
+        <v>3008.131</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>8.132</v>
+      </c>
+      <c r="C450" t="str">
+        <v>3008.132</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>8.133</v>
+      </c>
+      <c r="C451" t="str">
+        <v>3008.133</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>8.141</v>
+      </c>
+      <c r="C452" t="str">
+        <v>3008.141</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>8.142</v>
+      </c>
+      <c r="C453" t="str">
+        <v>3008.142</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>8.143</v>
+      </c>
+      <c r="C454" t="str">
+        <v>3008.143</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>8.151</v>
+      </c>
+      <c r="C455" t="str">
+        <v>3008.151</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>8.152</v>
+      </c>
+      <c r="C456" t="str">
+        <v>3008.152</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>8.153</v>
+      </c>
+      <c r="C457" t="str">
+        <v>3008.153</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>8.161</v>
+      </c>
+      <c r="C458" t="str">
+        <v>3008.161</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>8.162</v>
+      </c>
+      <c r="C459" t="str">
+        <v>3008.162</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>8.163</v>
+      </c>
+      <c r="C460" t="str">
+        <v>3008.163</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>8.171</v>
+      </c>
+      <c r="C461" t="str">
+        <v>3008.171</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>8.172</v>
+      </c>
+      <c r="C462" t="str">
+        <v>3008.172</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>8.173</v>
+      </c>
+      <c r="C463" t="str">
+        <v>3008.173</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>8.211</v>
+      </c>
+      <c r="C464" t="str">
+        <v>3008.211</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>8.212</v>
+      </c>
+      <c r="C465" t="str">
+        <v>3008.212</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>8.213</v>
+      </c>
+      <c r="C466" t="str">
+        <v>3008.213</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>8.221</v>
+      </c>
+      <c r="C467" t="str">
+        <v>3008.221</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>8.222</v>
+      </c>
+      <c r="C468" t="str">
+        <v>3008.222</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>8.223</v>
+      </c>
+      <c r="C469" t="str">
+        <v>3008.223</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>8.231</v>
+      </c>
+      <c r="C470" t="str">
+        <v>3008.231</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>8.232</v>
+      </c>
+      <c r="C471" t="str">
+        <v>3008.232</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>8.233</v>
+      </c>
+      <c r="C472" t="str">
+        <v>3008.233</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>8.241</v>
+      </c>
+      <c r="C473" t="str">
+        <v>3008.241</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>8.242</v>
+      </c>
+      <c r="C474" t="str">
+        <v>3008.242</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>8.243</v>
+      </c>
+      <c r="C475" t="str">
+        <v>3008.243</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>8.251</v>
+      </c>
+      <c r="C476" t="str">
+        <v>3008.251</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>8.252</v>
+      </c>
+      <c r="C477" t="str">
+        <v>3008.252</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>8.253</v>
+      </c>
+      <c r="C478" t="str">
+        <v>3008.253</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>8.261</v>
+      </c>
+      <c r="C479" t="str">
+        <v>3008.261</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>8.262</v>
+      </c>
+      <c r="C480" t="str">
+        <v>3008.262</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>8.263</v>
+      </c>
+      <c r="C481" t="str">
+        <v>3008.263</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>8.271</v>
+      </c>
+      <c r="C482" t="str">
+        <v>3008.271</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>8.272</v>
+      </c>
+      <c r="C483" t="str">
+        <v>3008.272</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>8.273</v>
+      </c>
+      <c r="C484" t="str">
+        <v>3008.273</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>8.311</v>
+      </c>
+      <c r="C485" t="str">
+        <v>3008.311</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>8.312</v>
+      </c>
+      <c r="C486" t="str">
+        <v>3008.312</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>8.313</v>
+      </c>
+      <c r="C487" t="str">
+        <v>3008.313</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>8.321</v>
+      </c>
+      <c r="C488" t="str">
+        <v>3008.321</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>8.322</v>
+      </c>
+      <c r="C489" t="str">
+        <v>3008.322</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>8.323</v>
+      </c>
+      <c r="C490" t="str">
+        <v>3008.323</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>8.331</v>
+      </c>
+      <c r="C491" t="str">
+        <v>3008.331</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>8.332</v>
+      </c>
+      <c r="C492" t="str">
+        <v>3008.332</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>8.333</v>
+      </c>
+      <c r="C493" t="str">
+        <v>3008.333</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>8.341</v>
+      </c>
+      <c r="C494" t="str">
+        <v>3008.341</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>8.342</v>
+      </c>
+      <c r="C495" t="str">
+        <v>3008.342</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>8.343</v>
+      </c>
+      <c r="C496" t="str">
+        <v>3008.343</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>8.351</v>
+      </c>
+      <c r="C497" t="str">
+        <v>3008.351</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>8.352</v>
+      </c>
+      <c r="C498" t="str">
+        <v>3008.352</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>8.353</v>
+      </c>
+      <c r="C499" t="str">
+        <v>3008.353</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>8.361</v>
+      </c>
+      <c r="C500" t="str">
+        <v>3008.361</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>8.362</v>
+      </c>
+      <c r="C501" t="str">
+        <v>3008.362</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>8.363</v>
+      </c>
+      <c r="C502" t="str">
+        <v>3008.363</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>8.371</v>
+      </c>
+      <c r="C503" t="str">
+        <v>3008.371</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>8.372</v>
+      </c>
+      <c r="C504" t="str">
+        <v>3008.372</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>8.373</v>
+      </c>
+      <c r="C505" t="str">
+        <v>3008.373</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>8.411</v>
+      </c>
+      <c r="C506" t="str">
+        <v>3008.411</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>8.412</v>
+      </c>
+      <c r="C507" t="str">
+        <v>3008.412</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>8.413</v>
+      </c>
+      <c r="C508" t="str">
+        <v>3008.413</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>8.421</v>
+      </c>
+      <c r="C509" t="str">
+        <v>3008.421</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>8.422</v>
+      </c>
+      <c r="C510" t="str">
+        <v>3008.422</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>8.423</v>
+      </c>
+      <c r="C511" t="str">
+        <v>3008.423</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>8.431</v>
+      </c>
+      <c r="C512" t="str">
+        <v>3008.431</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>8.432</v>
+      </c>
+      <c r="C513" t="str">
+        <v>3008.432</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>8.433</v>
+      </c>
+      <c r="C514" t="str">
+        <v>3008.433</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>8.441</v>
+      </c>
+      <c r="C515" t="str">
+        <v>3008.441</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>8.442</v>
+      </c>
+      <c r="C516" t="str">
+        <v>3008.442</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>8.443</v>
+      </c>
+      <c r="C517" t="str">
+        <v>3008.443</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>8.451</v>
+      </c>
+      <c r="C518" t="str">
+        <v>3008.451</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>8.452</v>
+      </c>
+      <c r="C519" t="str">
+        <v>3008.452</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>8.453</v>
+      </c>
+      <c r="C520" t="str">
+        <v>3008.453</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>8.461</v>
+      </c>
+      <c r="C521" t="str">
+        <v>3008.461</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>8.462</v>
+      </c>
+      <c r="C522" t="str">
+        <v>3008.462</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>8.463</v>
+      </c>
+      <c r="C523" t="str">
+        <v>3008.463</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>8.471</v>
+      </c>
+      <c r="C524" t="str">
+        <v>3008.471</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>8.472</v>
+      </c>
+      <c r="C525" t="str">
+        <v>3008.472</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>8.473</v>
+      </c>
+      <c r="C526" t="str">
+        <v>3008.473</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>8.511</v>
+      </c>
+      <c r="C527" t="str">
+        <v>3008.511</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>8.512</v>
+      </c>
+      <c r="C528" t="str">
+        <v>3008.512</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>8.513</v>
+      </c>
+      <c r="C529" t="str">
+        <v>3008.513</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>8.521</v>
+      </c>
+      <c r="C530" t="str">
+        <v>3008.521</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>8.522</v>
+      </c>
+      <c r="C531" t="str">
+        <v>3008.522</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>8.523</v>
+      </c>
+      <c r="C532" t="str">
+        <v>3008.523</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>8.531</v>
+      </c>
+      <c r="C533" t="str">
+        <v>3008.531</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>8.532</v>
+      </c>
+      <c r="C534" t="str">
+        <v>3008.532</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>8.533</v>
+      </c>
+      <c r="C535" t="str">
+        <v>3008.533</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>8.541</v>
+      </c>
+      <c r="C536" t="str">
+        <v>3008.541</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>8.542</v>
+      </c>
+      <c r="C537" t="str">
+        <v>3008.542</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>8.543</v>
+      </c>
+      <c r="C538" t="str">
+        <v>3008.543</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>8.551</v>
+      </c>
+      <c r="C539" t="str">
+        <v>3008.551</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>8.552</v>
+      </c>
+      <c r="C540" t="str">
+        <v>3008.552</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>8.553</v>
+      </c>
+      <c r="C541" t="str">
+        <v>3008.553</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>8.561</v>
+      </c>
+      <c r="C542" t="str">
+        <v>3008.561</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>8.562</v>
+      </c>
+      <c r="C543" t="str">
+        <v>3008.562</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>8.563</v>
+      </c>
+      <c r="C544" t="str">
+        <v>3008.563</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>8.571</v>
+      </c>
+      <c r="C545" t="str">
+        <v>3008.571</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>8.572</v>
+      </c>
+      <c r="C546" t="str">
+        <v>3008.572</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>8.573</v>
+      </c>
+      <c r="C547" t="str">
+        <v>3008.573</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>8.611</v>
+      </c>
+      <c r="C548" t="str">
+        <v>3008.611</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>8.612</v>
+      </c>
+      <c r="C549" t="str">
+        <v>3008.612</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>8.613</v>
+      </c>
+      <c r="C550" t="str">
+        <v>3008.613</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>8.621</v>
+      </c>
+      <c r="C551" t="str">
+        <v>3008.621</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>8.622</v>
+      </c>
+      <c r="C552" t="str">
+        <v>3008.622</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>8.623</v>
+      </c>
+      <c r="C553" t="str">
+        <v>3008.623</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>8.631</v>
+      </c>
+      <c r="C554" t="str">
+        <v>3008.631</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>8.632</v>
+      </c>
+      <c r="C555" t="str">
+        <v>3008.632</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>8.633</v>
+      </c>
+      <c r="C556" t="str">
+        <v>3008.633</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>8.641</v>
+      </c>
+      <c r="C557" t="str">
+        <v>3008.641</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>8.642</v>
+      </c>
+      <c r="C558" t="str">
+        <v>3008.642</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>8.643</v>
+      </c>
+      <c r="C559" t="str">
+        <v>3008.643</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>8.651</v>
+      </c>
+      <c r="C560" t="str">
+        <v>3008.651</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>8.652</v>
+      </c>
+      <c r="C561" t="str">
+        <v>3008.652</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>8.653</v>
+      </c>
+      <c r="C562" t="str">
+        <v>3008.653</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>8.661</v>
+      </c>
+      <c r="C563" t="str">
+        <v>3008.661</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>8.662</v>
+      </c>
+      <c r="C564" t="str">
+        <v>3008.662</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>8.663</v>
+      </c>
+      <c r="C565" t="str">
+        <v>3008.663</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>8.671</v>
+      </c>
+      <c r="C566" t="str">
+        <v>3008.671</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>8.672</v>
+      </c>
+      <c r="C567" t="str">
+        <v>3008.672</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>8.673</v>
+      </c>
+      <c r="C568" t="str">
+        <v>3008.673</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>8.711</v>
+      </c>
+      <c r="C569" t="str">
+        <v>3008.711</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>8.712</v>
+      </c>
+      <c r="C570" t="str">
+        <v>3008.712</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>8.713</v>
+      </c>
+      <c r="C571" t="str">
+        <v>3008.713</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>8.721</v>
+      </c>
+      <c r="C572" t="str">
+        <v>3008.721</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>8.722</v>
+      </c>
+      <c r="C573" t="str">
+        <v>3008.722</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>8.723</v>
+      </c>
+      <c r="C574" t="str">
+        <v>3008.723</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>8.731</v>
+      </c>
+      <c r="C575" t="str">
+        <v>3008.731</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>8.732</v>
+      </c>
+      <c r="C576" t="str">
+        <v>3008.732</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>8.733</v>
+      </c>
+      <c r="C577" t="str">
+        <v>3008.733</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>8.741</v>
+      </c>
+      <c r="C578" t="str">
+        <v>3008.741</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>8.742</v>
+      </c>
+      <c r="C579" t="str">
+        <v>3008.742</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>8.743</v>
+      </c>
+      <c r="C580" t="str">
+        <v>3008.743</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>8.751</v>
+      </c>
+      <c r="C581" t="str">
+        <v>3008.751</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>8.752</v>
+      </c>
+      <c r="C582" t="str">
+        <v>3008.752</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>8.753</v>
+      </c>
+      <c r="C583" t="str">
+        <v>3008.753</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>8.761</v>
+      </c>
+      <c r="C584" t="str">
+        <v>3008.761</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>8.762</v>
+      </c>
+      <c r="C585" t="str">
+        <v>3008.762</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>8.763</v>
+      </c>
+      <c r="C586" t="str">
+        <v>3008.763</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>8.771</v>
+      </c>
+      <c r="C587" t="str">
+        <v>3008.771</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>8.772</v>
+      </c>
+      <c r="C588" t="str">
+        <v>3008.772</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>8.773</v>
+      </c>
+      <c r="C589" t="str">
+        <v>3008.773</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>9.111</v>
+      </c>
+      <c r="C590" t="str">
+        <v>3009.111</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>9.112</v>
+      </c>
+      <c r="C591" t="str">
+        <v>3009.112</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>9.113</v>
+      </c>
+      <c r="C592" t="str">
+        <v>3009.113</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>9.121</v>
+      </c>
+      <c r="C593" t="str">
+        <v>3009.121</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>9.122</v>
+      </c>
+      <c r="C594" t="str">
+        <v>3009.122</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>9.123</v>
+      </c>
+      <c r="C595" t="str">
+        <v>3009.123</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>9.131</v>
+      </c>
+      <c r="C596" t="str">
+        <v>3009.131</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>9.132</v>
+      </c>
+      <c r="C597" t="str">
+        <v>3009.132</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>9.133</v>
+      </c>
+      <c r="C598" t="str">
+        <v>3009.133</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>9.141</v>
+      </c>
+      <c r="C599" t="str">
+        <v>3009.141</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>9.142</v>
+      </c>
+      <c r="C600" t="str">
+        <v>3009.142</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>9.143</v>
+      </c>
+      <c r="C601" t="str">
+        <v>3009.143</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>9.151</v>
+      </c>
+      <c r="C602" t="str">
+        <v>3009.151</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>9.152</v>
+      </c>
+      <c r="C603" t="str">
+        <v>3009.152</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>9.153</v>
+      </c>
+      <c r="C604" t="str">
+        <v>3009.153</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>9.161</v>
+      </c>
+      <c r="C605" t="str">
+        <v>3009.161</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>9.162</v>
+      </c>
+      <c r="C606" t="str">
+        <v>3009.162</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>9.163</v>
+      </c>
+      <c r="C607" t="str">
+        <v>3009.163</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>9.171</v>
+      </c>
+      <c r="C608" t="str">
+        <v>3009.171</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>9.172</v>
+      </c>
+      <c r="C609" t="str">
+        <v>3009.172</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>9.173</v>
+      </c>
+      <c r="C610" t="str">
+        <v>3009.173</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>9.211</v>
+      </c>
+      <c r="C611" t="str">
+        <v>3009.211</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>9.212</v>
+      </c>
+      <c r="C612" t="str">
+        <v>3009.212</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>9.213</v>
+      </c>
+      <c r="C613" t="str">
+        <v>3009.213</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>9.221</v>
+      </c>
+      <c r="C614" t="str">
+        <v>3009.221</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>9.222</v>
+      </c>
+      <c r="C615" t="str">
+        <v>3009.222</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>9.223</v>
+      </c>
+      <c r="C616" t="str">
+        <v>3009.223</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>9.231</v>
+      </c>
+      <c r="C617" t="str">
+        <v>3009.231</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>9.232</v>
+      </c>
+      <c r="C618" t="str">
+        <v>3009.232</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>9.233</v>
+      </c>
+      <c r="C619" t="str">
+        <v>3009.233</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>9.241</v>
+      </c>
+      <c r="C620" t="str">
+        <v>3009.241</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>9.242</v>
+      </c>
+      <c r="C621" t="str">
+        <v>3009.242</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>9.243</v>
+      </c>
+      <c r="C622" t="str">
+        <v>3009.243</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>9.251</v>
+      </c>
+      <c r="C623" t="str">
+        <v>3009.251</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>9.252</v>
+      </c>
+      <c r="C624" t="str">
+        <v>3009.252</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>9.253</v>
+      </c>
+      <c r="C625" t="str">
+        <v>3009.253</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>9.261</v>
+      </c>
+      <c r="C626" t="str">
+        <v>3009.261</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>9.262</v>
+      </c>
+      <c r="C627" t="str">
+        <v>3009.262</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>9.263</v>
+      </c>
+      <c r="C628" t="str">
+        <v>3009.263</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>9.271</v>
+      </c>
+      <c r="C629" t="str">
+        <v>3009.271</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>9.272</v>
+      </c>
+      <c r="C630" t="str">
+        <v>3009.272</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>9.273</v>
+      </c>
+      <c r="C631" t="str">
+        <v>3009.273</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>9.311</v>
+      </c>
+      <c r="C632" t="str">
+        <v>3009.311</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>9.312</v>
+      </c>
+      <c r="C633" t="str">
+        <v>3009.312</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>9.313</v>
+      </c>
+      <c r="C634" t="str">
+        <v>3009.313</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>9.321</v>
+      </c>
+      <c r="C635" t="str">
+        <v>3009.321</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>9.322</v>
+      </c>
+      <c r="C636" t="str">
+        <v>3009.322</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>9.323</v>
+      </c>
+      <c r="C637" t="str">
+        <v>3009.323</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>9.331</v>
+      </c>
+      <c r="C638" t="str">
+        <v>3009.331</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>9.332</v>
+      </c>
+      <c r="C639" t="str">
+        <v>3009.332</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>9.333</v>
+      </c>
+      <c r="C640" t="str">
+        <v>3009.333</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>9.341</v>
+      </c>
+      <c r="C641" t="str">
+        <v>3009.341</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>9.342</v>
+      </c>
+      <c r="C642" t="str">
+        <v>3009.342</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>9.343</v>
+      </c>
+      <c r="C643" t="str">
+        <v>3009.343</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>9.351</v>
+      </c>
+      <c r="C644" t="str">
+        <v>3009.351</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>9.352</v>
+      </c>
+      <c r="C645" t="str">
+        <v>3009.352</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>9.353</v>
+      </c>
+      <c r="C646" t="str">
+        <v>3009.353</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>9.361</v>
+      </c>
+      <c r="C647" t="str">
+        <v>3009.361</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>9.362</v>
+      </c>
+      <c r="C648" t="str">
+        <v>3009.362</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>9.363</v>
+      </c>
+      <c r="C649" t="str">
+        <v>3009.363</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>9.371</v>
+      </c>
+      <c r="C650" t="str">
+        <v>3009.371</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>9.372</v>
+      </c>
+      <c r="C651" t="str">
+        <v>3009.372</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>9.373</v>
+      </c>
+      <c r="C652" t="str">
+        <v>3009.373</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>9.411</v>
+      </c>
+      <c r="C653" t="str">
+        <v>3009.411</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>9.412</v>
+      </c>
+      <c r="C654" t="str">
+        <v>3009.412</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>9.413</v>
+      </c>
+      <c r="C655" t="str">
+        <v>3009.413</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>9.421</v>
+      </c>
+      <c r="C656" t="str">
+        <v>3009.421</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>9.422</v>
+      </c>
+      <c r="C657" t="str">
+        <v>3009.422</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>9.423</v>
+      </c>
+      <c r="C658" t="str">
+        <v>3009.423</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>9.431</v>
+      </c>
+      <c r="C659" t="str">
+        <v>3009.431</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>9.432</v>
+      </c>
+      <c r="C660" t="str">
+        <v>3009.432</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v>9.433</v>
+      </c>
+      <c r="C661" t="str">
+        <v>3009.433</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>9.441</v>
+      </c>
+      <c r="C662" t="str">
+        <v>3009.441</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v>9.442</v>
+      </c>
+      <c r="C663" t="str">
+        <v>3009.442</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v>9.443</v>
+      </c>
+      <c r="C664" t="str">
+        <v>3009.443</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>9.451</v>
+      </c>
+      <c r="C665" t="str">
+        <v>3009.451</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v>9.452</v>
+      </c>
+      <c r="C666" t="str">
+        <v>3009.452</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>9.453</v>
+      </c>
+      <c r="C667" t="str">
+        <v>3009.453</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>9.461</v>
+      </c>
+      <c r="C668" t="str">
+        <v>3009.461</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v>9.462</v>
+      </c>
+      <c r="C669" t="str">
+        <v>3009.462</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v>9.463</v>
+      </c>
+      <c r="C670" t="str">
+        <v>3009.463</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v>9.471</v>
+      </c>
+      <c r="C671" t="str">
+        <v>3009.471</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>9.472</v>
+      </c>
+      <c r="C672" t="str">
+        <v>3009.472</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v>9.473</v>
+      </c>
+      <c r="C673" t="str">
+        <v>3009.473</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>9.511</v>
+      </c>
+      <c r="C674" t="str">
+        <v>3009.511</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v>9.512</v>
+      </c>
+      <c r="C675" t="str">
+        <v>3009.512</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v>9.513</v>
+      </c>
+      <c r="C676" t="str">
+        <v>3009.513</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="str">
+        <v>9.521</v>
+      </c>
+      <c r="C677" t="str">
+        <v>3009.521</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v>9.522</v>
+      </c>
+      <c r="C678" t="str">
+        <v>3009.522</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="str">
+        <v>9.523</v>
+      </c>
+      <c r="C679" t="str">
+        <v>3009.523</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v>9.531</v>
+      </c>
+      <c r="C680" t="str">
+        <v>3009.531</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="str">
+        <v>9.532</v>
+      </c>
+      <c r="C681" t="str">
+        <v>3009.532</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="str">
+        <v>9.533</v>
+      </c>
+      <c r="C682" t="str">
+        <v>3009.533</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="str">
+        <v>9.541</v>
+      </c>
+      <c r="C683" t="str">
+        <v>3009.541</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="str">
+        <v>9.542</v>
+      </c>
+      <c r="C684" t="str">
+        <v>3009.542</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="str">
+        <v>9.543</v>
+      </c>
+      <c r="C685" t="str">
+        <v>3009.543</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>9.551</v>
+      </c>
+      <c r="C686" t="str">
+        <v>3009.551</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v>9.552</v>
+      </c>
+      <c r="C687" t="str">
+        <v>3009.552</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>9.553</v>
+      </c>
+      <c r="C688" t="str">
+        <v>3009.553</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>9.561</v>
+      </c>
+      <c r="C689" t="str">
+        <v>3009.561</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>9.562</v>
+      </c>
+      <c r="C690" t="str">
+        <v>3009.562</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v>9.563</v>
+      </c>
+      <c r="C691" t="str">
+        <v>3009.563</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>9.571</v>
+      </c>
+      <c r="C692" t="str">
+        <v>3009.571</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v>9.572</v>
+      </c>
+      <c r="C693" t="str">
+        <v>3009.572</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v>9.573</v>
+      </c>
+      <c r="C694" t="str">
+        <v>3009.573</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v>9.611</v>
+      </c>
+      <c r="C695" t="str">
+        <v>3009.611</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v>9.612</v>
+      </c>
+      <c r="C696" t="str">
+        <v>3009.612</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v>9.613</v>
+      </c>
+      <c r="C697" t="str">
+        <v>3009.613</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>9.621</v>
+      </c>
+      <c r="C698" t="str">
+        <v>3009.621</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="str">
+        <v>9.622</v>
+      </c>
+      <c r="C699" t="str">
+        <v>3009.622</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="str">
+        <v>9.623</v>
+      </c>
+      <c r="C700" t="str">
+        <v>3009.623</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="str">
+        <v>9.631</v>
+      </c>
+      <c r="C701" t="str">
+        <v>3009.631</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="str">
+        <v>9.632</v>
+      </c>
+      <c r="C702" t="str">
+        <v>3009.632</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="str">
+        <v>9.633</v>
+      </c>
+      <c r="C703" t="str">
+        <v>3009.633</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="str">
+        <v>9.641</v>
+      </c>
+      <c r="C704" t="str">
+        <v>3009.641</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="str">
+        <v>9.642</v>
+      </c>
+      <c r="C705" t="str">
+        <v>3009.642</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="str">
+        <v>9.643</v>
+      </c>
+      <c r="C706" t="str">
+        <v>3009.643</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="str">
+        <v>9.651</v>
+      </c>
+      <c r="C707" t="str">
+        <v>3009.651</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="str">
+        <v>9.652</v>
+      </c>
+      <c r="C708" t="str">
+        <v>3009.652</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="str">
+        <v>9.653</v>
+      </c>
+      <c r="C709" t="str">
+        <v>3009.653</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="str">
+        <v>9.661</v>
+      </c>
+      <c r="C710" t="str">
+        <v>3009.661</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="str">
+        <v>9.662</v>
+      </c>
+      <c r="C711" t="str">
+        <v>3009.662</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="str">
+        <v>9.663</v>
+      </c>
+      <c r="C712" t="str">
+        <v>3009.663</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="str">
+        <v>9.671</v>
+      </c>
+      <c r="C713" t="str">
+        <v>3009.671</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="str">
+        <v>9.672</v>
+      </c>
+      <c r="C714" t="str">
+        <v>3009.672</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="str">
+        <v>9.673</v>
+      </c>
+      <c r="C715" t="str">
+        <v>3009.673</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="str">
+        <v>9.711</v>
+      </c>
+      <c r="C716" t="str">
+        <v>3009.711</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="str">
+        <v>9.712</v>
+      </c>
+      <c r="C717" t="str">
+        <v>3009.712</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="str">
+        <v>9.713</v>
+      </c>
+      <c r="C718" t="str">
+        <v>3009.713</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="str">
+        <v>9.721</v>
+      </c>
+      <c r="C719" t="str">
+        <v>3009.721</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="str">
+        <v>9.722</v>
+      </c>
+      <c r="C720" t="str">
+        <v>3009.722</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="str">
+        <v>9.723</v>
+      </c>
+      <c r="C721" t="str">
+        <v>3009.723</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="str">
+        <v>9.731</v>
+      </c>
+      <c r="C722" t="str">
+        <v>3009.731</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="str">
+        <v>9.732</v>
+      </c>
+      <c r="C723" t="str">
+        <v>3009.732</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="str">
+        <v>9.733</v>
+      </c>
+      <c r="C724" t="str">
+        <v>3009.733</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="str">
+        <v>9.741</v>
+      </c>
+      <c r="C725" t="str">
+        <v>3009.741</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="str">
+        <v>9.742</v>
+      </c>
+      <c r="C726" t="str">
+        <v>3009.742</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="str">
+        <v>9.743</v>
+      </c>
+      <c r="C727" t="str">
+        <v>3009.743</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="str">
+        <v>9.751</v>
+      </c>
+      <c r="C728" t="str">
+        <v>3009.751</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="str">
+        <v>9.752</v>
+      </c>
+      <c r="C729" t="str">
+        <v>3009.752</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="str">
+        <v>9.753</v>
+      </c>
+      <c r="C730" t="str">
+        <v>3009.753</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="str">
+        <v>9.761</v>
+      </c>
+      <c r="C731" t="str">
+        <v>3009.761</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="str">
+        <v>9.762</v>
+      </c>
+      <c r="C732" t="str">
+        <v>3009.762</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="str">
+        <v>9.763</v>
+      </c>
+      <c r="C733" t="str">
+        <v>3009.763</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="str">
+        <v>9.771</v>
+      </c>
+      <c r="C734" t="str">
+        <v>3009.771</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="str">
+        <v>9.772</v>
+      </c>
+      <c r="C735" t="str">
+        <v>3009.772</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="str">
+        <v>9.773</v>
+      </c>
+      <c r="C736" t="str">
+        <v>3009.773</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="str">
         <v>10.111</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C737" t="str">
         <v>3010.111</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="str">
+        <v>10.112</v>
+      </c>
+      <c r="C738" t="str">
+        <v>3010.112</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="str">
+        <v>10.113</v>
+      </c>
+      <c r="C739" t="str">
+        <v>3010.113</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="str">
+        <v>10.121</v>
+      </c>
+      <c r="C740" t="str">
+        <v>3010.121</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="str">
+        <v>10.122</v>
+      </c>
+      <c r="C741" t="str">
+        <v>3010.122</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="str">
+        <v>10.123</v>
+      </c>
+      <c r="C742" t="str">
+        <v>3010.123</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="str">
+        <v>10.131</v>
+      </c>
+      <c r="C743" t="str">
+        <v>3010.131</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="str">
+        <v>10.132</v>
+      </c>
+      <c r="C744" t="str">
+        <v>3010.132</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="str">
+        <v>10.133</v>
+      </c>
+      <c r="C745" t="str">
+        <v>3010.133</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="str">
+        <v>10.141</v>
+      </c>
+      <c r="C746" t="str">
+        <v>3010.141</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="str">
+        <v>10.142</v>
+      </c>
+      <c r="C747" t="str">
+        <v>3010.142</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="str">
+        <v>10.143</v>
+      </c>
+      <c r="C748" t="str">
+        <v>3010.143</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="str">
+        <v>10.151</v>
+      </c>
+      <c r="C749" t="str">
+        <v>3010.151</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="str">
+        <v>10.152</v>
+      </c>
+      <c r="C750" t="str">
+        <v>3010.152</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="str">
+        <v>10.153</v>
+      </c>
+      <c r="C751" t="str">
+        <v>3010.153</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="str">
+        <v>10.161</v>
+      </c>
+      <c r="C752" t="str">
+        <v>3010.161</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="str">
+        <v>10.162</v>
+      </c>
+      <c r="C753" t="str">
+        <v>3010.162</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="str">
+        <v>10.163</v>
+      </c>
+      <c r="C754" t="str">
+        <v>3010.163</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="str">
+        <v>10.171</v>
+      </c>
+      <c r="C755" t="str">
+        <v>3010.171</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="str">
+        <v>10.172</v>
+      </c>
+      <c r="C756" t="str">
+        <v>3010.172</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="str">
+        <v>10.173</v>
+      </c>
+      <c r="C757" t="str">
+        <v>3010.173</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="str">
+        <v>10.211</v>
+      </c>
+      <c r="C758" t="str">
+        <v>3010.211</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="str">
+        <v>10.212</v>
+      </c>
+      <c r="C759" t="str">
+        <v>3010.212</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="str">
+        <v>10.213</v>
+      </c>
+      <c r="C760" t="str">
+        <v>3010.213</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="str">
+        <v>10.221</v>
+      </c>
+      <c r="C761" t="str">
+        <v>3010.221</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="str">
+        <v>10.222</v>
+      </c>
+      <c r="C762" t="str">
+        <v>3010.222</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="str">
+        <v>10.223</v>
+      </c>
+      <c r="C763" t="str">
+        <v>3010.223</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="str">
+        <v>10.231</v>
+      </c>
+      <c r="C764" t="str">
+        <v>3010.231</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="str">
+        <v>10.232</v>
+      </c>
+      <c r="C765" t="str">
+        <v>3010.232</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="str">
+        <v>10.233</v>
+      </c>
+      <c r="C766" t="str">
+        <v>3010.233</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="str">
+        <v>10.241</v>
+      </c>
+      <c r="C767" t="str">
+        <v>3010.241</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="str">
+        <v>10.242</v>
+      </c>
+      <c r="C768" t="str">
+        <v>3010.242</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="str">
+        <v>10.243</v>
+      </c>
+      <c r="C769" t="str">
+        <v>3010.243</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="str">
+        <v>10.251</v>
+      </c>
+      <c r="C770" t="str">
+        <v>3010.251</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="str">
+        <v>10.252</v>
+      </c>
+      <c r="C771" t="str">
+        <v>3010.252</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="str">
+        <v>10.253</v>
+      </c>
+      <c r="C772" t="str">
+        <v>3010.253</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="str">
+        <v>10.261</v>
+      </c>
+      <c r="C773" t="str">
+        <v>3010.261</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="str">
+        <v>10.262</v>
+      </c>
+      <c r="C774" t="str">
+        <v>3010.262</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="str">
+        <v>10.263</v>
+      </c>
+      <c r="C775" t="str">
+        <v>3010.263</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="str">
+        <v>10.271</v>
+      </c>
+      <c r="C776" t="str">
+        <v>3010.271</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="str">
+        <v>10.272</v>
+      </c>
+      <c r="C777" t="str">
+        <v>3010.272</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="str">
+        <v>10.273</v>
+      </c>
+      <c r="C778" t="str">
+        <v>3010.273</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v>10.311</v>
+      </c>
+      <c r="C779" t="str">
+        <v>3010.311</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
+        <v>10.312</v>
+      </c>
+      <c r="C780" t="str">
+        <v>3010.312</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="str">
+        <v>10.313</v>
+      </c>
+      <c r="C781" t="str">
+        <v>3010.313</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="str">
+        <v>10.321</v>
+      </c>
+      <c r="C782" t="str">
+        <v>3010.321</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="str">
+        <v>10.322</v>
+      </c>
+      <c r="C783" t="str">
+        <v>3010.322</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="str">
+        <v>10.323</v>
+      </c>
+      <c r="C784" t="str">
+        <v>3010.323</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="str">
+        <v>10.331</v>
+      </c>
+      <c r="C785" t="str">
+        <v>3010.331</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="str">
+        <v>10.332</v>
+      </c>
+      <c r="C786" t="str">
+        <v>3010.332</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="str">
+        <v>10.333</v>
+      </c>
+      <c r="C787" t="str">
+        <v>3010.333</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="str">
+        <v>10.341</v>
+      </c>
+      <c r="C788" t="str">
+        <v>3010.341</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="str">
+        <v>10.342</v>
+      </c>
+      <c r="C789" t="str">
+        <v>3010.342</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="str">
+        <v>10.343</v>
+      </c>
+      <c r="C790" t="str">
+        <v>3010.343</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="str">
+        <v>10.351</v>
+      </c>
+      <c r="C791" t="str">
+        <v>3010.351</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="str">
+        <v>10.352</v>
+      </c>
+      <c r="C792" t="str">
+        <v>3010.352</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="str">
+        <v>10.353</v>
+      </c>
+      <c r="C793" t="str">
+        <v>3010.353</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="str">
+        <v>10.361</v>
+      </c>
+      <c r="C794" t="str">
+        <v>3010.361</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="str">
+        <v>10.362</v>
+      </c>
+      <c r="C795" t="str">
+        <v>3010.362</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="str">
+        <v>10.363</v>
+      </c>
+      <c r="C796" t="str">
+        <v>3010.363</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="str">
+        <v>10.371</v>
+      </c>
+      <c r="C797" t="str">
+        <v>3010.371</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="str">
+        <v>10.372</v>
+      </c>
+      <c r="C798" t="str">
+        <v>3010.372</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="str">
+        <v>10.373</v>
+      </c>
+      <c r="C799" t="str">
+        <v>3010.373</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="str">
+        <v>10.411</v>
+      </c>
+      <c r="C800" t="str">
+        <v>3010.411</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="str">
+        <v>10.412</v>
+      </c>
+      <c r="C801" t="str">
+        <v>3010.412</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="str">
+        <v>10.413</v>
+      </c>
+      <c r="C802" t="str">
+        <v>3010.413</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="str">
+        <v>10.421</v>
+      </c>
+      <c r="C803" t="str">
+        <v>3010.421</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="str">
+        <v>10.422</v>
+      </c>
+      <c r="C804" t="str">
+        <v>3010.422</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="str">
+        <v>10.423</v>
+      </c>
+      <c r="C805" t="str">
+        <v>3010.423</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="str">
+        <v>10.431</v>
+      </c>
+      <c r="C806" t="str">
+        <v>3010.431</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="str">
+        <v>10.432</v>
+      </c>
+      <c r="C807" t="str">
+        <v>3010.432</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="str">
+        <v>10.433</v>
+      </c>
+      <c r="C808" t="str">
+        <v>3010.433</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="str">
+        <v>10.441</v>
+      </c>
+      <c r="C809" t="str">
+        <v>3010.441</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="str">
+        <v>10.442</v>
+      </c>
+      <c r="C810" t="str">
+        <v>3010.442</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="str">
+        <v>10.443</v>
+      </c>
+      <c r="C811" t="str">
+        <v>3010.443</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="str">
+        <v>10.451</v>
+      </c>
+      <c r="C812" t="str">
+        <v>3010.451</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="str">
+        <v>10.452</v>
+      </c>
+      <c r="C813" t="str">
+        <v>3010.452</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="str">
+        <v>10.453</v>
+      </c>
+      <c r="C814" t="str">
+        <v>3010.453</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="str">
+        <v>10.461</v>
+      </c>
+      <c r="C815" t="str">
+        <v>3010.461</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="str">
+        <v>10.462</v>
+      </c>
+      <c r="C816" t="str">
+        <v>3010.462</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="str">
+        <v>10.463</v>
+      </c>
+      <c r="C817" t="str">
+        <v>3010.463</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="str">
+        <v>10.471</v>
+      </c>
+      <c r="C818" t="str">
+        <v>3010.471</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="str">
+        <v>10.472</v>
+      </c>
+      <c r="C819" t="str">
+        <v>3010.472</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="str">
+        <v>10.473</v>
+      </c>
+      <c r="C820" t="str">
+        <v>3010.473</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="str">
+        <v>10.511</v>
+      </c>
+      <c r="C821" t="str">
+        <v>3010.511</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="str">
+        <v>10.512</v>
+      </c>
+      <c r="C822" t="str">
+        <v>3010.512</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="str">
+        <v>10.513</v>
+      </c>
+      <c r="C823" t="str">
+        <v>3010.513</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="str">
+        <v>10.521</v>
+      </c>
+      <c r="C824" t="str">
+        <v>3010.521</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="str">
+        <v>10.522</v>
+      </c>
+      <c r="C825" t="str">
+        <v>3010.522</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="str">
+        <v>10.523</v>
+      </c>
+      <c r="C826" t="str">
+        <v>3010.523</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="str">
+        <v>10.531</v>
+      </c>
+      <c r="C827" t="str">
+        <v>3010.531</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="str">
+        <v>10.532</v>
+      </c>
+      <c r="C828" t="str">
+        <v>3010.532</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="str">
+        <v>10.533</v>
+      </c>
+      <c r="C829" t="str">
+        <v>3010.533</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="str">
+        <v>10.541</v>
+      </c>
+      <c r="C830" t="str">
+        <v>3010.541</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="str">
+        <v>10.542</v>
+      </c>
+      <c r="C831" t="str">
+        <v>3010.542</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="str">
+        <v>10.543</v>
+      </c>
+      <c r="C832" t="str">
+        <v>3010.543</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="str">
+        <v>10.551</v>
+      </c>
+      <c r="C833" t="str">
+        <v>3010.551</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="str">
+        <v>10.552</v>
+      </c>
+      <c r="C834" t="str">
+        <v>3010.552</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="str">
+        <v>10.553</v>
+      </c>
+      <c r="C835" t="str">
+        <v>3010.553</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="str">
+        <v>10.561</v>
+      </c>
+      <c r="C836" t="str">
+        <v>3010.561</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="str">
+        <v>10.562</v>
+      </c>
+      <c r="C837" t="str">
+        <v>3010.562</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="str">
+        <v>10.563</v>
+      </c>
+      <c r="C838" t="str">
+        <v>3010.563</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="str">
+        <v>10.571</v>
+      </c>
+      <c r="C839" t="str">
+        <v>3010.571</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="str">
+        <v>10.572</v>
+      </c>
+      <c r="C840" t="str">
+        <v>3010.572</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="str">
+        <v>10.573</v>
+      </c>
+      <c r="C841" t="str">
+        <v>3010.573</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="str">
+        <v>10.611</v>
+      </c>
+      <c r="C842" t="str">
+        <v>3010.611</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v>10.612</v>
+      </c>
+      <c r="C843" t="str">
+        <v>3010.612</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="str">
+        <v>10.613</v>
+      </c>
+      <c r="C844" t="str">
+        <v>3010.613</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="str">
+        <v>10.621</v>
+      </c>
+      <c r="C845" t="str">
+        <v>3010.621</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="str">
+        <v>10.622</v>
+      </c>
+      <c r="C846" t="str">
+        <v>3010.622</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="str">
+        <v>10.623</v>
+      </c>
+      <c r="C847" t="str">
+        <v>3010.623</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="str">
+        <v>10.631</v>
+      </c>
+      <c r="C848" t="str">
+        <v>3010.631</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="str">
+        <v>10.632</v>
+      </c>
+      <c r="C849" t="str">
+        <v>3010.632</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="str">
+        <v>10.633</v>
+      </c>
+      <c r="C850" t="str">
+        <v>3010.633</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="str">
+        <v>10.641</v>
+      </c>
+      <c r="C851" t="str">
+        <v>3010.641</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="str">
+        <v>10.642</v>
+      </c>
+      <c r="C852" t="str">
+        <v>3010.642</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="str">
+        <v>10.643</v>
+      </c>
+      <c r="C853" t="str">
+        <v>3010.643</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="str">
+        <v>10.651</v>
+      </c>
+      <c r="C854" t="str">
+        <v>3010.651</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="str">
+        <v>10.652</v>
+      </c>
+      <c r="C855" t="str">
+        <v>3010.652</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="str">
+        <v>10.653</v>
+      </c>
+      <c r="C856" t="str">
+        <v>3010.653</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="str">
+        <v>10.661</v>
+      </c>
+      <c r="C857" t="str">
+        <v>3010.661</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="str">
+        <v>10.662</v>
+      </c>
+      <c r="C858" t="str">
+        <v>3010.662</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="str">
+        <v>10.663</v>
+      </c>
+      <c r="C859" t="str">
+        <v>3010.663</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="str">
+        <v>10.671</v>
+      </c>
+      <c r="C860" t="str">
+        <v>3010.671</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="str">
+        <v>10.672</v>
+      </c>
+      <c r="C861" t="str">
+        <v>3010.672</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="str">
+        <v>10.673</v>
+      </c>
+      <c r="C862" t="str">
+        <v>3010.673</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="str">
+        <v>10.711</v>
+      </c>
+      <c r="C863" t="str">
+        <v>3010.711</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="str">
+        <v>10.712</v>
+      </c>
+      <c r="C864" t="str">
+        <v>3010.712</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="str">
+        <v>10.713</v>
+      </c>
+      <c r="C865" t="str">
+        <v>3010.713</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="str">
+        <v>10.721</v>
+      </c>
+      <c r="C866" t="str">
+        <v>3010.721</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="str">
+        <v>10.722</v>
+      </c>
+      <c r="C867" t="str">
+        <v>3010.722</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="str">
+        <v>10.723</v>
+      </c>
+      <c r="C868" t="str">
+        <v>3010.723</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="str">
+        <v>10.731</v>
+      </c>
+      <c r="C869" t="str">
+        <v>3010.731</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="str">
+        <v>10.732</v>
+      </c>
+      <c r="C870" t="str">
+        <v>3010.732</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="str">
+        <v>10.733</v>
+      </c>
+      <c r="C871" t="str">
+        <v>3010.733</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="str">
+        <v>10.741</v>
+      </c>
+      <c r="C872" t="str">
+        <v>3010.741</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="str">
+        <v>10.742</v>
+      </c>
+      <c r="C873" t="str">
+        <v>3010.742</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="str">
+        <v>10.743</v>
+      </c>
+      <c r="C874" t="str">
+        <v>3010.743</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="str">
+        <v>10.751</v>
+      </c>
+      <c r="C875" t="str">
+        <v>3010.751</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="str">
+        <v>10.752</v>
+      </c>
+      <c r="C876" t="str">
+        <v>3010.752</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="str">
+        <v>10.753</v>
+      </c>
+      <c r="C877" t="str">
+        <v>3010.753</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="str">
+        <v>10.761</v>
+      </c>
+      <c r="C878" t="str">
+        <v>3010.761</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="str">
+        <v>10.762</v>
+      </c>
+      <c r="C879" t="str">
+        <v>3010.762</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="str">
+        <v>10.763</v>
+      </c>
+      <c r="C880" t="str">
+        <v>3010.763</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="str">
+        <v>10.771</v>
+      </c>
+      <c r="C881" t="str">
+        <v>3010.771</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="str">
+        <v>10.772</v>
+      </c>
+      <c r="C882" t="str">
+        <v>3010.772</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="str">
+        <v>10.773</v>
+      </c>
+      <c r="C883" t="str">
+        <v>3010.773</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C883"/>
   </ignoredErrors>
 </worksheet>
 </file>